--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RJ\Personal Files\Projects\Dribbly\Dribbly.WebClient\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939FA58E-547C-4B0D-B002-2B4CAE6B57F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8A58EA-214C-4391-BBD6-72065F85AB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DB567541-DB14-4267-9162-DA87806FDC5E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$28:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="324">
   <si>
     <t>Task ID</t>
   </si>
@@ -993,9 +993,6 @@
     <t>improv: WEB-0088 - Display real owner name and avatar in court details</t>
   </si>
   <si>
-    <t>Implement security</t>
-  </si>
-  <si>
     <t>Show error message when website fails to load</t>
   </si>
   <si>
@@ -1091,9 +1088,6 @@
     <t>Display error page when a fatal error occurs</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>WEB-0098</t>
   </si>
   <si>
@@ -1106,7 +1100,43 @@
     <t>Move Services and Models to a separate project</t>
   </si>
   <si>
-    <t>Refactor: WEB-0099 - Move Services and Models to a separate project</t>
+    <t>Upgrade Web API to .net Core 2.2</t>
+  </si>
+  <si>
+    <t>WEB-0100</t>
+  </si>
+  <si>
+    <t>Refactor: WEB-0099 - Move Services and Models to a separate project
+Refactor: WEB-0099 - move models to a separate project
+Also:
+- Move Authentication-related files to a separate project</t>
+  </si>
+  <si>
+    <t>Permission on other tabs don't get updated when user logs out</t>
+  </si>
+  <si>
+    <t>Implement authorization</t>
+  </si>
+  <si>
+    <t>Implement global error handling in Web API</t>
+  </si>
+  <si>
+    <t>feat: WEB-0094 - Implement authorization</t>
+  </si>
+  <si>
+    <t>WEB-0101</t>
+  </si>
+  <si>
+    <t>feat: WEB-0101 - Implement global error handling in Web API</t>
+  </si>
+  <si>
+    <t>WEB-0102</t>
+  </si>
+  <si>
+    <t>Can't navigate to court viewer by clicking View Full Details on Court Preview modal. Getting console errors</t>
+  </si>
+  <si>
+    <t>fix: WEB-0102 - Can't navigate to court viewer by clicking View Full Details on Court Preview modal. Getting console errors</t>
   </si>
 </sst>
 </file>
@@ -1722,11 +1752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5C8820-5387-482D-9CA9-07E9823B72AA}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>3</v>
@@ -1775,7 +1805,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
@@ -1792,7 +1822,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>37</v>
@@ -2110,7 +2140,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -2128,7 +2158,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
@@ -2146,7 +2176,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>37</v>
@@ -2164,7 +2194,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>37</v>
@@ -2182,7 +2212,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2200,7 +2230,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -2214,56 +2244,44 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="4">
-        <v>43997.018750000003</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4">
-        <v>43995.52847222222</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>21</v>
@@ -2274,13 +2292,17 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44012.827777777777</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2288,22 +2310,28 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -2313,30 +2341,30 @@
       <c r="I29" s="2"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4">
-        <v>43990.650694444441</v>
+        <v>44008</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>21</v>
@@ -2345,14 +2373,16 @@
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43995.52847222222</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -2360,19 +2390,25 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -2385,20 +2421,20 @@
       <c r="I32" s="2"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2406,13 +2442,17 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43990.650694444441</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -2420,19 +2460,29 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44012.328472222223</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -2440,22 +2490,28 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -2465,177 +2521,137 @@
       <c r="I36" s="2"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
         <v>43990.670138888891</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="H41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
         <v>43983.301388888889</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="4">
-        <v>43982.572222222225</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4">
-        <v>43982.536805555559</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4">
-        <v>43982.416666666664</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4">
-        <v>43982.368055555555</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>21</v>
@@ -2650,13 +2666,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="4">
-        <v>43976.984027777777</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -2665,13 +2681,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J43" s="5"/>
     </row>
@@ -2680,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="4">
-        <v>43976.3</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>21</v>
@@ -2705,27 +2721,27 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4">
-        <v>43976.279861111114</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>21</v>
@@ -2735,18 +2751,18 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4">
-        <v>43976.130555555559</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -2755,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>21</v>
@@ -2765,27 +2781,27 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <v>43962.618055555555</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>26</v>
@@ -2795,46 +2811,48 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="4">
-        <v>43962.611111111109</v>
+        <v>43976.3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="4">
-        <v>43969.09375</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
@@ -2843,37 +2861,37 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4">
-        <v>43954</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>21</v>
@@ -2883,33 +2901,33 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="4">
-        <v>43959</v>
+        <v>43962.618055555555</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>229</v>
+      <c r="G51" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J51" s="5"/>
     </row>
@@ -2918,13 +2936,13 @@
         <v>11</v>
       </c>
       <c r="B52" s="4">
-        <v>43948</v>
+        <v>43962.611111111109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -2933,180 +2951,178 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4">
+        <v>43969.09375</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="5" t="s">
+      <c r="H56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="10">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="10">
         <v>43933</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="10">
+      <c r="H57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="10">
         <v>43932</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="14">
-        <v>43963.240277777775</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="10">
-        <v>43932</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="10">
-        <v>43893</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="10">
-        <v>43920</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>15</v>
@@ -3115,157 +3131,157 @@
         <v>1</v>
       </c>
       <c r="G58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="14">
+        <v>43963.240277777775</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10">
+        <v>43932</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="10">
+        <v>43893</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="10">
+        <v>43920</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="10">
+      <c r="H62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="10">
         <v>43911</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8" t="s">
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="10">
-        <v>43903</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="10">
-        <v>43901</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="10">
-        <v>43901</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="10">
-        <v>43901</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>21</v>
@@ -3280,22 +3296,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="10">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F64" s="9">
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>21</v>
@@ -3305,7 +3321,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>11</v>
       </c>
@@ -3313,25 +3329,25 @@
         <v>43901</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F65" s="9">
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J65" s="11"/>
     </row>
@@ -3340,13 +3356,13 @@
         <v>11</v>
       </c>
       <c r="B66" s="10">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>8</v>
@@ -3355,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>21</v>
@@ -3365,57 +3381,57 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="10">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="10">
+        <v>43901</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="10">
-        <v>43898</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="F68" s="9">
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>21</v>
@@ -3425,18 +3441,18 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="10">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>8</v>
@@ -3445,17 +3461,17 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>11</v>
       </c>
@@ -3463,10 +3479,10 @@
         <v>43898</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>8</v>
@@ -3475,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>21</v>
@@ -3485,7 +3501,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>11</v>
       </c>
@@ -3493,55 +3509,55 @@
         <v>43898</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="10">
+        <v>43898</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="10">
-        <v>43897</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="9">
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J72" s="11"/>
     </row>
@@ -3550,22 +3566,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="10">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>21</v>
@@ -3575,18 +3591,18 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="10">
-        <v>43887</v>
+        <v>43898</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>8</v>
@@ -3595,71 +3611,73 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="10">
-        <v>43885</v>
+        <v>43898</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="10">
+        <v>43897</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="10">
-        <v>43883</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="F76" s="9">
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J76" s="11"/>
     </row>
@@ -3668,58 +3686,58 @@
         <v>11</v>
       </c>
       <c r="B77" s="10">
-        <v>43883</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="12" t="s">
+        <v>43897</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="13">
-        <v>1</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>21</v>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="10">
-        <v>43883</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="13">
-        <v>1</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>26</v>
+        <v>43887</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="J78" s="11"/>
     </row>
@@ -3727,58 +3745,56 @@
       <c r="A79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="14">
-        <v>43881</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79" s="13">
-        <v>1</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>26</v>
+      <c r="B79" s="10">
+        <v>43885</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="14">
-        <v>43881</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F80" s="13">
-        <v>1</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="12" t="s">
+      <c r="B80" s="10">
+        <v>43883</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J80" s="11"/>
@@ -3787,164 +3803,164 @@
       <c r="A81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="10">
+        <v>43883</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="13">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="10">
+        <v>43883</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="13">
+        <v>1</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="14">
+        <v>43881</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="13">
+        <v>1</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="14">
+        <v>43881</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="14">
         <v>43878</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E85" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="13">
-        <v>1</v>
-      </c>
-      <c r="G81" s="12" t="s">
+      <c r="F85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="14">
+      <c r="H85" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="14">
         <v>43878</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="13">
-        <v>1</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="14">
-        <v>43877</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="13">
-        <v>1</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="14">
-        <v>43877</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="13">
-        <v>1</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="14">
-        <v>43874</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="14">
-        <v>43872</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>8</v>
@@ -3952,168 +3968,168 @@
       <c r="F86" s="13">
         <v>1</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="14">
+        <v>43877</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="13">
+        <v>1</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="14">
+        <v>43877</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="13">
+        <v>1</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="14">
+        <v>43874</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="14">
+        <v>43872</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="13">
+        <v>1</v>
+      </c>
+      <c r="G90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H86" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="10">
+      <c r="H90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="10">
         <v>43883</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="9">
-        <v>1</v>
-      </c>
-      <c r="G87" s="8" t="s">
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="14">
-        <v>43869</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="13">
-        <v>1</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="14">
-        <v>43870</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="13">
-        <v>1</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="14">
-        <v>43869</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="13">
-        <v>1</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="14">
-        <v>43869</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="13">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="12" t="s">
+      <c r="H91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>11</v>
       </c>
@@ -4121,10 +4137,10 @@
         <v>43869</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>8</v>
@@ -4133,28 +4149,28 @@
         <v>1</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="14">
-        <v>43865</v>
+        <v>43870</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>15</v>
@@ -4163,13 +4179,13 @@
         <v>1</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J93" s="11"/>
     </row>
@@ -4178,28 +4194,28 @@
         <v>11</v>
       </c>
       <c r="B94" s="14">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J94" s="11"/>
     </row>
@@ -4208,13 +4224,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="14">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>8</v>
@@ -4223,43 +4239,43 @@
         <v>1</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="14">
-        <v>43855</v>
+        <v>43869</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>197</v>
+        <v>8</v>
+      </c>
+      <c r="F96" s="13">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="J96" s="11"/>
     </row>
@@ -4268,102 +4284,112 @@
         <v>11</v>
       </c>
       <c r="B97" s="14">
-        <v>43856</v>
+        <v>43865</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="14">
+        <v>43858</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="14">
+        <v>43858</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="13">
-        <v>1</v>
-      </c>
-      <c r="G97" s="18"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="14">
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="14">
         <v>43855</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" s="13">
-        <v>1</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="14">
-        <v>43854</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="C100" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="13">
-        <v>1</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="14">
-        <v>43854</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12" t="s">
-        <v>62</v>
+      <c r="F100" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>21</v>
@@ -4378,148 +4404,158 @@
         <v>11</v>
       </c>
       <c r="B101" s="14">
-        <v>43853</v>
+        <v>43856</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F101" s="13">
+        <v>1</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="14">
-        <v>43853</v>
+        <v>43855</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
       <c r="G102" s="12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="14">
-        <v>43851</v>
+        <v>43854</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
       <c r="G103" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="14">
-        <v>43849</v>
+        <v>43854</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="12"/>
       <c r="F104" s="13"/>
       <c r="G104" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="14">
-        <v>43848</v>
+        <v>43853</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="14">
-        <v>43848</v>
+        <v>43853</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="12" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>21</v>
@@ -4529,109 +4565,97 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="14">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="14">
-        <v>43846</v>
+        <v>43849</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="14">
-        <v>43835</v>
+        <v>43848</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="14">
-        <v>43835</v>
+        <v>43848</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>21</v>
@@ -4646,46 +4670,48 @@
         <v>11</v>
       </c>
       <c r="B111" s="14">
-        <v>43842</v>
+        <v>43847</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F111" s="13"/>
-      <c r="G111" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+      <c r="G111" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="14">
-        <v>43857</v>
+        <v>43846</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="13">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F112" s="13"/>
       <c r="G112" s="12" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>21</v>
@@ -4695,71 +4721,182 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="14">
-        <v>43841</v>
+        <v>43835</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="14">
-        <v>43751</v>
+        <v>43835</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="14">
+        <v>43842</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="14">
+        <v>43857</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="13">
+        <v>1</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="14">
+        <v>43841</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="14">
+        <v>43751</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="11"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="11"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:J36">
-    <sortCondition descending="1" ref="C28:C36"/>
+  <autoFilter ref="A1:J119" xr:uid="{81BE3615-1917-4B33-A6A0-89B97BA651CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:J40">
+    <sortCondition descending="1" ref="C32:C40"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A114">
+  <conditionalFormatting sqref="A2:A118">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -4770,12 +4907,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B114">
+  <conditionalFormatting sqref="B2:B118">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E114">
+  <conditionalFormatting sqref="E2:E118">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$E2="Improv"</formula>
     </cfRule>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RJ\Personal Files\Projects\Dribbly\Dribbly.WebClient\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D017A-26B8-4F3E-B1CF-3D73610BC777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DB567541-DB14-4267-9162-DA87806FDC5E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$195</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="500">
   <si>
     <t>Task ID</t>
   </si>
@@ -1588,11 +1587,106 @@
   <si>
     <t>improv: WEB-0141 - Show login modal when authentication fails mid-transaction</t>
   </si>
+  <si>
+    <t>WEB-0142</t>
+  </si>
+  <si>
+    <t>Improve Account details page</t>
+  </si>
+  <si>
+    <t>improv: WEB-0142 - Improve Account details page</t>
+  </si>
+  <si>
+    <t>improv: WEB-0017 - Make page navigator's position fixed on WEB</t>
+  </si>
+  <si>
+    <t>Do not use custom scrolls on small screens</t>
+  </si>
+  <si>
+    <t>WEB-0143</t>
+  </si>
+  <si>
+    <t>Improv: WEB-0143 - Do not use custom scrolls on small screens</t>
+  </si>
+  <si>
+    <t>Update Game Details design</t>
+  </si>
+  <si>
+    <t>WEB-0144</t>
+  </si>
+  <si>
+    <t>improv: WEB-0144 - Update Game Details design</t>
+  </si>
+  <si>
+    <t>WEB-0145</t>
+  </si>
+  <si>
+    <t>Game Reviews - Getting error when removing pricecomponent</t>
+  </si>
+  <si>
+    <t>Notifications checker generates many errors when user is not authenticated</t>
+  </si>
+  <si>
+    <t>Add Court Reviews view and ability to post a review</t>
+  </si>
+  <si>
+    <t>Add ability to rate a player</t>
+  </si>
+  <si>
+    <t>feat: WEB-0145 - add Court Reviews view and ability to post a review</t>
+  </si>
+  <si>
+    <t>Log total number of visits and number of active sessions</t>
+  </si>
+  <si>
+    <t>Court Viewer - Add "Make a reservation" button</t>
+  </si>
+  <si>
+    <t>Add functionality to share player profile on social platforms</t>
+  </si>
+  <si>
+    <t>Add ability to add Game comments</t>
+  </si>
+  <si>
+    <t>Account Viewer - Home - Add page and display the player's profile</t>
+  </si>
+  <si>
+    <t>AccountViewer - Home - Display user's activities</t>
+  </si>
+  <si>
+    <t>WEB-0146</t>
+  </si>
+  <si>
+    <t>feat: WEB-0146 - Account Viewer - Home - Add page and display the player's profile</t>
+  </si>
+  <si>
+    <t>WEB-0147</t>
+  </si>
+  <si>
+    <t>design: WEB-0147 - Update logo</t>
+  </si>
+  <si>
+    <t>Separate Reservation and Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-refactor: WEB-01467 - Rename GameBookedNotificationModel to NewBookingNotificationModel (API only)
+- refactor: WEB-01467 - Replace EventModel with BookingModel (API only)
+- refactor: WEB-01467 - rename CourtReviewModel property EventId to BookingId (API only)
+- refactor: WEB-0147 - rename notificationTypesEnum and update Court components (WEB only)
+</t>
+  </si>
+  <si>
+    <t>Null Court Ratings are causing error</t>
+  </si>
+  <si>
+    <t>Error when opening notifications pop up: Date.toUTCString is not a constructor
+    at Object.getUtcNow (datetime.service.js:61)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -1733,7 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,6 +1903,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2231,14 +2328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5C8820-5387-482D-9CA9-07E9823B72AA}">
-  <dimension ref="A1:K178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,38 +2601,38 @@
       <c r="J11" s="10"/>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>407</v>
@@ -2548,14 +2645,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -2571,18 +2666,18 @@
       <c r="J14" s="2"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2592,18 +2687,18 @@
       <c r="J15" s="2"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -2613,18 +2708,18 @@
       <c r="J16" s="2"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -2639,13 +2734,13 @@
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -2655,15 +2750,15 @@
       <c r="J18" s="2"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>407</v>
@@ -2676,12 +2771,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
@@ -2702,10 +2797,10 @@
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>407</v>
@@ -2723,7 +2818,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
@@ -2739,15 +2834,15 @@
       <c r="J22" s="2"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>407</v>
@@ -2760,12 +2855,12 @@
       <c r="J23" s="2"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>37</v>
@@ -2781,15 +2876,15 @@
       <c r="J24" s="2"/>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>407</v>
@@ -2807,7 +2902,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2823,15 +2918,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>407</v>
@@ -2849,7 +2944,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>37</v>
@@ -2870,7 +2965,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>37</v>
@@ -2891,10 +2986,10 @@
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>407</v>
@@ -2912,10 +3007,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>407</v>
@@ -2928,12 +3023,12 @@
       <c r="J31" s="2"/>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -2949,18 +3044,18 @@
       <c r="J32" s="2"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -2975,36 +3070,36 @@
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3015,10 +3110,10 @@
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>407</v>
@@ -3031,18 +3126,20 @@
       <c r="J36" s="2"/>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -3056,16 +3153,16 @@
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3075,14 +3172,14 @@
       <c r="J38" s="2"/>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -3098,14 +3195,14 @@
       <c r="J39" s="2"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -3125,10 +3222,10 @@
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -3148,16 +3245,16 @@
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3171,16 +3268,16 @@
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3193,17 +3290,15 @@
     <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3218,13 +3313,13 @@
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3234,12 +3329,12 @@
       <c r="J45" s="2"/>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -3255,12 +3350,12 @@
       <c r="J46" s="2"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -3281,10 +3376,10 @@
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>407</v>
@@ -3302,13 +3397,13 @@
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3323,13 +3418,13 @@
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -3339,15 +3434,15 @@
       <c r="J50" s="2"/>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>407</v>
@@ -3365,13 +3460,13 @@
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -3382,152 +3477,98 @@
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>467</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>458</v>
-      </c>
+    <row r="56" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="25"/>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>455</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>407</v>
@@ -3535,29 +3576,17 @@
       <c r="G57" s="3">
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="4">
-        <v>44077.746527777781</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>451</v>
-      </c>
+    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -3568,32 +3597,20 @@
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="25"/>
     </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="4">
-        <v>44071.106249999997</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>447</v>
-      </c>
+    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>407</v>
@@ -3601,110 +3618,76 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="25"/>
     </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="4">
-        <v>44069.31527777778</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>440</v>
-      </c>
+    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>441</v>
-      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="25"/>
     </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="4">
-        <v>44067.693749999999</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>436</v>
-      </c>
+    <row r="61" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="4">
-        <v>44067.618750000001</v>
-      </c>
+    <row r="62" spans="1:11" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="2" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H62" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="25"/>
     </row>
     <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3712,25 +3695,25 @@
         <v>11</v>
       </c>
       <c r="B63" s="4">
-        <v>44066.393750000003</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>429</v>
+        <v>44122.40902777778</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>494</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>21</v>
@@ -3745,28 +3728,32 @@
         <v>11</v>
       </c>
       <c r="B64" s="4">
-        <v>44060.109722222223</v>
+        <v>44122.407638888886</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K64" s="25"/>
     </row>
     <row r="65" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3774,13 +3761,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="4">
-        <v>44060.006249999999</v>
+        <v>44122.23333333333</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -3792,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>21</v>
@@ -3807,16 +3794,16 @@
         <v>11</v>
       </c>
       <c r="B66" s="4">
-        <v>44051.845833333333</v>
+        <v>44115</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>407</v>
@@ -3825,10 +3812,14 @@
         <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K66" s="25"/>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3836,118 +3827,124 @@
         <v>11</v>
       </c>
       <c r="B67" s="4">
-        <v>44051.779166666667</v>
+        <v>44102</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" s="25"/>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="4">
+        <v>44102</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44094</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="25"/>
-    </row>
-    <row r="68" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="4">
-        <v>44045.950694444444</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="4">
-        <v>44044.503472222219</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44094</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="4">
-        <v>44040.64166666667</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>21</v>
@@ -3962,54 +3959,58 @@
         <v>11</v>
       </c>
       <c r="B71" s="4">
-        <v>44040.486805555556</v>
+        <v>44094</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="G71" s="3">
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K71" s="25"/>
     </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>44038.615972222222</v>
+        <v>44094</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="G72" s="3">
         <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>21</v>
@@ -4024,85 +4025,91 @@
         <v>11</v>
       </c>
       <c r="B73" s="4">
-        <v>44038.490277777775</v>
+        <v>44094</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K73" s="25"/>
     </row>
-    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>44037.549305555556</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>384</v>
+      <c r="H74" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="K74" s="25"/>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4">
-        <v>44037.54791666667</v>
+        <v>44071.106249999997</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G75" s="3">
         <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>21</v>
@@ -4112,90 +4119,92 @@
       </c>
       <c r="K75" s="25"/>
     </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>44037.48541666667</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H76" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="25"/>
     </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>44036.708333333336</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K77" s="25"/>
     </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>44030.311805555553</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G78" s="3">
         <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>21</v>
@@ -4203,32 +4212,32 @@
       <c r="J78" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="25" t="s">
-        <v>371</v>
-      </c>
+      <c r="K78" s="25"/>
     </row>
     <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>44030.288194444445</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F79" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>21</v>
@@ -4243,54 +4252,54 @@
         <v>11</v>
       </c>
       <c r="B80" s="4">
-        <v>44030.259027777778</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="25"/>
     </row>
-    <row r="81" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>44028.379861111112</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>21</v>
@@ -4300,59 +4309,59 @@
       </c>
       <c r="K81" s="25"/>
     </row>
-    <row r="82" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>44028.377083333333</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4">
+        <v>44051.779166666667</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="4">
-        <v>44027.884027777778</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G83" s="3">
         <v>1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>21</v>
@@ -4362,34 +4371,34 @@
       </c>
       <c r="K83" s="25"/>
     </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="4">
-        <v>44026.883333333331</v>
+        <v>44045.950694444444</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="3">
         <v>1</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>349</v>
+      <c r="H84" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K84" s="25"/>
     </row>
@@ -4398,44 +4407,44 @@
         <v>11</v>
       </c>
       <c r="B85" s="4">
-        <v>44025.490972222222</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="3">
         <v>1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K85" s="25"/>
     </row>
-    <row r="86" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="4">
-        <v>44025.15347222222</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -4445,28 +4454,28 @@
         <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K86" s="25"/>
     </row>
-    <row r="87" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <v>44019.426388888889</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -4476,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>21</v>
@@ -4491,13 +4500,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>44019.088194444441</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -4507,28 +4516,28 @@
         <v>1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K88" s="25"/>
     </row>
-    <row r="89" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>44018.056250000001</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -4538,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>21</v>
@@ -4553,13 +4562,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="4">
-        <v>44017.363888888889</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -4569,28 +4578,28 @@
         <v>1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="K90" s="25"/>
     </row>
-    <row r="91" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="4">
-        <v>44017.333333333336</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -4600,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>21</v>
@@ -4615,116 +4624,118 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>44016.859722222223</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="3">
         <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K92" s="25"/>
     </row>
-    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>44012.827777777777</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="3">
         <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K93" s="25"/>
     </row>
-    <row r="94" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>44008</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="I94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" s="25"/>
+      <c r="K94" s="25" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>43995.52847222222</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="3">
         <v>1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>21</v>
@@ -4734,34 +4745,34 @@
       </c>
       <c r="K95" s="25"/>
     </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>43990.650694444441</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="3">
         <v>1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K96" s="25"/>
     </row>
@@ -4770,13 +4781,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>44012.328472222223</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -4786,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>21</v>
@@ -4796,30 +4807,28 @@
       </c>
       <c r="K97" s="25"/>
     </row>
-    <row r="98" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>44058.987500000003</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="3">
         <v>1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>21</v>
@@ -4834,23 +4843,23 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>43990.670138888891</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="3">
         <v>1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>21</v>
@@ -4865,23 +4874,23 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>43983.301388888889</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>21</v>
@@ -4891,28 +4900,28 @@
       </c>
       <c r="K100" s="25"/>
     </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>43982.572222222225</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="3">
         <v>1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>21</v>
@@ -4922,65 +4931,65 @@
       </c>
       <c r="K101" s="25"/>
     </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>43982.536805555559</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K102" s="25"/>
     </row>
-    <row r="103" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>43982.416666666664</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="3">
         <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K103" s="25"/>
     </row>
@@ -4989,13 +4998,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>43982.368055555555</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -5005,13 +5014,13 @@
         <v>1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K104" s="25"/>
     </row>
@@ -5020,60 +5029,60 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>43976.984027777777</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="3">
         <v>1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K105" s="25"/>
     </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>43976.3</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K106" s="25"/>
     </row>
@@ -5082,13 +5091,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>43976.279861111114</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5098,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>21</v>
@@ -5108,28 +5117,28 @@
       </c>
       <c r="K107" s="25"/>
     </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>43976.130555555559</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="3">
         <v>1</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>21</v>
@@ -5139,78 +5148,80 @@
       </c>
       <c r="K108" s="25"/>
     </row>
-    <row r="109" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>43962.618055555555</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="I109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K109" s="25"/>
     </row>
-    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>43962.611111111109</v>
+        <v>44008</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="25" t="s">
-        <v>236</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="25"/>
     </row>
     <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>43969.09375</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -5220,44 +5231,44 @@
         <v>1</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K111" s="25"/>
     </row>
-    <row r="112" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>43954</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K112" s="25"/>
     </row>
@@ -5266,62 +5277,62 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44064.506249999999</v>
+        <v>44012.328472222223</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K113" s="25"/>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>43959</v>
+        <v>44058.987500000003</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>228</v>
+      <c r="H114" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K114" s="25"/>
     </row>
@@ -5330,552 +5341,552 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>43948</v>
+        <v>43990.670138888891</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>215</v>
+        <v>277</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" s="25"/>
+    </row>
+    <row r="116" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="4">
+        <v>43983.301388888889</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="25"/>
+    </row>
+    <row r="117" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="4">
+        <v>43982.572222222225</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" s="25"/>
+    </row>
+    <row r="118" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="4">
+        <v>43982.536805555559</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="25"/>
+    </row>
+    <row r="119" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4">
+        <v>43982.416666666664</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" s="25"/>
+    </row>
+    <row r="120" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="4">
+        <v>43982.368055555555</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K120" s="25"/>
+    </row>
+    <row r="121" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="4">
+        <v>43976.984027777777</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" s="25"/>
+    </row>
+    <row r="122" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="4">
+        <v>43976.3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K122" s="25"/>
+    </row>
+    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="4">
+        <v>43976.279861111114</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K123" s="25"/>
+    </row>
+    <row r="124" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="4">
+        <v>43976.130555555559</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K124" s="25"/>
+    </row>
+    <row r="125" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="4">
+        <v>43962.618055555555</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" s="25"/>
+    </row>
+    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="4">
+        <v>43962.611111111109</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="4">
+        <v>43969.09375</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" s="25"/>
+    </row>
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K128" s="25"/>
+    </row>
+    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="4">
+        <v>44064.506249999999</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K129" s="25"/>
+    </row>
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" s="25"/>
+    </row>
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" s="25" t="s">
+      <c r="I131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" s="25" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="9">
-        <v>43933</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8">
-        <v>1</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K116" s="26"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8">
-        <v>1</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="26"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="12">
-        <v>43963.240277777775</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="10"/>
-      <c r="G118" s="11">
-        <v>1</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" s="26"/>
-    </row>
-    <row r="119" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8">
-        <v>1</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" s="26"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" s="9">
-        <v>43893</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8">
-        <v>1</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" s="26"/>
-    </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="9">
-        <v>43920</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8">
-        <v>1</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K121" s="26"/>
-    </row>
-    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="9">
-        <v>43911</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8">
-        <v>1</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K122" s="26"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="9">
-        <v>43903</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8">
-        <v>1</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K123" s="26"/>
-    </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="9">
-        <v>43901</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8">
-        <v>1</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K124" s="26"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="9">
-        <v>43901</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8">
-        <v>1</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K125" s="26"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="9">
-        <v>43901</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8">
-        <v>1</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K126" s="26"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" s="9">
-        <v>43901</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="8">
-        <v>1</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K127" s="26"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="9">
-        <v>43901</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="8">
-        <v>1</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K128" s="26"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" s="9">
-        <v>43898</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="8">
-        <v>1</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K129" s="26"/>
-    </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" s="9">
-        <v>43898</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8">
-        <v>1</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K130" s="26"/>
-    </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" s="9">
-        <v>43898</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="8">
-        <v>1</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K131" s="26"/>
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="9">
-        <v>43898</v>
+        <v>43933</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="8">
         <v>1</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>21</v>
@@ -5885,80 +5896,80 @@
       </c>
       <c r="K132" s="26"/>
     </row>
-    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="9">
-        <v>43898</v>
+        <v>43932</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="8">
         <v>1</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K133" s="26"/>
     </row>
-    <row r="134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" s="9">
-        <v>43898</v>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="12">
+        <v>43963.240277777775</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="8">
-        <v>1</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11">
+        <v>1</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="K134" s="26"/>
     </row>
-    <row r="135" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="9">
-        <v>43897</v>
+        <v>43932</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>8</v>
@@ -5968,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>21</v>
@@ -5978,59 +5989,59 @@
       </c>
       <c r="K135" s="26"/>
     </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="9">
-        <v>43897</v>
+        <v>43893</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="8">
         <v>1</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K136" s="26"/>
     </row>
-    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="9">
-        <v>43887</v>
+        <v>43920</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8">
         <v>1</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>21</v>
@@ -6040,32 +6051,34 @@
       </c>
       <c r="K137" s="26"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="9">
-        <v>43885</v>
+        <v>43911</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F138" s="7"/>
-      <c r="G138" s="11"/>
+      <c r="G138" s="8">
+        <v>1</v>
+      </c>
       <c r="H138" s="7" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="K138" s="26"/>
     </row>
@@ -6074,23 +6087,23 @@
         <v>11</v>
       </c>
       <c r="B139" s="9">
-        <v>43883</v>
+        <v>43903</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="8">
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>21</v>
@@ -6105,29 +6118,29 @@
         <v>11</v>
       </c>
       <c r="B140" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="11">
-        <v>1</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I140" s="10" t="s">
+        <v>43901</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8">
+        <v>1</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="J140" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="K140" s="26"/>
     </row>
@@ -6136,28 +6149,28 @@
         <v>11</v>
       </c>
       <c r="B141" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="11">
-        <v>1</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J141" s="10" t="s">
+        <v>43901</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="8">
+        <v>1</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K141" s="26"/>
@@ -6166,153 +6179,153 @@
       <c r="A142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="11">
-        <v>1</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J142" s="10" t="s">
+      <c r="B142" s="9">
+        <v>43901</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="8">
+        <v>1</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K142" s="26"/>
     </row>
-    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="11">
-        <v>1</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J143" s="10" t="s">
+      <c r="B143" s="9">
+        <v>43901</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="8">
+        <v>1</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K143" s="26"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" s="10"/>
-      <c r="G144" s="11">
-        <v>1</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J144" s="10" t="s">
+      <c r="B144" s="9">
+        <v>43901</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="8">
+        <v>1</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K144" s="26"/>
     </row>
-    <row r="145" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="11">
-        <v>1</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J145" s="10" t="s">
-        <v>21</v>
+      <c r="B145" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="8">
+        <v>1</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K145" s="26"/>
     </row>
-    <row r="146" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="12">
-        <v>43877</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="11">
-        <v>1</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I146" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J146" s="10" t="s">
+      <c r="B146" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="8">
+        <v>1</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K146" s="26"/>
@@ -6321,61 +6334,61 @@
       <c r="A147" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="12">
-        <v>43877</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="11">
-        <v>1</v>
-      </c>
-      <c r="H147" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J147" s="10" t="s">
+      <c r="B147" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="8">
+        <v>1</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K147" s="26"/>
     </row>
-    <row r="148" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="12">
-        <v>43874</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="10"/>
-      <c r="G148" s="11">
-        <v>1</v>
-      </c>
-      <c r="H148" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J148" s="10" t="s">
-        <v>21</v>
+      <c r="B148" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="8">
+        <v>1</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K148" s="26"/>
     </row>
@@ -6383,247 +6396,245 @@
       <c r="A149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="12">
-        <v>43872</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="11">
-        <v>1</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J149" s="10" t="s">
-        <v>21</v>
+      <c r="B149" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="8">
+        <v>1</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K149" s="26"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="9">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="8">
         <v>1</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K150" s="26"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B151" s="12">
-        <v>43869</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="10"/>
-      <c r="G151" s="11">
-        <v>1</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I151" s="10" t="s">
+      <c r="B151" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="8">
+        <v>1</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" s="26"/>
+    </row>
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" s="7"/>
+      <c r="G152" s="8">
+        <v>1</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J151" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K151" s="26"/>
-    </row>
-    <row r="152" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" s="12">
-        <v>43870</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E152" s="10" t="s">
+      <c r="K152" s="26"/>
+    </row>
+    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="7"/>
+      <c r="G153" s="8">
+        <v>1</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" s="26"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K154" s="26"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="10"/>
-      <c r="G152" s="11">
-        <v>1</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K152" s="26"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" s="12">
-        <v>43869</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="11">
-        <v>1</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I153" s="10" t="s">
+      <c r="F155" s="7"/>
+      <c r="G155" s="8">
+        <v>1</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J153" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K153" s="26"/>
-    </row>
-    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="12">
-        <v>43869</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="10"/>
-      <c r="G154" s="11">
-        <v>1</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K154" s="26"/>
-    </row>
-    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="12">
-        <v>43869</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="11">
-        <v>1</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="12">
-        <v>43865</v>
+      <c r="B156" s="9">
+        <v>43883</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="11">
         <v>1</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K156" s="26"/>
     </row>
@@ -6631,14 +6642,14 @@
       <c r="A157" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="12">
-        <v>43858</v>
+      <c r="B157" s="9">
+        <v>43883</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>15</v>
@@ -6648,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="I157" s="10" t="s">
         <v>21</v>
@@ -6658,28 +6669,28 @@
       </c>
       <c r="K157" s="26"/>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="12">
-        <v>43858</v>
+        <v>43881</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="11">
         <v>1</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I158" s="10" t="s">
         <v>21</v>
@@ -6689,28 +6700,28 @@
       </c>
       <c r="K158" s="26"/>
     </row>
-    <row r="159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B159" s="12">
-        <v>43855</v>
+        <v>43881</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="11">
         <v>1</v>
       </c>
-      <c r="H159" s="15" t="s">
-        <v>196</v>
+      <c r="H159" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="I159" s="10" t="s">
         <v>21</v>
@@ -6720,18 +6731,18 @@
       </c>
       <c r="K159" s="26"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="12">
-        <v>43856</v>
+        <v>43878</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>8</v>
@@ -6740,64 +6751,70 @@
       <c r="G160" s="11">
         <v>1</v>
       </c>
-      <c r="H160" s="16"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
+      <c r="H160" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K160" s="26"/>
     </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="12">
-        <v>43855</v>
+        <v>43878</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="11">
         <v>1</v>
       </c>
-      <c r="H161" s="10" t="s">
-        <v>67</v>
+      <c r="H161" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K161" s="26"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B162" s="12">
-        <v>43854</v>
+        <v>43877</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="11">
         <v>1</v>
       </c>
       <c r="H162" s="10" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="I162" s="10" t="s">
         <v>21</v>
@@ -6812,19 +6829,23 @@
         <v>11</v>
       </c>
       <c r="B163" s="12">
-        <v>43854</v>
+        <v>43877</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E163" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="F163" s="10"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="10" t="s">
-        <v>61</v>
+      <c r="G163" s="11">
+        <v>1</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="I163" s="10" t="s">
         <v>21</v>
@@ -6834,55 +6855,59 @@
       </c>
       <c r="K163" s="26"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B164" s="12">
-        <v>43853</v>
+        <v>43874</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F164" s="10"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="10" t="s">
-        <v>55</v>
+      <c r="G164" s="11">
+        <v>1</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="I164" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K164" s="26"/>
     </row>
-    <row r="165" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="12">
-        <v>43853</v>
+        <v>43872</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F165" s="10"/>
-      <c r="G165" s="11"/>
+      <c r="G165" s="11">
+        <v>1</v>
+      </c>
       <c r="H165" s="10" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="I165" s="10" t="s">
         <v>21</v>
@@ -6892,29 +6917,35 @@
       </c>
       <c r="K165" s="26"/>
     </row>
-    <row r="166" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B166" s="12">
-        <v>43851</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F166" s="10"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
+      <c r="B166" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="8">
+        <v>1</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="K166" s="26"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6922,158 +6953,178 @@
         <v>11</v>
       </c>
       <c r="B167" s="12">
-        <v>43849</v>
+        <v>43869</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F167" s="10"/>
-      <c r="G167" s="11"/>
+      <c r="G167" s="11">
+        <v>1</v>
+      </c>
       <c r="H167" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K167" s="26"/>
     </row>
-    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="12">
-        <v>43848</v>
+        <v>43870</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F168" s="10"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="11">
+        <v>1</v>
+      </c>
       <c r="H168" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
+        <v>199</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K168" s="26"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="12">
-        <v>43848</v>
+        <v>43869</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F169" s="10"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="11">
+        <v>1</v>
+      </c>
       <c r="H169" s="10" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J169" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K169" s="26"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+    <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="12">
-        <v>43847</v>
+        <v>43869</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F170" s="10"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="11">
+        <v>1</v>
+      </c>
       <c r="H170" s="10" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="I170" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
+    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B171" s="12">
-        <v>43846</v>
+        <v>43869</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F171" s="10"/>
-      <c r="G171" s="11"/>
+      <c r="G171" s="11">
+        <v>1</v>
+      </c>
       <c r="H171" s="10" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I171" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="K171" s="26"/>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="12">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F172" s="10"/>
-      <c r="G172" s="11"/>
+      <c r="G172" s="11">
+        <v>1</v>
+      </c>
       <c r="H172" s="10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I172" s="10" t="s">
         <v>21</v>
@@ -7083,72 +7134,80 @@
       </c>
       <c r="K172" s="26"/>
     </row>
-    <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="12">
-        <v>43835</v>
+        <v>43858</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F173" s="10"/>
-      <c r="G173" s="11"/>
+      <c r="G173" s="11">
+        <v>1</v>
+      </c>
       <c r="H173" s="10" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I173" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K173" s="26"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
+    <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="12">
-        <v>43842</v>
+        <v>43858</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F174" s="10"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
+      <c r="G174" s="11">
+        <v>1</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+    <row r="175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="12">
-        <v>43857</v>
+        <v>43855</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>15</v>
@@ -7157,8 +7216,8 @@
       <c r="G175" s="11">
         <v>1</v>
       </c>
-      <c r="H175" s="10" t="s">
-        <v>197</v>
+      <c r="H175" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>21</v>
@@ -7169,74 +7228,555 @@
       <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="12">
-        <v>43841</v>
+        <v>43856</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="10"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="10" t="s">
-        <v>225</v>
-      </c>
+      <c r="G176" s="11">
+        <v>1</v>
+      </c>
+      <c r="H176" s="16"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="26"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
+    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="12">
+        <v>43855</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" s="10"/>
+      <c r="G177" s="11">
+        <v>1</v>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J177" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K177" s="26"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="12">
+        <v>43854</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="11">
+        <v>1</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J178" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K178" s="26"/>
+    </row>
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="12">
+        <v>43854</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J179" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K179" s="26"/>
+    </row>
+    <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G180" s="8">
+        <v>1</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J180" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K180" s="26"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="12">
+        <v>43853</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J181" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" s="26"/>
+    </row>
+    <row r="182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="12">
+        <v>43853</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J182" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K182" s="26"/>
+    </row>
+    <row r="183" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="12">
+        <v>43851</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="10"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="26"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="12">
+        <v>43849</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" s="10"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="26"/>
+    </row>
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="12">
+        <v>43848</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="10"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="26"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="12">
+        <v>43848</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="10"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I186" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J186" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K186" s="26"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="12">
+        <v>43847</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="10"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I187" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K187" s="26"/>
+    </row>
+    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="12">
+        <v>43846</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" s="10"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K188" s="26"/>
+    </row>
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="12">
+        <v>43835</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" s="10"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I189" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J189" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K189" s="26"/>
+    </row>
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="12">
+        <v>43835</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K190" s="26"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="12">
+        <v>43842</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="26"/>
+    </row>
+    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="12">
+        <v>43857</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="11">
+        <v>1</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J192" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K192" s="26"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="12">
+        <v>43841</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="26"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="12">
         <v>43751</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D194" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E177" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" s="10"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="10" t="s">
+      <c r="E194" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="10"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="26"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="17"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="26"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K178" xr:uid="{81BE3615-1917-4B33-A6A0-89B97BA651CB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:K97">
-    <sortCondition descending="1" ref="C96:C97"/>
+  <autoFilter ref="A1:K195"/>
+  <sortState ref="A97:K98">
+    <sortCondition descending="1" ref="C97:C98"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A177">
+  <conditionalFormatting sqref="A2:A194">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -7247,12 +7787,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B177">
+  <conditionalFormatting sqref="B2:B194">
     <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E177">
+  <conditionalFormatting sqref="E2:E194">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -7269,7 +7809,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F177">
+  <conditionalFormatting sqref="F2:F194">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$F2="High"</formula>
     </cfRule>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$196</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="504">
   <si>
     <t>Task ID</t>
   </si>
@@ -1669,18 +1669,30 @@
     <t>Separate Reservation and Game</t>
   </si>
   <si>
-    <t xml:space="preserve">-refactor: WEB-01467 - Rename GameBookedNotificationModel to NewBookingNotificationModel (API only)
-- refactor: WEB-01467 - Replace EventModel with BookingModel (API only)
-- refactor: WEB-01467 - rename CourtReviewModel property EventId to BookingId (API only)
-- refactor: WEB-0147 - rename notificationTypesEnum and update Court components (WEB only)
-</t>
-  </si>
-  <si>
     <t>Null Court Ratings are causing error</t>
   </si>
   <si>
     <t>Error when opening notifications pop up: Date.toUTCString is not a constructor
     at Object.getUtcNow (datetime.service.js:61)</t>
+  </si>
+  <si>
+    <t>WEB-0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-refactor: WEB-0148 - Rename GameBookedNotificationModel to NewBookingNotificationModel (API only)
+- refactor: WEB-0148 - Replace EventModel with BookingModel (API only)
+- refactor: WEB-0148 - rename CourtReviewModel property EventId to BookingId (API only)
+- refactor: WEB-0148 - rename notificationTypesEnum and update Court components (WEB only)
+</t>
+  </si>
+  <si>
+    <t>WEB-0149</t>
+  </si>
+  <si>
+    <t>design: WEB-0149 - make design improvements</t>
+  </si>
+  <si>
+    <t>Game Details - Improve display of Game details</t>
   </si>
 </sst>
 </file>
@@ -2329,13 +2341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3640,7 @@
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>37</v>
@@ -3649,7 +3661,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>37</v>
@@ -3665,88 +3677,80 @@
       <c r="J61" s="2"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" spans="1:11" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>497</v>
+      <c r="H62" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="25"/>
     </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="4">
+    <row r="63" spans="1:11" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4">
         <v>44122.40902777778</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C64" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="4">
-        <v>44122.407638888886</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>21</v>
@@ -3761,49 +3765,49 @@
         <v>11</v>
       </c>
       <c r="B65" s="4">
+        <v>44122.407638888886</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="4">
         <v>44122.23333333333</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="25"/>
-    </row>
-    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="4">
-        <v>44115</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>407</v>
@@ -3812,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>21</v>
@@ -3827,31 +3831,31 @@
         <v>11</v>
       </c>
       <c r="B67" s="4">
-        <v>44102</v>
+        <v>44115</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K67" s="25"/>
     </row>
@@ -3863,10 +3867,10 @@
         <v>44102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>15</v>
@@ -3878,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>21</v>
@@ -3888,30 +3892,30 @@
       </c>
       <c r="K68" s="25"/>
     </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>21</v>
@@ -3921,7 +3925,7 @@
       </c>
       <c r="K69" s="25"/>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -3929,22 +3933,22 @@
         <v>44094</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>21</v>
@@ -3962,10 +3966,10 @@
         <v>44094</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>37</v>
@@ -3977,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>21</v>
@@ -3995,13 +3999,13 @@
         <v>44094</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>409</v>
@@ -4010,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>21</v>
@@ -4028,22 +4032,22 @@
         <v>44094</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>21</v>
@@ -4053,21 +4057,21 @@
       </c>
       <c r="K73" s="25"/>
     </row>
-    <row r="74" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>44077.746527777781</v>
+        <v>44094</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>407</v>
@@ -4075,32 +4079,32 @@
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>457</v>
+      <c r="H74" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K74" s="25"/>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4">
-        <v>44071.106249999997</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>407</v>
@@ -4108,14 +4112,14 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>449</v>
+      <c r="H75" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K75" s="25"/>
     </row>
@@ -4124,13 +4128,13 @@
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>44069.31527777778</v>
+        <v>44071.106249999997</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>15</v>
@@ -4141,28 +4145,32 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K76" s="25"/>
     </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>44067.693749999999</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>407</v>
@@ -4170,15 +4178,11 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H77" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="25"/>
     </row>
     <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4186,13 +4190,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>44067.618750000001</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -4204,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>21</v>
@@ -4219,25 +4223,25 @@
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>44066.393750000003</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>21</v>
@@ -4247,33 +4251,37 @@
       </c>
       <c r="K79" s="25"/>
     </row>
-    <row r="80" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="4">
-        <v>44060.109722222223</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K80" s="25"/>
     </row>
     <row r="81" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4281,13 +4289,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>44060.006249999999</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -4299,31 +4307,27 @@
         <v>1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="25"/>
     </row>
-    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>44051.845833333333</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>407</v>
@@ -4332,10 +4336,14 @@
         <v>1</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K82" s="25"/>
     </row>
     <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4343,16 +4351,16 @@
         <v>11</v>
       </c>
       <c r="B83" s="4">
-        <v>44051.779166666667</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>407</v>
@@ -4361,121 +4369,119 @@
         <v>1</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="4">
+        <v>44051.779166666667</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" s="25"/>
-    </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="4">
+      <c r="I84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="85" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="4">
         <v>44045.950694444444</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" s="25"/>
-    </row>
-    <row r="85" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="4">
-        <v>44044.503472222219</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="3">
         <v>1</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>399</v>
+      <c r="H85" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K85" s="25"/>
     </row>
-    <row r="86" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="4">
-        <v>44040.64166666667</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K86" s="25"/>
     </row>
-    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <v>44040.486805555556</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -4485,28 +4491,28 @@
         <v>1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K87" s="25"/>
     </row>
-    <row r="88" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>44038.615972222222</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -4516,28 +4522,28 @@
         <v>1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K88" s="25"/>
     </row>
-    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>44038.490277777775</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -4547,13 +4553,13 @@
         <v>1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K89" s="25"/>
     </row>
@@ -4562,13 +4568,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="4">
-        <v>44037.549305555556</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -4578,28 +4584,28 @@
         <v>1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="K90" s="25"/>
     </row>
-    <row r="91" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="4">
-        <v>44037.54791666667</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -4609,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="K91" s="25"/>
     </row>
@@ -4624,13 +4630,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>44037.48541666667</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -4640,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K92" s="25"/>
     </row>
@@ -4655,23 +4661,23 @@
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>44036.708333333336</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="3">
         <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>21</v>
@@ -4686,56 +4692,54 @@
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>44030.311805555553</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K94" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>44030.288194444445</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="3">
         <v>1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>21</v>
@@ -4743,30 +4747,32 @@
       <c r="J95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K95" s="25"/>
-    </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K95" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>44030.259027777778</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="3">
         <v>1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>21</v>
@@ -4776,59 +4782,59 @@
       </c>
       <c r="K96" s="25"/>
     </row>
-    <row r="97" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>44028.379861111112</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
         <v>1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K97" s="25"/>
     </row>
-    <row r="98" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>44028.377083333333</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="3">
         <v>1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>21</v>
@@ -4838,28 +4844,28 @@
       </c>
       <c r="K98" s="25"/>
     </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>44027.884027777778</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="3">
         <v>1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>21</v>
@@ -4869,34 +4875,34 @@
       </c>
       <c r="K99" s="25"/>
     </row>
-    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>44026.883333333331</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K100" s="25"/>
     </row>
@@ -4905,23 +4911,23 @@
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>44025.490972222222</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="3">
         <v>1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>21</v>
@@ -4936,13 +4942,13 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>44025.15347222222</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -4952,28 +4958,28 @@
         <v>1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K102" s="25"/>
     </row>
-    <row r="103" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>44019.426388888889</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -4983,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>21</v>
@@ -4998,13 +5004,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>44019.088194444441</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -5014,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>21</v>
@@ -5029,13 +5035,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>44018.056250000001</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -5045,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>21</v>
@@ -5055,18 +5061,18 @@
       </c>
       <c r="K105" s="25"/>
     </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>44017.363888888889</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>21</v>
@@ -5091,13 +5097,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>44017.333333333336</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5107,38 +5113,38 @@
         <v>1</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K107" s="25"/>
     </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>44016.859722222223</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="3">
         <v>1</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>21</v>
@@ -5148,28 +5154,28 @@
       </c>
       <c r="K108" s="25"/>
     </row>
-    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>44012.827777777777</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>21</v>
@@ -5179,65 +5185,65 @@
       </c>
       <c r="K109" s="25"/>
     </row>
-    <row r="110" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>44008</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K110" s="25"/>
     </row>
-    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>43995.52847222222</v>
+        <v>44008</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K111" s="25"/>
     </row>
@@ -5246,13 +5252,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>43990.650694444441</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -5262,13 +5268,13 @@
         <v>1</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K112" s="25"/>
     </row>
@@ -5277,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44012.328472222223</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -5293,40 +5299,38 @@
         <v>1</v>
       </c>
       <c r="H113" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" s="25"/>
+    </row>
+    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="4">
+        <v>44012.328472222223</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" s="25"/>
-    </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="4">
-        <v>44058.987500000003</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>21</v>
@@ -5341,85 +5345,87 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
+        <v>44058.987500000003</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" s="25"/>
+    </row>
+    <row r="116" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="4">
         <v>43990.670138888891</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" s="25"/>
-    </row>
-    <row r="116" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="4">
-        <v>43983.301388888889</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K116" s="25"/>
     </row>
-    <row r="117" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>43982.572222222225</v>
+        <v>43983.301388888889</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>21</v>
@@ -5434,23 +5440,23 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>43982.536805555559</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>21</v>
@@ -5460,28 +5466,28 @@
       </c>
       <c r="K118" s="25"/>
     </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>43982.416666666664</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>21</v>
@@ -5491,28 +5497,28 @@
       </c>
       <c r="K119" s="25"/>
     </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>43982.368055555555</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>21</v>
@@ -5527,29 +5533,29 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>43976.984027777777</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K121" s="25"/>
     </row>
@@ -5558,54 +5564,54 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>43976.3</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K122" s="25"/>
     </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>43976.279861111114</v>
+        <v>43976.3</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>21</v>
@@ -5615,18 +5621,18 @@
       </c>
       <c r="K123" s="25"/>
     </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>43976.130555555559</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -5636,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>21</v>
@@ -5646,78 +5652,80 @@
       </c>
       <c r="K124" s="25"/>
     </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>43962.618055555555</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="I125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K125" s="25"/>
     </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>43962.611111111109</v>
+        <v>43962.618055555555</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="25" t="s">
-        <v>236</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" s="25"/>
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>43969.09375</v>
+        <v>43962.611111111109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -5727,71 +5735,67 @@
         <v>1</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K127" s="25"/>
-    </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>43954</v>
+        <v>43969.09375</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" s="25"/>
+    </row>
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K128" s="25"/>
-    </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" s="4">
-        <v>44064.506249999999</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>21</v>
@@ -5801,28 +5805,30 @@
       </c>
       <c r="K129" s="25"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>43959</v>
+        <v>44064.506249999999</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
-      <c r="H130" s="6" t="s">
-        <v>228</v>
+      <c r="H130" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>21</v>
@@ -5832,175 +5838,175 @@
       </c>
       <c r="K130" s="25"/>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>43948</v>
+        <v>43959</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="3">
         <v>1</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K131" s="25"/>
+    </row>
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K131" s="25" t="s">
+      <c r="I132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="9">
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="9">
         <v>43933</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="8">
-        <v>1</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K132" s="26"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="8">
         <v>1</v>
       </c>
       <c r="H133" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133" s="26"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="9">
+        <v>43932</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="8">
+        <v>1</v>
+      </c>
+      <c r="H134" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I133" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K133" s="26"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" s="12">
+      <c r="I134" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" s="26"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="12">
         <v>43963.240277777775</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="11">
-        <v>1</v>
-      </c>
-      <c r="H134" s="10" t="s">
+      <c r="E135" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11">
+        <v>1</v>
+      </c>
+      <c r="H135" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I134" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J134" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K134" s="26"/>
-    </row>
-    <row r="135" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" s="9">
+      <c r="I135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" s="26"/>
+    </row>
+    <row r="136" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="9">
         <v>43932</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D136" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="8">
-        <v>1</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K135" s="26"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" s="9">
-        <v>43893</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>8</v>
@@ -6010,41 +6016,41 @@
         <v>1</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J136" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K136" s="26"/>
     </row>
-    <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="9">
-        <v>43920</v>
+        <v>43893</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8">
         <v>1</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>21</v>
@@ -6056,13 +6062,13 @@
         <v>11</v>
       </c>
       <c r="B138" s="9">
-        <v>43911</v>
+        <v>43920</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>15</v>
@@ -6072,38 +6078,38 @@
         <v>1</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K138" s="26"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="9">
-        <v>43903</v>
+        <v>43911</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="8">
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>21</v>
@@ -6113,28 +6119,28 @@
       </c>
       <c r="K139" s="26"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="9">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F140" s="7"/>
       <c r="G140" s="8">
         <v>1</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>21</v>
@@ -6144,7 +6150,7 @@
       </c>
       <c r="K140" s="26"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>11</v>
       </c>
@@ -6152,20 +6158,20 @@
         <v>43901</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="8">
         <v>1</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>21</v>
@@ -6183,20 +6189,20 @@
         <v>43901</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="8">
         <v>1</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>21</v>
@@ -6214,20 +6220,20 @@
         <v>43901</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="8">
         <v>1</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>21</v>
@@ -6245,26 +6251,26 @@
         <v>43901</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="8">
         <v>1</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K144" s="26"/>
     </row>
@@ -6273,13 +6279,13 @@
         <v>11</v>
       </c>
       <c r="B145" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>8</v>
@@ -6289,17 +6295,17 @@
         <v>1</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K145" s="26"/>
     </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>11</v>
       </c>
@@ -6307,20 +6313,20 @@
         <v>43898</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="8">
         <v>1</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>21</v>
@@ -6338,20 +6344,20 @@
         <v>43898</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="8">
         <v>1</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>21</v>
@@ -6369,20 +6375,20 @@
         <v>43898</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="8">
         <v>1</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I148" s="7" t="s">
         <v>21</v>
@@ -6400,10 +6406,10 @@
         <v>43898</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>8</v>
@@ -6413,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>21</v>
@@ -6423,7 +6429,7 @@
       </c>
       <c r="K149" s="26"/>
     </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>11</v>
       </c>
@@ -6431,20 +6437,20 @@
         <v>43898</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="8">
         <v>1</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>21</v>
@@ -6459,33 +6465,33 @@
         <v>11</v>
       </c>
       <c r="B151" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="8">
         <v>1</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K151" s="26"/>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>11</v>
       </c>
@@ -6493,13 +6499,13 @@
         <v>43897</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="8">
@@ -6512,67 +6518,69 @@
         <v>21</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K152" s="26"/>
     </row>
-    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="9">
-        <v>43887</v>
+        <v>43897</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="8">
         <v>1</v>
       </c>
       <c r="H153" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K153" s="26"/>
+    </row>
+    <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="8">
+        <v>1</v>
+      </c>
+      <c r="H154" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I153" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J153" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K153" s="26"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="9">
-        <v>43885</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="I154" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="K154" s="26"/>
     </row>
@@ -6581,64 +6589,62 @@
         <v>11</v>
       </c>
       <c r="B155" s="9">
-        <v>43883</v>
+        <v>43885</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F155" s="7"/>
-      <c r="G155" s="8">
-        <v>1</v>
-      </c>
+      <c r="G155" s="11"/>
       <c r="H155" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I155" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="K155" s="26"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B156" s="9">
         <v>43883</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="11">
-        <v>1</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I156" s="10" t="s">
+      <c r="C156" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="8">
+        <v>1</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J156" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>11</v>
       </c>
@@ -6646,26 +6652,26 @@
         <v>43883</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="11">
         <v>1</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K157" s="26"/>
     </row>
@@ -6673,24 +6679,24 @@
       <c r="A158" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B158" s="12">
-        <v>43881</v>
+      <c r="B158" s="9">
+        <v>43883</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="11">
         <v>1</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I158" s="10" t="s">
         <v>21</v>
@@ -6700,7 +6706,7 @@
       </c>
       <c r="K158" s="26"/>
     </row>
-    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>11</v>
       </c>
@@ -6708,10 +6714,10 @@
         <v>43881</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>110</v>
@@ -6721,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I159" s="10" t="s">
         <v>21</v>
@@ -6731,38 +6737,38 @@
       </c>
       <c r="K159" s="26"/>
     </row>
-    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="12">
-        <v>43878</v>
+        <v>43881</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="11">
         <v>1</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I160" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K160" s="26"/>
     </row>
-    <row r="161" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>11</v>
       </c>
@@ -6770,10 +6776,10 @@
         <v>43878</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>8</v>
@@ -6782,8 +6788,8 @@
       <c r="G161" s="11">
         <v>1</v>
       </c>
-      <c r="H161" s="13" t="s">
-        <v>206</v>
+      <c r="H161" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>21</v>
@@ -6798,33 +6804,33 @@
         <v>11</v>
       </c>
       <c r="B162" s="12">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="11">
         <v>1</v>
       </c>
-      <c r="H162" s="10" t="s">
-        <v>205</v>
+      <c r="H162" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="I162" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K162" s="26"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>11</v>
       </c>
@@ -6832,10 +6838,10 @@
         <v>43877</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>101</v>
@@ -6844,8 +6850,8 @@
       <c r="G163" s="11">
         <v>1</v>
       </c>
-      <c r="H163" s="14" t="s">
-        <v>203</v>
+      <c r="H163" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="I163" s="10" t="s">
         <v>21</v>
@@ -6855,95 +6861,95 @@
       </c>
       <c r="K163" s="26"/>
     </row>
-    <row r="164" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B164" s="12">
-        <v>43874</v>
+        <v>43877</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="11">
         <v>1</v>
       </c>
-      <c r="H164" s="13" t="s">
-        <v>202</v>
+      <c r="H164" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="I164" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K164" s="26"/>
     </row>
-    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="12">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="11">
         <v>1</v>
       </c>
-      <c r="H165" s="10" t="s">
+      <c r="H165" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" s="26"/>
+    </row>
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="12">
+        <v>43872</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="11">
+        <v>1</v>
+      </c>
+      <c r="H166" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I165" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J165" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K165" s="26"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="8">
-        <v>1</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J166" s="7" t="s">
+      <c r="I166" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K166" s="26"/>
@@ -6952,96 +6958,96 @@
       <c r="A167" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="8">
+        <v>1</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" s="26"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="12">
         <v>43869</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="10"/>
-      <c r="G167" s="11">
-        <v>1</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J167" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K167" s="26"/>
-    </row>
-    <row r="168" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="12">
-        <v>43870</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="11">
         <v>1</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J168" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="26"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="12">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="11">
         <v>1</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J169" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K169" s="26"/>
     </row>
-    <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>11</v>
       </c>
@@ -7049,30 +7055,30 @@
         <v>43869</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="11">
         <v>1</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J170" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K170" s="26"/>
     </row>
-    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>11</v>
       </c>
@@ -7080,10 +7086,10 @@
         <v>43869</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>8</v>
@@ -7093,44 +7099,44 @@
         <v>1</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="I171" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="K171" s="26"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="12">
-        <v>43865</v>
+        <v>43869</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="11">
         <v>1</v>
       </c>
       <c r="H172" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I172" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="K172" s="26"/>
     </row>
@@ -7139,13 +7145,13 @@
         <v>11</v>
       </c>
       <c r="B173" s="12">
-        <v>43858</v>
+        <v>43865</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>15</v>
@@ -7155,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I173" s="10" t="s">
         <v>21</v>
@@ -7165,7 +7171,7 @@
       </c>
       <c r="K173" s="26"/>
     </row>
-    <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>11</v>
       </c>
@@ -7173,20 +7179,20 @@
         <v>43858</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="11">
         <v>1</v>
       </c>
       <c r="H174" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I174" s="10" t="s">
         <v>21</v>
@@ -7196,28 +7202,28 @@
       </c>
       <c r="K174" s="26"/>
     </row>
-    <row r="175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="12">
-        <v>43855</v>
+        <v>43858</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="11">
         <v>1</v>
       </c>
-      <c r="H175" s="15" t="s">
-        <v>196</v>
+      <c r="H175" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>21</v>
@@ -7227,84 +7233,84 @@
       </c>
       <c r="K175" s="26"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="12">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="11">
         <v>1</v>
       </c>
-      <c r="H176" s="16"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
+      <c r="H176" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="K176" s="26"/>
     </row>
-    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="12">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="11">
         <v>1</v>
       </c>
-      <c r="H177" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I177" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J177" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H177" s="16"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
       <c r="K177" s="26"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="12">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="11">
         <v>1</v>
       </c>
       <c r="H178" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>21</v>
@@ -7314,7 +7320,7 @@
       </c>
       <c r="K178" s="26"/>
     </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>11</v>
       </c>
@@ -7322,16 +7328,20 @@
         <v>43854</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E179" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F179" s="10"/>
-      <c r="G179" s="11"/>
+      <c r="G179" s="11">
+        <v>1</v>
+      </c>
       <c r="H179" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>21</v>
@@ -7345,26 +7355,20 @@
       <c r="A180" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B180" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G180" s="8">
-        <v>1</v>
-      </c>
+      <c r="B180" s="12">
+        <v>43854</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="11"/>
       <c r="H180" s="10" t="s">
-        <v>473</v>
+        <v>61</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>21</v>
@@ -7374,26 +7378,30 @@
       </c>
       <c r="K180" s="26"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B181" s="12">
-        <v>43853</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F181" s="10"/>
-      <c r="G181" s="11"/>
+      <c r="B181" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G181" s="8">
+        <v>1</v>
+      </c>
       <c r="H181" s="10" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="I181" s="10" t="s">
         <v>21</v>
@@ -7403,7 +7411,7 @@
       </c>
       <c r="K181" s="26"/>
     </row>
-    <row r="182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>11</v>
       </c>
@@ -7411,129 +7419,129 @@
         <v>43853</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="11"/>
       <c r="H182" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I182" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K182" s="26"/>
     </row>
-    <row r="183" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="12">
-        <v>43851</v>
+        <v>43853</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="11"/>
       <c r="H183" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J183" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K183" s="26"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="12">
-        <v>43849</v>
+        <v>43851</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="11"/>
       <c r="H184" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="26"/>
     </row>
-    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="12">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="11"/>
       <c r="H185" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="26"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="12">
         <v>43848</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="11"/>
       <c r="H186" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I186" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J186" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
       <c r="K186" s="26"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7541,13 +7549,13 @@
         <v>11</v>
       </c>
       <c r="B187" s="12">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>31</v>
@@ -7555,36 +7563,36 @@
       <c r="F187" s="10"/>
       <c r="G187" s="11"/>
       <c r="H187" s="10" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K187" s="26"/>
     </row>
-    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="12">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="11"/>
       <c r="H188" s="10" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I188" s="10" t="s">
         <v>21</v>
@@ -7599,13 +7607,13 @@
         <v>11</v>
       </c>
       <c r="B189" s="12">
-        <v>43835</v>
+        <v>43846</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>23</v>
@@ -7613,7 +7621,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="11"/>
       <c r="H189" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I189" s="10" t="s">
         <v>21</v>
@@ -7631,106 +7639,110 @@
         <v>43835</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="11"/>
       <c r="H190" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I190" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K190" s="26"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B191" s="12">
-        <v>43842</v>
+        <v>43835</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="11"/>
-      <c r="H191" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
+      <c r="H191" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K191" s="26"/>
     </row>
-    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="12">
-        <v>43857</v>
+        <v>43842</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F192" s="10"/>
-      <c r="G192" s="11">
-        <v>1</v>
-      </c>
-      <c r="H192" s="10" t="s">
+      <c r="G192" s="11"/>
+      <c r="H192" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="26"/>
+    </row>
+    <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="12">
+        <v>43857</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="11">
+        <v>1</v>
+      </c>
+      <c r="H193" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I192" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J192" s="10" t="s">
+      <c r="I193" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J193" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K192" s="26"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="12">
-        <v>43841</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="10"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
       <c r="K193" s="26"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7738,13 +7750,13 @@
         <v>11</v>
       </c>
       <c r="B194" s="12">
-        <v>43751</v>
+        <v>43841</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>8</v>
@@ -7752,31 +7764,56 @@
       <c r="F194" s="10"/>
       <c r="G194" s="11"/>
       <c r="H194" s="10" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="26"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
+      <c r="A195" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="12">
+        <v>43751</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="10"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="26"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="17"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="18"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K195"/>
+  <autoFilter ref="A1:K196"/>
   <sortState ref="A97:K98">
     <sortCondition descending="1" ref="C97:C98"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A194">
+  <conditionalFormatting sqref="A2:A195">
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -7787,12 +7824,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B194">
+  <conditionalFormatting sqref="B2:B195">
     <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E194">
+  <conditionalFormatting sqref="E2:E195">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -7809,7 +7846,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F194">
+  <conditionalFormatting sqref="F2:F195">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$F2="High"</formula>
     </cfRule>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$269</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="649">
   <si>
     <t>Task ID</t>
   </si>
@@ -2203,9 +2203,6 @@
     <t>When Join Team Request is cancelled, the notification created for that request should be deleted</t>
   </si>
   <si>
-    <t>Generate notification when a player's request to join a team is approved</t>
-  </si>
-  <si>
     <t>- feat: WEB-716 - Display current team members
 - feat: WEB-0716 - Display member requests</t>
   </si>
@@ -2217,6 +2214,36 @@
   </si>
   <si>
     <t>WEB-0178</t>
+  </si>
+  <si>
+    <t>Log user activity when user leaves a team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feat: WEB-0178 - add functionality to approve/reject join team requests
+</t>
+  </si>
+  <si>
+    <t>Add function to crop profile photo to a rectangular shaped before uploading to server and modify Account Home to display photo as rectangel</t>
+  </si>
+  <si>
+    <t>WEB-0179</t>
+  </si>
+  <si>
+    <t>Add functionality to rate a player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- feat: WEB-0179 - add functionality to crop primary photo before uploading
+- improv: WEB-0179 - redesign account home
+</t>
+  </si>
+  <si>
+    <t>Placeholder of typeahead does not display fully even when there's enough space left inside the textbox</t>
+  </si>
+  <si>
+    <t>WEB-0180</t>
+  </si>
+  <si>
+    <t>improv: WEB-0180 - Game Details modal - add field to set court</t>
   </si>
 </sst>
 </file>
@@ -3162,13 +3189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L266"/>
+  <dimension ref="A1:L269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,18 +4444,18 @@
       <c r="K55" s="2"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4444,32 +4471,30 @@
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>547</v>
+        <v>640</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>405</v>
@@ -4483,12 +4508,12 @@
       <c r="K58" s="2"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -4505,15 +4530,15 @@
       <c r="K59" s="2"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>405</v>
@@ -4532,7 +4557,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -4549,15 +4574,15 @@
       <c r="K61" s="2"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>405</v>
@@ -4571,14 +4596,12 @@
       <c r="K62" s="2"/>
       <c r="L62" s="25"/>
     </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4595,14 +4618,12 @@
       <c r="K63" s="2"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>289</v>
+        <v>528</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4619,14 +4640,12 @@
       <c r="K64" s="2"/>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>285</v>
+        <v>527</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4643,39 +4662,41 @@
       <c r="K65" s="2"/>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="7" t="s">
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G66" s="8">
-        <v>1</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="26"/>
-    </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>405</v>
@@ -4692,9 +4713,11 @@
     <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4711,37 +4734,39 @@
       <c r="K68" s="2"/>
       <c r="L68" s="25"/>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="2" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="4"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>478</v>
+        <v>241</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>405</v>
@@ -4760,7 +4785,7 @@
       <c r="B71" s="4"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4777,12 +4802,12 @@
       <c r="K71" s="2"/>
       <c r="L71" s="25"/>
     </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4804,7 +4829,7 @@
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4824,14 +4849,12 @@
     <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>405</v>
@@ -4850,10 +4873,10 @@
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>405</v>
@@ -4861,20 +4884,18 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="H75" s="3"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="25"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4894,15 +4915,17 @@
     <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -4918,10 +4941,10 @@
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>405</v>
@@ -4929,24 +4952,26 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -4960,17 +4985,15 @@
     <row r="80" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>284</v>
+        <v>513</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -4981,15 +5004,15 @@
       <c r="K80" s="2"/>
       <c r="L80" s="25"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>405</v>
@@ -5008,7 +5031,7 @@
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>476</v>
+        <v>572</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>37</v>
@@ -5025,18 +5048,20 @@
       <c r="K82" s="2"/>
       <c r="L82" s="25"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>571</v>
+        <v>284</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -5052,10 +5077,10 @@
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>405</v>
@@ -5069,18 +5094,18 @@
       <c r="K84" s="2"/>
       <c r="L84" s="25"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5096,13 +5121,13 @@
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5118,7 +5143,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>37</v>
@@ -5135,15 +5160,15 @@
       <c r="K87" s="2"/>
       <c r="L87" s="25"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>405</v>
@@ -5162,7 +5187,7 @@
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5184,10 +5209,10 @@
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>405</v>
@@ -5201,15 +5226,15 @@
       <c r="K90" s="2"/>
       <c r="L90" s="25"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>616</v>
+        <v>557</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>405</v>
@@ -5223,12 +5248,12 @@
       <c r="K91" s="2"/>
       <c r="L91" s="25"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5250,10 +5275,10 @@
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>405</v>
@@ -5267,18 +5292,18 @@
       <c r="K93" s="2"/>
       <c r="L93" s="25"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5294,29 +5319,35 @@
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="3"/>
+        <v>573</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="25"/>
     </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -5332,32 +5363,26 @@
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="25"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>405</v>
@@ -5371,12 +5396,12 @@
       <c r="K98" s="2"/>
       <c r="L98" s="25"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>37</v>
@@ -5384,19 +5409,21 @@
       <c r="F99" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G99" s="3"/>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="25"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -5413,14 +5440,12 @@
       <c r="K100" s="2"/>
       <c r="L100" s="25"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="2" t="s">
-        <v>640</v>
-      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -5428,28 +5453,30 @@
       <c r="F101" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="25"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>44170.393055555556</v>
+        <v>44181.324999999997</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>405</v>
@@ -5457,28 +5484,26 @@
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>637</v>
+      <c r="H102" s="3"/>
+      <c r="I102" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="25"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>44166.195833333331</v>
+        <v>44180.320833333331</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -5490,25 +5515,25 @@
         <v>1</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="I103" s="2" t="s">
-        <v>630</v>
+      <c r="I103" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="25"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>44165.1875</v>
+        <v>44170.414583333331</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -5521,24 +5546,24 @@
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="25"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>44164.619444444441</v>
+        <v>44170.393055555556</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -5549,9 +5574,11 @@
       <c r="G105" s="3">
         <v>1</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="2" t="s">
-        <v>625</v>
+      <c r="H105" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5562,16 +5589,16 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>44164.021527777775</v>
+        <v>44166.195833333331</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>405</v>
@@ -5581,7 +5608,7 @@
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5592,13 +5619,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>44163.98333333333</v>
+        <v>44165.1875</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5611,24 +5638,24 @@
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="25"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>44159.308333333334</v>
+        <v>44164.619444444441</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -5640,15 +5667,11 @@
         <v>1</v>
       </c>
       <c r="H108" s="3"/>
-      <c r="I108" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I108" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="25"/>
     </row>
     <row r="109" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5656,16 +5679,16 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>44158.065972222219</v>
+        <v>44164.021527777775</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>405</v>
@@ -5675,31 +5698,27 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="25"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>44152.765277777777</v>
+        <v>44163.98333333333</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>405</v>
@@ -5709,65 +5728,61 @@
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
       <c r="L110" s="25"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>44151.671527777777</v>
+        <v>44159.308333333334</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111" s="2" t="s">
-        <v>601</v>
+      <c r="I111" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L111" s="25"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>44151.671527777777</v>
+        <v>44158.065972222219</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>405</v>
@@ -5777,71 +5792,75 @@
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L112" s="25"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44151.518750000003</v>
+        <v>44152.765277777777</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L113" s="25"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>44151.500694444447</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>585</v>
+        <v>444</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>21</v>
@@ -5856,13 +5875,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>44150.777083333334</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -5875,14 +5894,10 @@
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
       <c r="L115" s="25"/>
     </row>
     <row r="116" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5890,26 +5905,26 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>44150.509027777778</v>
+        <v>44151.518750000003</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>21</v>
@@ -5924,16 +5939,16 @@
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>44148.320833333331</v>
+        <v>44151.500694444447</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>405</v>
@@ -5943,7 +5958,7 @@
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>21</v>
@@ -5953,21 +5968,21 @@
       </c>
       <c r="L117" s="25"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>44148.290972222225</v>
+        <v>44150.777083333334</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>405</v>
@@ -5977,7 +5992,7 @@
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>21</v>
@@ -5992,47 +6007,47 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>44147.695833333331</v>
+        <v>44150.509027777778</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>558</v>
+        <v>405</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L119" s="25"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>44147.672222222223</v>
+        <v>44148.320833333331</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>37</v>
@@ -6045,75 +6060,75 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="J120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L120" s="25"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>44147.669444444444</v>
+        <v>44148.290972222225</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="3"/>
-      <c r="I121" s="6" t="s">
-        <v>556</v>
+      <c r="I121" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L121" s="25"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>44146.38958333333</v>
+        <v>44147.695833333331</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>408</v>
+        <v>560</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>405</v>
+        <v>558</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="3"/>
-      <c r="I122" s="6" t="s">
-        <v>550</v>
+      <c r="I122" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>26</v>
@@ -6123,21 +6138,21 @@
       </c>
       <c r="L122" s="25"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>44143.157638888886</v>
+        <v>44147.672222222223</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>405</v>
@@ -6147,41 +6162,41 @@
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L123" s="25"/>
     </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>44143.156944444447</v>
+        <v>44147.669444444444</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="3"/>
-      <c r="I124" s="2" t="s">
-        <v>535</v>
+      <c r="I124" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>21</v>
@@ -6191,21 +6206,21 @@
       </c>
       <c r="L124" s="25"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>44143.154166666667</v>
+        <v>44146.38958333333</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>405</v>
@@ -6214,42 +6229,42 @@
         <v>1</v>
       </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="2" t="s">
-        <v>534</v>
+      <c r="I125" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L125" s="25"/>
     </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>44142.606249999997</v>
+        <v>44143.157638888886</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>21</v>
@@ -6259,21 +6274,21 @@
       </c>
       <c r="L126" s="25"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>44138.168055555558</v>
+        <v>44143.156944444447</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>405</v>
@@ -6283,7 +6298,7 @@
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>21</v>
@@ -6293,21 +6308,21 @@
       </c>
       <c r="L127" s="25"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>44137.03125</v>
+        <v>44143.154166666667</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>405</v>
@@ -6317,13 +6332,13 @@
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L128" s="25"/>
     </row>
@@ -6332,50 +6347,50 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>44136.991666666669</v>
+        <v>44142.606249999997</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L129" s="25"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>44136.385416666664</v>
+        <v>44138.168055555558</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>405</v>
@@ -6385,45 +6400,47 @@
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L130" s="25"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>44136.383333333331</v>
+        <v>44137.03125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L131" s="25"/>
     </row>
@@ -6432,16 +6449,16 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>44136.277777777781</v>
+        <v>44136.991666666669</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>403</v>
@@ -6451,27 +6468,31 @@
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L132" s="25"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>44136.277777777781</v>
+        <v>44136.385416666664</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>405</v>
@@ -6480,15 +6501,13 @@
         <v>1</v>
       </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="6" t="s">
-        <v>494</v>
+      <c r="I133" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K133" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K133" s="2"/>
       <c r="L133" s="25"/>
     </row>
     <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6496,16 +6515,16 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>44122.40902777778</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>488</v>
+        <v>44136.383333333331</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>403</v>
@@ -6515,7 +6534,7 @@
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>21</v>
@@ -6525,65 +6544,61 @@
       </c>
       <c r="L134" s="25"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>44122.407638888886</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="25"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>44122.23333333333</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="2" t="s">
-        <v>479</v>
+      <c r="I136" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>21</v>
@@ -6598,16 +6613,16 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>44115</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>472</v>
+        <v>44122.40902777778</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>403</v>
@@ -6617,41 +6632,41 @@
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L137" s="25"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>44102</v>
+        <v>44122.407638888886</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G138" s="3">
         <v>1</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>21</v>
@@ -6661,52 +6676,52 @@
       </c>
       <c r="L138" s="25"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>44102</v>
+        <v>44122.23333333333</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L139" s="25"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>44094</v>
+        <v>44115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>15</v>
@@ -6719,13 +6734,13 @@
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L140" s="25"/>
     </row>
@@ -6734,26 +6749,26 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>21</v>
@@ -6768,26 +6783,26 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>21</v>
@@ -6797,7 +6812,7 @@
       </c>
       <c r="L142" s="25"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
@@ -6805,23 +6820,23 @@
         <v>44094</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>21</v>
@@ -6839,23 +6854,23 @@
         <v>44094</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>21</v>
@@ -6865,65 +6880,65 @@
       </c>
       <c r="L144" s="25"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>44077.746527777781</v>
+        <v>44094</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
       </c>
       <c r="H145" s="3"/>
-      <c r="I145" s="6" t="s">
-        <v>451</v>
+      <c r="I145" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L145" s="25"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4">
-        <v>44071.106249999997</v>
+        <v>44094</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>21</v>
@@ -6933,18 +6948,18 @@
       </c>
       <c r="L146" s="25"/>
     </row>
-    <row r="147" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B147" s="4">
-        <v>44069.31527777778</v>
+        <v>44094</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>15</v>
@@ -6956,25 +6971,29 @@
         <v>1</v>
       </c>
       <c r="H147" s="3"/>
-      <c r="I147" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="I147" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L147" s="25"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B148" s="4">
-        <v>44067.693749999999</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -6986,32 +7005,32 @@
         <v>1</v>
       </c>
       <c r="H148" s="3"/>
-      <c r="I148" s="2" t="s">
-        <v>432</v>
+      <c r="I148" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L148" s="25"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B149" s="4">
-        <v>44067.618750000001</v>
+        <v>44071.106249999997</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>403</v>
@@ -7021,7 +7040,7 @@
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>21</v>
@@ -7031,52 +7050,48 @@
       </c>
       <c r="L149" s="25"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="4">
-        <v>44066.393750000003</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G150" s="3">
         <v>1</v>
       </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I150" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
       <c r="L150" s="25"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="4">
-        <v>44060.109722222223</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -7089,24 +7104,28 @@
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L151" s="25"/>
     </row>
-    <row r="152" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="4">
-        <v>44060.006249999999</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -7119,13 +7138,13 @@
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L152" s="25"/>
     </row>
@@ -7134,46 +7153,50 @@
         <v>11</v>
       </c>
       <c r="B153" s="4">
-        <v>44051.845833333333</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L153" s="25"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="4">
-        <v>44051.779166666667</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>403</v>
@@ -7183,39 +7206,37 @@
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
       <c r="L154" s="25"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="4">
-        <v>44045.950694444444</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="2"/>
+      <c r="F155" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G155" s="3">
         <v>1</v>
       </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="6" t="s">
-        <v>398</v>
+      <c r="I155" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>21</v>
@@ -7230,77 +7251,77 @@
         <v>11</v>
       </c>
       <c r="B156" s="4">
-        <v>44044.503472222219</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F156" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G156" s="3">
         <v>1</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
       <c r="L156" s="25"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="4">
-        <v>44040.64166666667</v>
+        <v>44051.779166666667</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G157" s="3">
         <v>1</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L157" s="25"/>
     </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="4">
-        <v>44040.486805555556</v>
+        <v>44045.950694444444</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -7310,8 +7331,8 @@
         <v>1</v>
       </c>
       <c r="H158" s="3"/>
-      <c r="I158" s="2" t="s">
-        <v>388</v>
+      <c r="I158" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>21</v>
@@ -7321,21 +7342,21 @@
       </c>
       <c r="L158" s="25"/>
     </row>
-    <row r="159" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B159" s="4">
-        <v>44038.615972222222</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="3">
@@ -7343,28 +7364,28 @@
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L159" s="25"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="4">
-        <v>44038.490277777775</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -7375,13 +7396,13 @@
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L160" s="25"/>
     </row>
@@ -7390,13 +7411,13 @@
         <v>11</v>
       </c>
       <c r="B161" s="4">
-        <v>44037.549305555556</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -7407,13 +7428,13 @@
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L161" s="25"/>
     </row>
@@ -7422,13 +7443,13 @@
         <v>11</v>
       </c>
       <c r="B162" s="4">
-        <v>44037.54791666667</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -7439,7 +7460,7 @@
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>21</v>
@@ -7449,18 +7470,18 @@
       </c>
       <c r="L162" s="25"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="4">
-        <v>44037.48541666667</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -7471,7 +7492,7 @@
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>21</v>
@@ -7481,21 +7502,21 @@
       </c>
       <c r="L163" s="25"/>
     </row>
-    <row r="164" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B164" s="4">
-        <v>44036.708333333336</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="3">
@@ -7503,13 +7524,13 @@
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="L164" s="25"/>
     </row>
@@ -7518,16 +7539,16 @@
         <v>11</v>
       </c>
       <c r="B165" s="4">
-        <v>44030.311805555553</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="3">
@@ -7535,7 +7556,7 @@
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>21</v>
@@ -7543,25 +7564,23 @@
       <c r="K165" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L165" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L165" s="25"/>
+    </row>
+    <row r="166" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B166" s="4">
-        <v>44030.288194444445</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="3">
@@ -7569,13 +7588,13 @@
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L166" s="25"/>
     </row>
@@ -7584,16 +7603,16 @@
         <v>11</v>
       </c>
       <c r="B167" s="4">
-        <v>44030.259027777778</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="3">
@@ -7601,31 +7620,31 @@
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L167" s="25"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="4">
-        <v>44028.379861111112</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="3">
@@ -7633,31 +7652,33 @@
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L168" s="25"/>
-    </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="L168" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="4">
-        <v>44028.377083333333</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="3">
@@ -7665,13 +7686,13 @@
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L169" s="25"/>
     </row>
@@ -7680,16 +7701,16 @@
         <v>11</v>
       </c>
       <c r="B170" s="4">
-        <v>44027.884027777778</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="3">
@@ -7697,13 +7718,13 @@
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L170" s="25"/>
     </row>
@@ -7712,16 +7733,16 @@
         <v>11</v>
       </c>
       <c r="B171" s="4">
-        <v>44026.883333333331</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="3">
@@ -7729,31 +7750,31 @@
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L171" s="25"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="4">
-        <v>44025.490972222222</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="3">
@@ -7761,28 +7782,28 @@
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L172" s="25"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="4">
-        <v>44025.15347222222</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -7793,7 +7814,7 @@
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>21</v>
@@ -7803,21 +7824,21 @@
       </c>
       <c r="L173" s="25"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="4">
-        <v>44019.426388888889</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="3">
@@ -7825,28 +7846,28 @@
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L174" s="25"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="4">
-        <v>44019.088194444441</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -7857,28 +7878,28 @@
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L175" s="25"/>
     </row>
-    <row r="176" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="4">
-        <v>44018.056250000001</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -7889,7 +7910,7 @@
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>21</v>
@@ -7899,18 +7920,18 @@
       </c>
       <c r="L176" s="25"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="4">
-        <v>44017.363888888889</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -7921,7 +7942,7 @@
       </c>
       <c r="H177" s="3"/>
       <c r="I177" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>21</v>
@@ -7931,18 +7952,18 @@
       </c>
       <c r="L177" s="25"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="4">
-        <v>44017.333333333336</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -7953,13 +7974,13 @@
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L178" s="25"/>
     </row>
@@ -7968,16 +7989,16 @@
         <v>11</v>
       </c>
       <c r="B179" s="4">
-        <v>44016.859722222223</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="3">
@@ -7985,13 +8006,13 @@
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L179" s="25"/>
     </row>
@@ -8000,13 +8021,13 @@
         <v>11</v>
       </c>
       <c r="B180" s="4">
-        <v>44012.827777777777</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -8017,31 +8038,31 @@
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L180" s="25"/>
     </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="4">
-        <v>44008</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="3">
@@ -8049,31 +8070,31 @@
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L181" s="25"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="4">
-        <v>43995.52847222222</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="3">
@@ -8081,7 +8102,7 @@
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>21</v>
@@ -8096,13 +8117,13 @@
         <v>11</v>
       </c>
       <c r="B183" s="4">
-        <v>43990.650694444441</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -8113,31 +8134,31 @@
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="4">
-        <v>44012.328472222223</v>
+        <v>44008</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="3">
@@ -8145,65 +8166,63 @@
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L184" s="25"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="4">
-        <v>44058.987500000003</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="F185" s="2"/>
       <c r="G185" s="3">
         <v>1</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L185" s="25"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="4">
-        <v>43990.670138888891</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="3">
@@ -8211,7 +8230,7 @@
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="2" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>21</v>
@@ -8226,16 +8245,16 @@
         <v>11</v>
       </c>
       <c r="B187" s="4">
-        <v>43983.301388888889</v>
+        <v>44012.328472222223</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="3">
@@ -8243,13 +8262,13 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="2" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L187" s="25"/>
     </row>
@@ -8258,30 +8277,32 @@
         <v>11</v>
       </c>
       <c r="B188" s="4">
-        <v>43982.572222222225</v>
+        <v>44058.987500000003</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G188" s="3">
         <v>1</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="2" t="s">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L188" s="25"/>
     </row>
@@ -8290,13 +8311,13 @@
         <v>11</v>
       </c>
       <c r="B189" s="4">
-        <v>43982.536805555559</v>
+        <v>43990.670138888891</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>45</v>
@@ -8307,31 +8328,31 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L189" s="25"/>
     </row>
-    <row r="190" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B190" s="4">
-        <v>43982.416666666664</v>
+        <v>43983.301388888889</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="3">
@@ -8339,7 +8360,7 @@
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>21</v>
@@ -8354,16 +8375,16 @@
         <v>11</v>
       </c>
       <c r="B191" s="4">
-        <v>43982.368055555555</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="3">
@@ -8371,7 +8392,7 @@
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>21</v>
@@ -8386,16 +8407,16 @@
         <v>11</v>
       </c>
       <c r="B192" s="4">
-        <v>43976.984027777777</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="3">
@@ -8403,31 +8424,31 @@
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K192" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L192" s="25"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="4">
-        <v>43976.3</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="3">
@@ -8435,7 +8456,7 @@
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>21</v>
@@ -8445,18 +8466,18 @@
       </c>
       <c r="L193" s="25"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="4">
-        <v>43976.279861111114</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -8467,7 +8488,7 @@
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>21</v>
@@ -8477,21 +8498,21 @@
       </c>
       <c r="L194" s="25"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="4">
-        <v>43976.130555555559</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="3">
@@ -8499,31 +8520,31 @@
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L195" s="25"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="4">
-        <v>43962.618055555555</v>
+        <v>43976.3</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="3">
@@ -8531,13 +8552,13 @@
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K196" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L196" s="25"/>
     </row>
@@ -8546,13 +8567,13 @@
         <v>11</v>
       </c>
       <c r="B197" s="4">
-        <v>43962.611111111109</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -8563,26 +8584,28 @@
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L197" s="25"/>
+    </row>
+    <row r="198" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="4">
-        <v>43969.09375</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -8593,31 +8616,31 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L198" s="25"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B199" s="4">
-        <v>43954</v>
+        <v>43962.618055555555</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="3">
@@ -8625,13 +8648,13 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L199" s="25"/>
     </row>
@@ -8640,82 +8663,78 @@
         <v>11</v>
       </c>
       <c r="B200" s="4">
-        <v>44064.506249999999</v>
+        <v>43962.611111111109</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>403</v>
-      </c>
+      <c r="F200" s="2"/>
       <c r="G200" s="3">
         <v>1</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K200" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L200" s="25"/>
-    </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B201" s="4">
-        <v>43959</v>
+        <v>43969.09375</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="3">
         <v>1</v>
       </c>
       <c r="H201" s="3"/>
-      <c r="I201" s="6" t="s">
-        <v>228</v>
+      <c r="I201" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L201" s="25"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="4">
-        <v>43948</v>
+        <v>43954</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="3">
@@ -8723,129 +8742,131 @@
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L202" s="25"/>
+    </row>
+    <row r="203" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="4">
+        <v>44064.506249999999</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1</v>
+      </c>
+      <c r="H203" s="3"/>
+      <c r="I203" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L203" s="25"/>
+    </row>
+    <row r="204" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H204" s="3"/>
+      <c r="I204" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L204" s="25"/>
+    </row>
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L202" s="25" t="s">
+      <c r="J205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L205" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B203" s="9">
+    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="9">
         <v>43933</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C206" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E206" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F203" s="7"/>
-      <c r="G203" s="8">
-        <v>1</v>
-      </c>
-      <c r="H203" s="8"/>
-      <c r="I203" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J203" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K203" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L203" s="26"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="7"/>
-      <c r="G204" s="8">
-        <v>1</v>
-      </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J204" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K204" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L204" s="26"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B205" s="12">
-        <v>43963.240277777775</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E205" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" s="10"/>
-      <c r="G205" s="11">
-        <v>1</v>
-      </c>
-      <c r="H205" s="11"/>
-      <c r="I205" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K205" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L205" s="26"/>
-    </row>
-    <row r="206" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="8">
@@ -8853,13 +8874,13 @@
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L206" s="26"/>
     </row>
@@ -8868,16 +8889,16 @@
         <v>11</v>
       </c>
       <c r="B207" s="9">
-        <v>43893</v>
+        <v>43932</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="8">
@@ -8885,63 +8906,63 @@
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J207" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K207" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L207" s="26"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B208" s="9">
-        <v>43920</v>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="12">
+        <v>43963.240277777775</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F208" s="7"/>
-      <c r="G208" s="8">
-        <v>1</v>
-      </c>
-      <c r="H208" s="8"/>
-      <c r="I208" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J208" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K208" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="10"/>
+      <c r="G208" s="11">
+        <v>1</v>
+      </c>
+      <c r="H208" s="11"/>
+      <c r="I208" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J208" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L208" s="26"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B209" s="9">
-        <v>43911</v>
+        <v>43932</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="8">
@@ -8949,13 +8970,13 @@
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="J209" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L209" s="26"/>
     </row>
@@ -8964,16 +8985,16 @@
         <v>11</v>
       </c>
       <c r="B210" s="9">
-        <v>43903</v>
+        <v>43893</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="8">
@@ -8981,13 +9002,13 @@
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L210" s="26"/>
     </row>
@@ -8996,13 +9017,13 @@
         <v>11</v>
       </c>
       <c r="B211" s="9">
-        <v>43901</v>
+        <v>43920</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>15</v>
@@ -9013,31 +9034,31 @@
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J211" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L211" s="26"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B212" s="9">
-        <v>43901</v>
+        <v>43911</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="8">
@@ -9045,7 +9066,7 @@
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J212" s="7" t="s">
         <v>21</v>
@@ -9060,16 +9081,16 @@
         <v>11</v>
       </c>
       <c r="B213" s="9">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="8">
@@ -9077,7 +9098,7 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J213" s="7" t="s">
         <v>21</v>
@@ -9087,7 +9108,7 @@
       </c>
       <c r="L213" s="26"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>11</v>
       </c>
@@ -9095,10 +9116,10 @@
         <v>43901</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>15</v>
@@ -9109,7 +9130,7 @@
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J214" s="7" t="s">
         <v>21</v>
@@ -9127,10 +9148,10 @@
         <v>43901</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>8</v>
@@ -9141,13 +9162,13 @@
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J215" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L215" s="26"/>
     </row>
@@ -9156,16 +9177,16 @@
         <v>11</v>
       </c>
       <c r="B216" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="8">
@@ -9173,7 +9194,7 @@
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>21</v>
@@ -9183,18 +9204,18 @@
       </c>
       <c r="L216" s="26"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B217" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>15</v>
@@ -9205,7 +9226,7 @@
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>21</v>
@@ -9215,21 +9236,21 @@
       </c>
       <c r="L217" s="26"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B218" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="8">
@@ -9237,17 +9258,17 @@
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L218" s="26"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>11</v>
       </c>
@@ -9255,10 +9276,10 @@
         <v>43898</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>8</v>
@@ -9269,7 +9290,7 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>21</v>
@@ -9287,13 +9308,13 @@
         <v>43898</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="8">
@@ -9301,7 +9322,7 @@
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J220" s="7" t="s">
         <v>21</v>
@@ -9311,7 +9332,7 @@
       </c>
       <c r="L220" s="26"/>
     </row>
-    <row r="221" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>11</v>
       </c>
@@ -9319,10 +9340,10 @@
         <v>43898</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>37</v>
@@ -9333,7 +9354,7 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>21</v>
@@ -9343,18 +9364,18 @@
       </c>
       <c r="L221" s="26"/>
     </row>
-    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B222" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>8</v>
@@ -9365,13 +9386,13 @@
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J222" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L222" s="26"/>
     </row>
@@ -9380,16 +9401,16 @@
         <v>11</v>
       </c>
       <c r="B223" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="8">
@@ -9397,7 +9418,7 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>21</v>
@@ -9412,16 +9433,16 @@
         <v>11</v>
       </c>
       <c r="B224" s="9">
-        <v>43887</v>
+        <v>43898</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="8">
@@ -9429,61 +9450,63 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="7" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L224" s="26"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B225" s="9">
-        <v>43885</v>
+        <v>43897</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="7"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
+      <c r="G225" s="8">
+        <v>1</v>
+      </c>
+      <c r="H225" s="8"/>
       <c r="I225" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L225" s="26"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B226" s="9">
-        <v>43883</v>
+        <v>43897</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="8">
@@ -9491,7 +9514,7 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>21</v>
@@ -9501,34 +9524,34 @@
       </c>
       <c r="L226" s="26"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B227" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E227" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F227" s="10"/>
-      <c r="G227" s="11">
-        <v>1</v>
-      </c>
-      <c r="H227" s="11"/>
-      <c r="I227" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J227" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K227" s="10" t="s">
+        <v>43887</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="7"/>
+      <c r="G227" s="8">
+        <v>1</v>
+      </c>
+      <c r="H227" s="8"/>
+      <c r="I227" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J227" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L227" s="26"/>
@@ -9538,30 +9561,28 @@
         <v>11</v>
       </c>
       <c r="B228" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E228" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" s="10"/>
-      <c r="G228" s="11">
-        <v>1</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="7"/>
+      <c r="G228" s="11"/>
       <c r="H228" s="11"/>
-      <c r="I228" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J228" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K228" s="10" t="s">
-        <v>26</v>
+      <c r="I228" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J228" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K228" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="L228" s="26"/>
     </row>
@@ -9569,49 +9590,49 @@
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E229" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F229" s="10"/>
-      <c r="G229" s="11">
-        <v>1</v>
-      </c>
-      <c r="H229" s="11"/>
-      <c r="I229" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K229" s="10" t="s">
+      <c r="B229" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="8">
+        <v>1</v>
+      </c>
+      <c r="H229" s="8"/>
+      <c r="I229" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J229" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K229" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L229" s="26"/>
     </row>
-    <row r="230" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B230" s="12">
-        <v>43881</v>
+      <c r="B230" s="9">
+        <v>43883</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="11">
@@ -9619,31 +9640,31 @@
       </c>
       <c r="H230" s="11"/>
       <c r="I230" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J230" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K230" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L230" s="26"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B231" s="12">
-        <v>43878</v>
+      <c r="B231" s="9">
+        <v>43883</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F231" s="10"/>
       <c r="G231" s="11">
@@ -9651,63 +9672,63 @@
       </c>
       <c r="H231" s="11"/>
       <c r="I231" s="10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J231" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K231" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L231" s="26"/>
     </row>
-    <row r="232" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B232" s="12">
-        <v>43878</v>
+        <v>43881</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F232" s="10"/>
       <c r="G232" s="11">
         <v>1</v>
       </c>
       <c r="H232" s="11"/>
-      <c r="I232" s="13" t="s">
-        <v>206</v>
+      <c r="I232" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="J232" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K232" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L232" s="26"/>
     </row>
-    <row r="233" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B233" s="12">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F233" s="10"/>
       <c r="G233" s="11">
@@ -9715,7 +9736,7 @@
       </c>
       <c r="H233" s="11"/>
       <c r="I233" s="10" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="J233" s="10" t="s">
         <v>21</v>
@@ -9730,48 +9751,48 @@
         <v>11</v>
       </c>
       <c r="B234" s="12">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F234" s="10"/>
       <c r="G234" s="11">
         <v>1</v>
       </c>
       <c r="H234" s="11"/>
-      <c r="I234" s="14" t="s">
-        <v>203</v>
+      <c r="I234" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="J234" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K234" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L234" s="26"/>
     </row>
-    <row r="235" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="12">
-        <v>43874</v>
+        <v>43878</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F235" s="10"/>
       <c r="G235" s="11">
@@ -9779,7 +9800,7 @@
       </c>
       <c r="H235" s="11"/>
       <c r="I235" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J235" s="10" t="s">
         <v>21</v>
@@ -9789,21 +9810,21 @@
       </c>
       <c r="L235" s="26"/>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B236" s="12">
-        <v>43872</v>
+        <v>43877</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F236" s="10"/>
       <c r="G236" s="11">
@@ -9811,95 +9832,95 @@
       </c>
       <c r="H236" s="11"/>
       <c r="I236" s="10" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="J236" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K236" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L236" s="26"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B237" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E237" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F237" s="7"/>
-      <c r="G237" s="8">
-        <v>1</v>
-      </c>
-      <c r="H237" s="8"/>
-      <c r="I237" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J237" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K237" s="7" t="s">
-        <v>21</v>
+      <c r="B237" s="12">
+        <v>43877</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F237" s="10"/>
+      <c r="G237" s="11">
+        <v>1</v>
+      </c>
+      <c r="H237" s="11"/>
+      <c r="I237" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K237" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="L237" s="26"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B238" s="12">
-        <v>43869</v>
+        <v>43874</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F238" s="10"/>
       <c r="G238" s="11">
         <v>1</v>
       </c>
       <c r="H238" s="11"/>
-      <c r="I238" s="10" t="s">
-        <v>93</v>
+      <c r="I238" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="J238" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K238" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L238" s="26"/>
     </row>
-    <row r="239" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="12">
-        <v>43870</v>
+        <v>43872</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F239" s="10"/>
       <c r="G239" s="11">
@@ -9907,7 +9928,7 @@
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="10" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="J239" s="10" t="s">
         <v>21</v>
@@ -9921,35 +9942,35 @@
       <c r="A240" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="12">
-        <v>43869</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E240" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F240" s="10"/>
-      <c r="G240" s="11">
-        <v>1</v>
-      </c>
-      <c r="H240" s="11"/>
-      <c r="I240" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K240" s="10" t="s">
+      <c r="B240" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240" s="7"/>
+      <c r="G240" s="8">
+        <v>1</v>
+      </c>
+      <c r="H240" s="8"/>
+      <c r="I240" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L240" s="26"/>
     </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>11</v>
       </c>
@@ -9957,10 +9978,10 @@
         <v>43869</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>8</v>
@@ -9971,31 +9992,31 @@
       </c>
       <c r="H241" s="11"/>
       <c r="I241" s="10" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="J241" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K241" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L241" s="26"/>
     </row>
-    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B242" s="12">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F242" s="10"/>
       <c r="G242" s="11">
@@ -10003,13 +10024,13 @@
       </c>
       <c r="H242" s="11"/>
       <c r="I242" s="10" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="J242" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K242" s="10" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L242" s="26"/>
     </row>
@@ -10018,16 +10039,16 @@
         <v>11</v>
       </c>
       <c r="B243" s="12">
-        <v>43865</v>
+        <v>43869</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11">
@@ -10035,31 +10056,31 @@
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J243" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K243" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L243" s="26"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B244" s="12">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="11">
@@ -10067,28 +10088,28 @@
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="10" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="J244" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K244" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L244" s="26"/>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B245" s="12">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>8</v>
@@ -10099,28 +10120,28 @@
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K245" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L245" s="26"/>
     </row>
-    <row r="246" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B246" s="12">
-        <v>43855</v>
+        <v>43865</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E246" s="10" t="s">
         <v>15</v>
@@ -10130,8 +10151,8 @@
         <v>1</v>
       </c>
       <c r="H246" s="11"/>
-      <c r="I246" s="15" t="s">
-        <v>196</v>
+      <c r="I246" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="J246" s="10" t="s">
         <v>21</v>
@@ -10146,25 +10167,31 @@
         <v>11</v>
       </c>
       <c r="B247" s="12">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F247" s="10"/>
       <c r="G247" s="11">
         <v>1</v>
       </c>
-      <c r="H247" s="29"/>
-      <c r="I247" s="16"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L247" s="26"/>
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10172,16 +10199,16 @@
         <v>11</v>
       </c>
       <c r="B248" s="12">
-        <v>43855</v>
+        <v>43858</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="11">
@@ -10189,7 +10216,7 @@
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J248" s="10" t="s">
         <v>21</v>
@@ -10199,18 +10226,18 @@
       </c>
       <c r="L248" s="26"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B249" s="12">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>15</v>
@@ -10220,8 +10247,8 @@
         <v>1</v>
       </c>
       <c r="H249" s="11"/>
-      <c r="I249" s="10" t="s">
-        <v>64</v>
+      <c r="I249" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="J249" s="10" t="s">
         <v>21</v>
@@ -10231,59 +10258,55 @@
       </c>
       <c r="L249" s="26"/>
     </row>
-    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B250" s="12">
-        <v>43854</v>
+        <v>43856</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E250" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="F250" s="10"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J250" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K250" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G250" s="11">
+        <v>1</v>
+      </c>
+      <c r="H250" s="29"/>
+      <c r="I250" s="16"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
       <c r="L250" s="26"/>
     </row>
     <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B251" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E251" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G251" s="8">
-        <v>1</v>
-      </c>
-      <c r="H251" s="8"/>
+      <c r="B251" s="12">
+        <v>43855</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="11">
+        <v>1</v>
+      </c>
+      <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>467</v>
+        <v>67</v>
       </c>
       <c r="J251" s="10" t="s">
         <v>21</v>
@@ -10298,22 +10321,24 @@
         <v>11</v>
       </c>
       <c r="B252" s="12">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F252" s="10"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="11">
+        <v>1</v>
+      </c>
       <c r="H252" s="11"/>
       <c r="I252" s="10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J252" s="10" t="s">
         <v>21</v>
@@ -10323,60 +10348,66 @@
       </c>
       <c r="L252" s="26"/>
     </row>
-    <row r="253" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B253" s="12">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J253" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K253" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L253" s="26"/>
     </row>
-    <row r="254" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="12">
-        <v>43851</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D254" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E254" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F254" s="10"/>
-      <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
+      <c r="B254" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G254" s="8">
+        <v>1</v>
+      </c>
+      <c r="H254" s="8"/>
       <c r="I254" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J254" s="10"/>
-      <c r="K254" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="J254" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K254" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L254" s="26"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -10384,65 +10415,73 @@
         <v>11</v>
       </c>
       <c r="B255" s="12">
-        <v>43849</v>
+        <v>43853</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="J255" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K255" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L255" s="26"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B256" s="12">
-        <v>43848</v>
+        <v>43853</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J256" s="10"/>
-      <c r="K256" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K256" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L256" s="26"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="10" t="s">
+    <row r="257" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B257" s="12">
-        <v>43848</v>
+        <v>43851</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>31</v>
@@ -10451,185 +10490,175 @@
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K257" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10"/>
       <c r="L257" s="26"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
+      <c r="A258" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B258" s="12">
-        <v>43847</v>
+        <v>43849</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K258" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
       <c r="L258" s="26"/>
     </row>
     <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B259" s="12">
-        <v>43846</v>
+        <v>43848</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F259" s="10"/>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
       <c r="I259" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J259" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K259" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
       <c r="L259" s="26"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B260" s="12">
-        <v>43835</v>
+        <v>43848</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F260" s="10"/>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
       <c r="I260" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J260" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K260" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L260" s="26"/>
     </row>
-    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B261" s="12">
-        <v>43835</v>
+        <v>43847</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F261" s="10"/>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
       <c r="I261" s="10" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="J261" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K261" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L261" s="26"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B262" s="12">
-        <v>43842</v>
+        <v>43846</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F262" s="10"/>
       <c r="G262" s="11"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J262" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K262" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L262" s="26"/>
     </row>
-    <row r="263" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B263" s="12">
-        <v>43857</v>
+        <v>43835</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F263" s="10"/>
-      <c r="G263" s="11">
-        <v>1</v>
-      </c>
+      <c r="G263" s="11"/>
       <c r="H263" s="11"/>
       <c r="I263" s="10" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="J263" s="10" t="s">
         <v>21</v>
@@ -10639,18 +10668,18 @@
       </c>
       <c r="L263" s="26"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B264" s="12">
-        <v>43841</v>
+        <v>43835</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E264" s="10" t="s">
         <v>8</v>
@@ -10659,10 +10688,14 @@
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="J264" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K264" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L264" s="26"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -10670,47 +10703,131 @@
         <v>11</v>
       </c>
       <c r="B265" s="12">
-        <v>43751</v>
+        <v>43842</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F265" s="10"/>
       <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="10" t="s">
-        <v>10</v>
+      <c r="H265" s="29"/>
+      <c r="I265" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
       <c r="L265" s="26"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="17"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="17"/>
-      <c r="G266" s="18"/>
-      <c r="H266" s="18"/>
-      <c r="I266" s="17"/>
-      <c r="J266" s="17"/>
-      <c r="K266" s="17"/>
+    <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" s="12">
+        <v>43857</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" s="10"/>
+      <c r="G266" s="11">
+        <v>1</v>
+      </c>
+      <c r="H266" s="11"/>
+      <c r="I266" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K266" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L266" s="26"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" s="12">
+        <v>43841</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="10"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="26"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="12">
+        <v>43751</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" s="10"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="26"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="17"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L266"/>
+  <autoFilter ref="A1:L269"/>
   <sortState ref="A97:K98">
     <sortCondition descending="1" ref="C97:C98"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A47 A113:A265 A49:A89 A91:A110">
+  <conditionalFormatting sqref="A2:A47 A116:A268 A94:A113 A49:A92">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -10721,12 +10838,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B47 B113:B265 B49:B89 B91:B111">
+  <conditionalFormatting sqref="B2:B47 B116:B268 B94:B114 B49:B92">
     <cfRule type="expression" dxfId="39" priority="48">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E47 E49:E89 E91:E265">
+  <conditionalFormatting sqref="E2:E47 E94:E268 E49:E92">
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -10743,7 +10860,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F47 F49:F89 F91:F265">
+  <conditionalFormatting sqref="F2:F47 F94:F268 F49:F92">
     <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -10804,78 +10921,78 @@
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A114">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A111))=0</formula>
+      <formula>LEN(TRIM(A114))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112">
+  <conditionalFormatting sqref="B115">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND($A112 = "Done", ISBLANK($B112))</formula>
+      <formula>AND($A115 = "Done", ISBLANK($B115))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A115">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>LEN(TRIM(A112))=0</formula>
+      <formula>LEN(TRIM(A115))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A93">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A90))=0</formula>
+      <formula>LEN(TRIM(A93))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B93">
     <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($A90 = "Done", ISBLANK($B90))</formula>
+      <formula>AND($A93 = "Done", ISBLANK($B93))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E93">
     <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$E90="Improv"</formula>
+      <formula>$E93="Improv"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>$E90="Feat"</formula>
+      <formula>$E93="Feat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>$E90="Design"</formula>
+      <formula>$E93="Design"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>$E90="Bug"</formula>
+      <formula>$E93="Bug"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
+  <conditionalFormatting sqref="F93">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$F90="High"</formula>
+      <formula>$F93="High"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$F90="Medium"</formula>
+      <formula>$F93="Medium"</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(F90))=0</formula>
+      <formula>LEN(TRIM(F93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$276</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="673">
   <si>
     <t>Task ID</t>
   </si>
@@ -2173,9 +2173,6 @@
     <t>feat: WEB-1076 - add functionality to create/cancel a request to join a team</t>
   </si>
   <si>
-    <t>Display requests to join a team</t>
-  </si>
-  <si>
     <t>feat: WEB-0176 - generate notification for team owner when someone requests to join the team</t>
   </si>
   <si>
@@ -2186,9 +2183,6 @@
   </si>
   <si>
     <t>feat: WEB-0176 - add functionality for team manager to join and leave the team</t>
-  </si>
-  <si>
-    <t>Resize User's primary photo before uploading to server</t>
   </si>
   <si>
     <t>Notifications Pop Up - Not loading more items</t>
@@ -2244,6 +2238,84 @@
   </si>
   <si>
     <t>improv: WEB-0180 - Game Details modal - add field to set court</t>
+  </si>
+  <si>
+    <t>Add JsDoc</t>
+  </si>
+  <si>
+    <t>WEB-0181</t>
+  </si>
+  <si>
+    <t>setup: WEB-0181 - add jsdoc</t>
+  </si>
+  <si>
+    <t>WEB-0182</t>
+  </si>
+  <si>
+    <t>Display competing teams in game details</t>
+  </si>
+  <si>
+    <t>feat: WEB-0182 - Display competing teams in game details</t>
+  </si>
+  <si>
+    <t>WEB-0183</t>
+  </si>
+  <si>
+    <t>As a team manager, I should be able to set the team's logo</t>
+  </si>
+  <si>
+    <t>HIgh</t>
+  </si>
+  <si>
+    <t>feat: WEB-0183 - Add functionality to update team's logo</t>
+  </si>
+  <si>
+    <t>WEB-0184</t>
+  </si>
+  <si>
+    <t>feat: WEB-0184 - Generate teams when creating a new game</t>
+  </si>
+  <si>
+    <t>As a game creator, I should be able to start a game</t>
+  </si>
+  <si>
+    <t>feat: WEB-0185 - implement start game functionality</t>
+  </si>
+  <si>
+    <t>WEB-0185</t>
+  </si>
+  <si>
+    <t>Show confirmation dialog when starting and ending a game</t>
+  </si>
+  <si>
+    <t>As a game creator, I should be able to update game result</t>
+  </si>
+  <si>
+    <t>feat: WEB-0186 - implement update game result functionality</t>
+  </si>
+  <si>
+    <t>WEB-0186</t>
+  </si>
+  <si>
+    <t>As a game creator, I should be able to end a game</t>
+  </si>
+  <si>
+    <t>feat: WEB-0187 - implement cancel game functionality</t>
+  </si>
+  <si>
+    <t>WEB-0187</t>
+  </si>
+  <si>
+    <t>As a game creator, I should be able to re-open a cancelled game</t>
+  </si>
+  <si>
+    <t>WEB-0188</t>
+  </si>
+  <si>
+    <t>feat: WEB-0188 - add functionality to re-open a cancelled game</t>
+  </si>
+  <si>
+    <t>As a game creator, I should be able to modify the status of a finished game</t>
   </si>
 </sst>
 </file>
@@ -3189,13 +3261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L269"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,7 +4521,7 @@
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>37</v>
@@ -4471,27 +4543,29 @@
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>37</v>
@@ -4499,24 +4573,22 @@
       <c r="F58" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>405</v>
@@ -4530,12 +4602,12 @@
       <c r="K59" s="2"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
@@ -4557,10 +4629,10 @@
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>405</v>
@@ -4574,15 +4646,15 @@
       <c r="K61" s="2"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>405</v>
@@ -4601,10 +4673,10 @@
       <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>405</v>
@@ -4618,12 +4690,12 @@
       <c r="K63" s="2"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4645,7 +4717,7 @@
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4665,11 +4737,9 @@
     <row r="66" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4686,14 +4756,14 @@
       <c r="K66" s="2"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
       <c r="C67" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4714,10 +4784,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4734,61 +4804,63 @@
       <c r="K68" s="2"/>
       <c r="L68" s="25"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7" t="s">
+    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G69" s="8">
-        <v>1</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="26"/>
-    </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>405</v>
@@ -4807,7 +4879,7 @@
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4829,7 +4901,7 @@
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4851,7 +4923,7 @@
       <c r="B74" s="4"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4868,12 +4940,12 @@
       <c r="K74" s="2"/>
       <c r="L74" s="25"/>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4890,12 +4962,12 @@
       <c r="K75" s="2"/>
       <c r="L75" s="25"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4915,14 +4987,12 @@
     <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>280</v>
+        <v>483</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>405</v>
@@ -4936,15 +5006,17 @@
       <c r="K77" s="2"/>
       <c r="L77" s="25"/>
     </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>405</v>
@@ -4952,23 +5024,21 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>405</v>
@@ -4976,24 +5046,26 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="25"/>
     </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5004,18 +5076,18 @@
       <c r="K80" s="2"/>
       <c r="L80" s="25"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5031,13 +5103,13 @@
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5048,20 +5120,18 @@
       <c r="K82" s="2"/>
       <c r="L82" s="25"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>284</v>
+        <v>572</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -5075,9 +5145,11 @@
     <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5094,18 +5166,18 @@
       <c r="K84" s="2"/>
       <c r="L84" s="25"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5121,7 +5193,7 @@
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>37</v>
@@ -5138,18 +5210,18 @@
       <c r="K86" s="2"/>
       <c r="L86" s="25"/>
     </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5165,10 +5237,10 @@
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>405</v>
@@ -5182,15 +5254,15 @@
       <c r="K88" s="2"/>
       <c r="L88" s="25"/>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>405</v>
@@ -5204,15 +5276,15 @@
       <c r="K89" s="2"/>
       <c r="L89" s="25"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>405</v>
@@ -5226,12 +5298,12 @@
       <c r="K90" s="2"/>
       <c r="L90" s="25"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>37</v>
@@ -5248,15 +5320,15 @@
       <c r="K91" s="2"/>
       <c r="L91" s="25"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>405</v>
@@ -5270,12 +5342,12 @@
       <c r="K92" s="2"/>
       <c r="L92" s="25"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5297,7 +5369,7 @@
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5319,7 +5391,7 @@
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5358,28 +5430,34 @@
       <c r="K96" s="2"/>
       <c r="L96" s="25"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
+        <v>627</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="25"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>37</v>
@@ -5401,10 +5479,10 @@
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>405</v>
@@ -5418,12 +5496,12 @@
       <c r="K99" s="2"/>
       <c r="L99" s="25"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -5440,12 +5518,18 @@
       <c r="K100" s="2"/>
       <c r="L100" s="25"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44269.109027777777</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -5457,9 +5541,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="I101" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L101" s="25"/>
     </row>
     <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5467,16 +5557,16 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>44181.324999999997</v>
+        <v>44245.701388888891</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>405</v>
@@ -5486,24 +5576,28 @@
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L102" s="25"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>44180.320833333331</v>
+        <v>44234.186805555553</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -5511,29 +5605,31 @@
       <c r="F103" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L103" s="25"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>44170.414583333331</v>
+        <v>44227.988194444442</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -5546,24 +5642,28 @@
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L104" s="25"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>44170.393055555556</v>
+        <v>44225.163888888892</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -5574,58 +5674,64 @@
       <c r="G105" s="3">
         <v>1</v>
       </c>
-      <c r="H105" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L105" s="25"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>44166.195833333331</v>
+        <v>44213.628472222219</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L106" s="25"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>44165.1875</v>
+        <v>44207.481944444444</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5638,27 +5744,31 @@
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L107" s="25"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>44164.619444444441</v>
+        <v>44186.161111111112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>405</v>
@@ -5668,27 +5778,27 @@
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="2" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="25"/>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>44164.021527777775</v>
+        <v>44181.324999999997</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>405</v>
@@ -5698,24 +5808,24 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="25"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>44163.98333333333</v>
+        <v>44180.320833333331</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -5727,25 +5837,25 @@
         <v>1</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="I110" s="2" t="s">
-        <v>615</v>
+      <c r="I110" s="6" t="s">
+        <v>643</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="25"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>44159.308333333334</v>
+        <v>44170.414583333331</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -5757,32 +5867,28 @@
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I111" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
       <c r="L111" s="25"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>44158.065972222219</v>
+        <v>44170.393055555556</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>405</v>
@@ -5790,33 +5896,31 @@
       <c r="G112" s="3">
         <v>1</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H112" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
       <c r="L112" s="25"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44152.765277777777</v>
+        <v>44166.195833333331</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>405</v>
@@ -5826,62 +5930,54 @@
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
       <c r="L113" s="25"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>44151.671527777777</v>
+        <v>44165.1875</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
       <c r="L114" s="25"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>44151.671527777777</v>
+        <v>44164.619444444441</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -5894,7 +5990,7 @@
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -5905,33 +6001,29 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>44151.518750000003</v>
+        <v>44164.021527777775</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
       <c r="L116" s="25"/>
     </row>
     <row r="117" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5939,13 +6031,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>44151.500694444447</v>
+        <v>44163.98333333333</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -5958,28 +6050,24 @@
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
       <c r="L117" s="25"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>44150.777083333334</v>
+        <v>44159.308333333334</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -5991,14 +6079,14 @@
         <v>1</v>
       </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="2" t="s">
-        <v>584</v>
+      <c r="I118" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L118" s="25"/>
     </row>
@@ -6007,16 +6095,16 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>44150.509027777778</v>
+        <v>44158.065972222219</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>405</v>
@@ -6026,31 +6114,31 @@
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L119" s="25"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>44148.320833333331</v>
+        <v>44152.765277777777</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>405</v>
@@ -6060,7 +6148,7 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>21</v>
@@ -6070,31 +6158,31 @@
       </c>
       <c r="L120" s="25"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>44148.290972222225</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>562</v>
+        <v>444</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>21</v>
@@ -6104,120 +6192,116 @@
       </c>
       <c r="L121" s="25"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>44147.695833333331</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>558</v>
+        <v>405</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
       <c r="L122" s="25"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>44147.672222222223</v>
+        <v>44151.518750000003</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="J123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123" s="25"/>
+    </row>
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="4">
+        <v>44151.500694444447</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L123" s="25"/>
-    </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="4">
-        <v>44147.669444444444</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L124" s="25"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>44146.38958333333</v>
+        <v>44150.777083333334</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>408</v>
+        <v>582</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -6229,14 +6313,14 @@
         <v>1</v>
       </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="6" t="s">
-        <v>550</v>
+      <c r="I125" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="J125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L125" s="25"/>
     </row>
@@ -6245,16 +6329,16 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>44143.157638888886</v>
+        <v>44150.509027777778</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>405</v>
@@ -6264,7 +6348,7 @@
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>21</v>
@@ -6274,21 +6358,21 @@
       </c>
       <c r="L126" s="25"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>44143.156944444447</v>
+        <v>44148.320833333331</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>405</v>
@@ -6298,13 +6382,13 @@
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L127" s="25"/>
     </row>
@@ -6313,16 +6397,16 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>44143.154166666667</v>
+        <v>44148.290972222225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>405</v>
@@ -6332,7 +6416,7 @@
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>21</v>
@@ -6342,55 +6426,55 @@
       </c>
       <c r="L128" s="25"/>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>44142.606249999997</v>
+        <v>44147.695833333331</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L129" s="25"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>44138.168055555558</v>
+        <v>44147.672222222223</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>405</v>
@@ -6400,81 +6484,81 @@
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L130" s="25"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>44137.03125</v>
+        <v>44147.669444444444</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" s="25"/>
+    </row>
+    <row r="132" spans="1:12" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="4">
+        <v>44146.38958333333</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L131" s="25"/>
-    </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="4">
-        <v>44136.991666666669</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="2" t="s">
-        <v>508</v>
+      <c r="I132" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L132" s="25"/>
     </row>
@@ -6483,16 +6567,16 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>44136.385416666664</v>
+        <v>44143.157638888886</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>405</v>
@@ -6502,12 +6586,14 @@
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K133" s="2"/>
+      <c r="K133" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L133" s="25"/>
     </row>
     <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6515,148 +6601,152 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>44136.383333333331</v>
+        <v>44143.156944444447</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L134" s="25"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>44136.277777777781</v>
+        <v>44143.154166666667</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L135" s="25"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>44136.277777777781</v>
+        <v>44142.606249999997</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L136" s="25"/>
+    </row>
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="4">
+        <v>44138.168055555558</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L136" s="25"/>
-    </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="4">
-        <v>44122.40902777778</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="G137" s="3">
         <v>1</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L137" s="25"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>44122.407638888886</v>
+        <v>44137.03125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>405</v>
@@ -6666,31 +6756,31 @@
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L138" s="25"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>44122.23333333333</v>
+        <v>44136.991666666669</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>403</v>
@@ -6700,48 +6790,46 @@
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L139" s="25"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>44115</v>
+        <v>44136.385416666664</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K140" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K140" s="2"/>
       <c r="L140" s="25"/>
     </row>
     <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6749,26 +6837,26 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>44102</v>
+        <v>44136.383333333331</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>21</v>
@@ -6783,66 +6871,62 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>44102</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
       <c r="L142" s="25"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>44094</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="2" t="s">
-        <v>463</v>
+      <c r="I143" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L143" s="25"/>
     </row>
@@ -6851,26 +6935,26 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>44094</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>459</v>
+        <v>44122.40902777778</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>21</v>
@@ -6880,21 +6964,21 @@
       </c>
       <c r="L144" s="25"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>44094</v>
+        <v>44122.407638888886</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>405</v>
@@ -6904,7 +6988,7 @@
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>21</v>
@@ -6914,37 +6998,37 @@
       </c>
       <c r="L145" s="25"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4">
-        <v>44094</v>
+        <v>44122.23333333333</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L146" s="25"/>
     </row>
@@ -6953,13 +7037,13 @@
         <v>11</v>
       </c>
       <c r="B147" s="4">
-        <v>44094</v>
+        <v>44115</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>15</v>
@@ -6972,75 +7056,75 @@
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L147" s="25"/>
+    </row>
+    <row r="148" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="4">
+        <v>44102</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L147" s="25"/>
-    </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" s="4">
-        <v>44077.746527777781</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G148" s="3">
-        <v>1</v>
-      </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L148" s="25"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B149" s="4">
-        <v>44071.106249999997</v>
+        <v>44102</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>21</v>
@@ -7050,18 +7134,18 @@
       </c>
       <c r="L149" s="25"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="4">
-        <v>44069.31527777778</v>
+        <v>44094</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>15</v>
@@ -7073,11 +7157,15 @@
         <v>1</v>
       </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
+      <c r="I150" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L150" s="25"/>
     </row>
     <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7085,26 +7173,26 @@
         <v>11</v>
       </c>
       <c r="B151" s="4">
-        <v>44067.693749999999</v>
+        <v>44094</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G151" s="3">
         <v>1</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>21</v>
@@ -7119,26 +7207,26 @@
         <v>11</v>
       </c>
       <c r="B152" s="4">
-        <v>44067.618750000001</v>
+        <v>44094</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>21</v>
@@ -7153,26 +7241,26 @@
         <v>11</v>
       </c>
       <c r="B153" s="4">
-        <v>44066.393750000003</v>
+        <v>44094</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>21</v>
@@ -7182,21 +7270,21 @@
       </c>
       <c r="L153" s="25"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="4">
-        <v>44060.109722222223</v>
+        <v>44094</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>403</v>
@@ -7206,24 +7294,28 @@
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L154" s="25"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="4">
-        <v>44060.006249999999</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -7235,8 +7327,8 @@
         <v>1</v>
       </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="2" t="s">
-        <v>417</v>
+      <c r="I155" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>21</v>
@@ -7246,21 +7338,21 @@
       </c>
       <c r="L155" s="25"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B156" s="4">
-        <v>44051.845833333333</v>
+        <v>44071.106249999997</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>403</v>
@@ -7270,24 +7362,28 @@
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L156" s="25"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="4">
-        <v>44051.779166666667</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>15</v>
@@ -7299,46 +7395,44 @@
         <v>1</v>
       </c>
       <c r="H157" s="3"/>
-      <c r="I157" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I157" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
       <c r="L157" s="25"/>
     </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="4">
-        <v>44045.950694444444</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G158" s="3">
         <v>1</v>
       </c>
       <c r="H158" s="3"/>
-      <c r="I158" s="6" t="s">
-        <v>398</v>
+      <c r="I158" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L158" s="25"/>
     </row>
@@ -7347,56 +7441,60 @@
         <v>11</v>
       </c>
       <c r="B159" s="4">
-        <v>44044.503472222219</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F159" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G159" s="3">
         <v>1</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="J159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K159" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L159" s="25"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="4">
-        <v>44040.64166666667</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="G160" s="3">
         <v>1</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>21</v>
@@ -7406,36 +7504,34 @@
       </c>
       <c r="L160" s="25"/>
     </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="4">
-        <v>44040.486805555556</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="2"/>
+      <c r="F161" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G161" s="3">
         <v>1</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
       <c r="L161" s="25"/>
     </row>
     <row r="162" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7443,30 +7539,32 @@
         <v>11</v>
       </c>
       <c r="B162" s="4">
-        <v>44038.615972222222</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G162" s="3">
         <v>1</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L162" s="25"/>
     </row>
@@ -7475,31 +7573,29 @@
         <v>11</v>
       </c>
       <c r="B163" s="4">
-        <v>44038.490277777775</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G163" s="3">
         <v>1</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="25"/>
     </row>
     <row r="164" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7507,45 +7603,47 @@
         <v>11</v>
       </c>
       <c r="B164" s="4">
-        <v>44037.549305555556</v>
+        <v>44051.779166666667</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G164" s="3">
         <v>1</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L164" s="25"/>
     </row>
-    <row r="165" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="4">
-        <v>44037.54791666667</v>
+        <v>44045.950694444444</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -7555,32 +7653,32 @@
         <v>1</v>
       </c>
       <c r="H165" s="3"/>
-      <c r="I165" s="2" t="s">
-        <v>377</v>
+      <c r="I165" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L165" s="25"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B166" s="4">
-        <v>44037.48541666667</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="3">
@@ -7588,10 +7686,10 @@
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>21</v>
@@ -7603,16 +7701,16 @@
         <v>11</v>
       </c>
       <c r="B167" s="4">
-        <v>44036.708333333336</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="3">
@@ -7620,31 +7718,31 @@
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L167" s="25"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="4">
-        <v>44030.311805555553</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="3">
@@ -7652,33 +7750,31 @@
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L168" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L168" s="25"/>
+    </row>
+    <row r="169" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="4">
-        <v>44030.288194444445</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="3">
@@ -7686,7 +7782,7 @@
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>21</v>
@@ -7696,21 +7792,21 @@
       </c>
       <c r="L169" s="25"/>
     </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="4">
-        <v>44030.259027777778</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="3">
@@ -7718,13 +7814,13 @@
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="2" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L170" s="25"/>
     </row>
@@ -7733,13 +7829,13 @@
         <v>11</v>
       </c>
       <c r="B171" s="4">
-        <v>44028.379861111112</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -7750,31 +7846,31 @@
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="2" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="L171" s="25"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="4">
-        <v>44028.377083333333</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="3">
@@ -7782,13 +7878,13 @@
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="2" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L172" s="25"/>
     </row>
@@ -7797,13 +7893,13 @@
         <v>11</v>
       </c>
       <c r="B173" s="4">
-        <v>44027.884027777778</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -7814,7 +7910,7 @@
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="2" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>21</v>
@@ -7824,21 +7920,21 @@
       </c>
       <c r="L173" s="25"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="4">
-        <v>44026.883333333331</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="3">
@@ -7846,31 +7942,31 @@
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L174" s="25"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="4">
-        <v>44025.490972222222</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="3">
@@ -7878,7 +7974,7 @@
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>21</v>
@@ -7886,23 +7982,25 @@
       <c r="K175" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L175" s="25"/>
+      <c r="L175" s="25" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="176" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="4">
-        <v>44025.15347222222</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="3">
@@ -7910,13 +8008,13 @@
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L176" s="25"/>
     </row>
@@ -7925,16 +8023,16 @@
         <v>11</v>
       </c>
       <c r="B177" s="4">
-        <v>44019.426388888889</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="3">
@@ -7942,28 +8040,28 @@
       </c>
       <c r="H177" s="3"/>
       <c r="I177" s="2" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L177" s="25"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="4">
-        <v>44019.088194444441</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -7974,7 +8072,7 @@
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>21</v>
@@ -7984,21 +8082,21 @@
       </c>
       <c r="L178" s="25"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B179" s="4">
-        <v>44018.056250000001</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="3">
@@ -8006,7 +8104,7 @@
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>21</v>
@@ -8016,18 +8114,18 @@
       </c>
       <c r="L179" s="25"/>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B180" s="4">
-        <v>44017.363888888889</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -8038,7 +8136,7 @@
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="2" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>21</v>
@@ -8053,16 +8151,16 @@
         <v>11</v>
       </c>
       <c r="B181" s="4">
-        <v>44017.333333333336</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="3">
@@ -8070,7 +8168,7 @@
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>21</v>
@@ -8080,21 +8178,21 @@
       </c>
       <c r="L181" s="25"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="4">
-        <v>44016.859722222223</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="3">
@@ -8102,7 +8200,7 @@
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>21</v>
@@ -8117,13 +8215,13 @@
         <v>11</v>
       </c>
       <c r="B183" s="4">
-        <v>44012.827777777777</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -8134,31 +8232,31 @@
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="2" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="4">
-        <v>44008</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="3">
@@ -8166,28 +8264,28 @@
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="2" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L184" s="25"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="4">
-        <v>43995.52847222222</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -8198,28 +8296,28 @@
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L185" s="25"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="4">
-        <v>43990.650694444441</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -8230,7 +8328,7 @@
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="2" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>21</v>
@@ -8245,13 +8343,13 @@
         <v>11</v>
       </c>
       <c r="B187" s="4">
-        <v>44012.328472222223</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -8262,7 +8360,7 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>21</v>
@@ -8272,37 +8370,35 @@
       </c>
       <c r="L187" s="25"/>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="4">
-        <v>44058.987500000003</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="F188" s="2"/>
       <c r="G188" s="3">
         <v>1</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="2" t="s">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L188" s="25"/>
     </row>
@@ -8311,16 +8407,16 @@
         <v>11</v>
       </c>
       <c r="B189" s="4">
-        <v>43990.670138888891</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="3">
@@ -8328,13 +8424,13 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="2" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L189" s="25"/>
     </row>
@@ -8343,16 +8439,16 @@
         <v>11</v>
       </c>
       <c r="B190" s="4">
-        <v>43983.301388888889</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="3">
@@ -8360,7 +8456,7 @@
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="2" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>21</v>
@@ -8370,21 +8466,21 @@
       </c>
       <c r="L190" s="25"/>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B191" s="4">
-        <v>43982.572222222225</v>
+        <v>44008</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="3">
@@ -8392,31 +8488,31 @@
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="2" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L191" s="25"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="4">
-        <v>43982.536805555559</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="3">
@@ -8424,7 +8520,7 @@
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="2" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>21</v>
@@ -8434,21 +8530,21 @@
       </c>
       <c r="L192" s="25"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="4">
-        <v>43982.416666666664</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="3">
@@ -8456,28 +8552,28 @@
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="2" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L193" s="25"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="4">
-        <v>43982.368055555555</v>
+        <v>44012.328472222223</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -8488,13 +8584,13 @@
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="2" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L194" s="25"/>
     </row>
@@ -8503,27 +8599,29 @@
         <v>11</v>
       </c>
       <c r="B195" s="4">
-        <v>43976.984027777777</v>
+        <v>44058.987500000003</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>258</v>
+        <v>415</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F195" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G195" s="3">
         <v>1</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="2" t="s">
-        <v>257</v>
+        <v>414</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>21</v>
@@ -8535,16 +8633,16 @@
         <v>11</v>
       </c>
       <c r="B196" s="4">
-        <v>43976.3</v>
+        <v>43990.670138888891</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="3">
@@ -8552,13 +8650,13 @@
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="2" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L196" s="25"/>
     </row>
@@ -8567,16 +8665,16 @@
         <v>11</v>
       </c>
       <c r="B197" s="4">
-        <v>43976.279861111114</v>
+        <v>43983.301388888889</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="3">
@@ -8584,7 +8682,7 @@
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="2" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>21</v>
@@ -8594,21 +8692,21 @@
       </c>
       <c r="L197" s="25"/>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="4">
-        <v>43976.130555555559</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="3">
@@ -8616,7 +8714,7 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="2" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>21</v>
@@ -8626,21 +8724,21 @@
       </c>
       <c r="L198" s="25"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B199" s="4">
-        <v>43962.618055555555</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="3">
@@ -8648,31 +8746,31 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="2" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K199" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K199" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L199" s="25"/>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B200" s="4">
-        <v>43962.611111111109</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="3">
@@ -8680,26 +8778,28 @@
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L200" s="25"/>
+    </row>
+    <row r="201" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B201" s="4">
-        <v>43969.09375</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -8710,28 +8810,28 @@
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="2" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L201" s="25"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="4">
-        <v>43954</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>15</v>
@@ -8742,41 +8842,39 @@
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="2" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L202" s="25"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B203" s="4">
-        <v>44064.506249999999</v>
+        <v>43976.3</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F203" s="2"/>
       <c r="G203" s="3">
         <v>1</v>
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="2" t="s">
-        <v>421</v>
+        <v>253</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>21</v>
@@ -8786,29 +8884,29 @@
       </c>
       <c r="L203" s="25"/>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B204" s="4">
-        <v>43959</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="3">
         <v>1</v>
       </c>
       <c r="H204" s="3"/>
-      <c r="I204" s="6" t="s">
-        <v>228</v>
+      <c r="I204" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>21</v>
@@ -8818,18 +8916,18 @@
       </c>
       <c r="L204" s="25"/>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="4">
-        <v>43948</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -8840,254 +8938,254 @@
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L205" s="25"/>
+    </row>
+    <row r="206" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="4">
+        <v>43962.618055555555</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="3">
+        <v>1</v>
+      </c>
+      <c r="H206" s="3"/>
+      <c r="I206" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" s="25"/>
+    </row>
+    <row r="207" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" s="4">
+        <v>43962.611111111109</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H207" s="3"/>
+      <c r="I207" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="4">
+        <v>43969.09375</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" s="3">
+        <v>1</v>
+      </c>
+      <c r="H208" s="3"/>
+      <c r="I208" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L208" s="25"/>
+    </row>
+    <row r="209" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H209" s="3"/>
+      <c r="I209" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L209" s="25"/>
+    </row>
+    <row r="210" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" s="4">
+        <v>44064.506249999999</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1</v>
+      </c>
+      <c r="H210" s="3"/>
+      <c r="I210" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L210" s="25"/>
+    </row>
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L211" s="25"/>
+    </row>
+    <row r="212" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H212" s="3"/>
+      <c r="I212" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L205" s="25" t="s">
+      <c r="J212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L212" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" s="9">
+    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="9">
         <v>43933</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F206" s="7"/>
-      <c r="G206" s="8">
-        <v>1</v>
-      </c>
-      <c r="H206" s="8"/>
-      <c r="I206" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J206" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L206" s="26"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B207" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="8">
-        <v>1</v>
-      </c>
-      <c r="H207" s="8"/>
-      <c r="I207" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J207" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K207" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L207" s="26"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B208" s="12">
-        <v>43963.240277777775</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="10"/>
-      <c r="G208" s="11">
-        <v>1</v>
-      </c>
-      <c r="H208" s="11"/>
-      <c r="I208" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K208" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L208" s="26"/>
-    </row>
-    <row r="209" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A209" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B209" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F209" s="7"/>
-      <c r="G209" s="8">
-        <v>1</v>
-      </c>
-      <c r="H209" s="8"/>
-      <c r="I209" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K209" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L209" s="26"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="9">
-        <v>43893</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F210" s="7"/>
-      <c r="G210" s="8">
-        <v>1</v>
-      </c>
-      <c r="H210" s="8"/>
-      <c r="I210" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J210" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K210" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L210" s="26"/>
-    </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" s="9">
-        <v>43920</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F211" s="7"/>
-      <c r="G211" s="8">
-        <v>1</v>
-      </c>
-      <c r="H211" s="8"/>
-      <c r="I211" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J211" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K211" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L211" s="26"/>
-    </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" s="9">
-        <v>43911</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" s="7"/>
-      <c r="G212" s="8">
-        <v>1</v>
-      </c>
-      <c r="H212" s="8"/>
-      <c r="I212" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J212" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K212" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L212" s="26"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="9">
-        <v>43903</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>23</v>
@@ -9098,7 +9196,7 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J213" s="7" t="s">
         <v>21</v>
@@ -9108,18 +9206,18 @@
       </c>
       <c r="L213" s="26"/>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B214" s="9">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>15</v>
@@ -9130,63 +9228,63 @@
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J214" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L214" s="26"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" s="9">
-        <v>43901</v>
+      <c r="A215" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="12">
+        <v>43963.240277777775</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" s="7"/>
-      <c r="G215" s="8">
-        <v>1</v>
-      </c>
-      <c r="H215" s="8"/>
-      <c r="I215" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J215" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="10"/>
+      <c r="G215" s="11">
+        <v>1</v>
+      </c>
+      <c r="H215" s="11"/>
+      <c r="I215" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J215" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="L215" s="26"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B216" s="9">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="8">
@@ -9194,13 +9292,13 @@
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="7" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K216" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L216" s="26"/>
     </row>
@@ -9209,16 +9307,16 @@
         <v>11</v>
       </c>
       <c r="B217" s="9">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="8">
@@ -9226,31 +9324,31 @@
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L217" s="26"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B218" s="9">
-        <v>43901</v>
+        <v>43920</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="8">
@@ -9258,7 +9356,7 @@
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>21</v>
@@ -9268,21 +9366,21 @@
       </c>
       <c r="L218" s="26"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B219" s="9">
-        <v>43898</v>
+        <v>43911</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="8">
@@ -9290,7 +9388,7 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>21</v>
@@ -9300,21 +9398,21 @@
       </c>
       <c r="L219" s="26"/>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B220" s="9">
-        <v>43898</v>
+        <v>43903</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="8">
@@ -9322,7 +9420,7 @@
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="J220" s="7" t="s">
         <v>21</v>
@@ -9337,16 +9435,16 @@
         <v>11</v>
       </c>
       <c r="B221" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="8">
@@ -9354,7 +9452,7 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>21</v>
@@ -9364,18 +9462,18 @@
       </c>
       <c r="L221" s="26"/>
     </row>
-    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B222" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>8</v>
@@ -9386,7 +9484,7 @@
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="J222" s="7" t="s">
         <v>21</v>
@@ -9396,21 +9494,21 @@
       </c>
       <c r="L222" s="26"/>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B223" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="8">
@@ -9418,7 +9516,7 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>21</v>
@@ -9428,21 +9526,21 @@
       </c>
       <c r="L223" s="26"/>
     </row>
-    <row r="224" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B224" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="8">
@@ -9450,7 +9548,7 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>21</v>
@@ -9460,18 +9558,18 @@
       </c>
       <c r="L224" s="26"/>
     </row>
-    <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B225" s="9">
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>8</v>
@@ -9482,7 +9580,7 @@
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>21</v>
@@ -9492,21 +9590,21 @@
       </c>
       <c r="L225" s="26"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B226" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="8">
@@ -9514,7 +9612,7 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>21</v>
@@ -9524,21 +9622,21 @@
       </c>
       <c r="L226" s="26"/>
     </row>
-    <row r="227" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B227" s="9">
-        <v>43887</v>
+        <v>43898</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="8">
@@ -9546,61 +9644,63 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="7" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L227" s="26"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B228" s="9">
-        <v>43885</v>
+        <v>43898</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F228" s="7"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="11"/>
+      <c r="G228" s="8">
+        <v>1</v>
+      </c>
+      <c r="H228" s="8"/>
       <c r="I228" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="L228" s="26"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B229" s="9">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="8">
@@ -9608,7 +9708,7 @@
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>21</v>
@@ -9623,221 +9723,219 @@
         <v>11</v>
       </c>
       <c r="B230" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="7"/>
+      <c r="G230" s="8">
+        <v>1</v>
+      </c>
+      <c r="H230" s="8"/>
+      <c r="I230" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J230" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K230" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L230" s="26"/>
+    </row>
+    <row r="231" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F231" s="7"/>
+      <c r="G231" s="8">
+        <v>1</v>
+      </c>
+      <c r="H231" s="8"/>
+      <c r="I231" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K231" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L231" s="26"/>
+    </row>
+    <row r="232" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="7"/>
+      <c r="G232" s="8">
+        <v>1</v>
+      </c>
+      <c r="H232" s="8"/>
+      <c r="I232" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J232" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K232" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L232" s="26"/>
+    </row>
+    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F233" s="7"/>
+      <c r="G233" s="8">
+        <v>1</v>
+      </c>
+      <c r="H233" s="8"/>
+      <c r="I233" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J233" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K233" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L233" s="26"/>
+    </row>
+    <row r="234" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="7"/>
+      <c r="G234" s="8">
+        <v>1</v>
+      </c>
+      <c r="H234" s="8"/>
+      <c r="I234" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J234" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K234" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L234" s="26"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J235" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K235" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L235" s="26"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="9">
         <v>43883</v>
       </c>
-      <c r="C230" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F230" s="10"/>
-      <c r="G230" s="11">
-        <v>1</v>
-      </c>
-      <c r="H230" s="11"/>
-      <c r="I230" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J230" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K230" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L230" s="26"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E231" s="10" t="s">
+      <c r="C236" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E236" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F231" s="10"/>
-      <c r="G231" s="11">
-        <v>1</v>
-      </c>
-      <c r="H231" s="11"/>
-      <c r="I231" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K231" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L231" s="26"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D232" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E232" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F232" s="10"/>
-      <c r="G232" s="11">
-        <v>1</v>
-      </c>
-      <c r="H232" s="11"/>
-      <c r="I232" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J232" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K232" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L232" s="26"/>
-    </row>
-    <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E233" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F233" s="10"/>
-      <c r="G233" s="11">
-        <v>1</v>
-      </c>
-      <c r="H233" s="11"/>
-      <c r="I233" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J233" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K233" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L233" s="26"/>
-    </row>
-    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B234" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F234" s="10"/>
-      <c r="G234" s="11">
-        <v>1</v>
-      </c>
-      <c r="H234" s="11"/>
-      <c r="I234" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J234" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K234" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L234" s="26"/>
-    </row>
-    <row r="235" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B235" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="10"/>
-      <c r="G235" s="11">
-        <v>1</v>
-      </c>
-      <c r="H235" s="11"/>
-      <c r="I235" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L235" s="26"/>
-    </row>
-    <row r="236" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B236" s="12">
-        <v>43877</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F236" s="10"/>
-      <c r="G236" s="11">
-        <v>1</v>
-      </c>
-      <c r="H236" s="11"/>
-      <c r="I236" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J236" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K236" s="10" t="s">
+      <c r="F236" s="7"/>
+      <c r="G236" s="8">
+        <v>1</v>
+      </c>
+      <c r="H236" s="8"/>
+      <c r="I236" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J236" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K236" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L236" s="26"/>
@@ -9846,81 +9944,81 @@
       <c r="A237" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B237" s="12">
-        <v>43877</v>
+      <c r="B237" s="9">
+        <v>43883</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F237" s="10"/>
       <c r="G237" s="11">
         <v>1</v>
       </c>
       <c r="H237" s="11"/>
-      <c r="I237" s="14" t="s">
-        <v>203</v>
+      <c r="I237" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K237" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L237" s="26"/>
     </row>
-    <row r="238" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="12">
-        <v>43874</v>
+      <c r="B238" s="9">
+        <v>43883</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F238" s="10"/>
       <c r="G238" s="11">
         <v>1</v>
       </c>
       <c r="H238" s="11"/>
-      <c r="I238" s="13" t="s">
-        <v>202</v>
+      <c r="I238" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="J238" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K238" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L238" s="26"/>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="12">
-        <v>43872</v>
+        <v>43881</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F239" s="10"/>
       <c r="G239" s="11">
@@ -9928,60 +10026,60 @@
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="10" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J239" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K239" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L239" s="26"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F240" s="7"/>
-      <c r="G240" s="8">
-        <v>1</v>
-      </c>
-      <c r="H240" s="8"/>
-      <c r="I240" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J240" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K240" s="7" t="s">
-        <v>21</v>
+      <c r="B240" s="12">
+        <v>43881</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="11">
+        <v>1</v>
+      </c>
+      <c r="H240" s="11"/>
+      <c r="I240" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J240" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K240" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="L240" s="26"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B241" s="12">
-        <v>43869</v>
+        <v>43878</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>8</v>
@@ -9992,39 +10090,39 @@
       </c>
       <c r="H241" s="11"/>
       <c r="I241" s="10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J241" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K241" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L241" s="26"/>
     </row>
-    <row r="242" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B242" s="12">
-        <v>43870</v>
+        <v>43878</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F242" s="10"/>
       <c r="G242" s="11">
         <v>1</v>
       </c>
       <c r="H242" s="11"/>
-      <c r="I242" s="10" t="s">
-        <v>199</v>
+      <c r="I242" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="J242" s="10" t="s">
         <v>21</v>
@@ -10034,21 +10132,21 @@
       </c>
       <c r="L242" s="26"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B243" s="12">
-        <v>43869</v>
+        <v>43877</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11">
@@ -10056,13 +10154,13 @@
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="10" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="J243" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="K243" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="L243" s="26"/>
     </row>
@@ -10071,80 +10169,80 @@
         <v>11</v>
       </c>
       <c r="B244" s="12">
-        <v>43869</v>
+        <v>43877</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="11">
         <v>1</v>
       </c>
       <c r="H244" s="11"/>
-      <c r="I244" s="10" t="s">
-        <v>198</v>
+      <c r="I244" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="J244" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K244" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L244" s="26"/>
     </row>
-    <row r="245" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B245" s="12">
-        <v>43869</v>
+        <v>43874</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F245" s="10"/>
       <c r="G245" s="11">
         <v>1</v>
       </c>
       <c r="H245" s="11"/>
-      <c r="I245" s="10" t="s">
-        <v>84</v>
+      <c r="I245" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K245" s="10" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L245" s="26"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B246" s="12">
-        <v>43865</v>
+        <v>43872</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F246" s="10"/>
       <c r="G246" s="11">
@@ -10152,13 +10250,13 @@
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J246" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K246" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L246" s="26"/>
     </row>
@@ -10166,46 +10264,46 @@
       <c r="A247" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="12">
-        <v>43858</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E247" s="10" t="s">
+      <c r="B247" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E247" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F247" s="10"/>
-      <c r="G247" s="11">
-        <v>1</v>
-      </c>
-      <c r="H247" s="11"/>
-      <c r="I247" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K247" s="10" t="s">
-        <v>26</v>
+      <c r="F247" s="7"/>
+      <c r="G247" s="8">
+        <v>1</v>
+      </c>
+      <c r="H247" s="8"/>
+      <c r="I247" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J247" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L247" s="26"/>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B248" s="12">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>8</v>
@@ -10216,28 +10314,28 @@
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K248" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L248" s="26"/>
     </row>
-    <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B249" s="12">
-        <v>43855</v>
+        <v>43870</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>15</v>
@@ -10247,14 +10345,14 @@
         <v>1</v>
       </c>
       <c r="H249" s="11"/>
-      <c r="I249" s="15" t="s">
-        <v>196</v>
+      <c r="I249" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="J249" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K249" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L249" s="26"/>
     </row>
@@ -10263,25 +10361,31 @@
         <v>11</v>
       </c>
       <c r="B250" s="12">
-        <v>43856</v>
+        <v>43869</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F250" s="10"/>
       <c r="G250" s="11">
         <v>1</v>
       </c>
-      <c r="H250" s="29"/>
-      <c r="I250" s="16"/>
-      <c r="J250" s="10"/>
-      <c r="K250" s="10"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K250" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L250" s="26"/>
     </row>
     <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10289,16 +10393,16 @@
         <v>11</v>
       </c>
       <c r="B251" s="12">
-        <v>43855</v>
+        <v>43869</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F251" s="10"/>
       <c r="G251" s="11">
@@ -10306,31 +10410,31 @@
       </c>
       <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="J251" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K251" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L251" s="26"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B252" s="12">
-        <v>43854</v>
+        <v>43869</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F252" s="10"/>
       <c r="G252" s="11">
@@ -10338,35 +10442,39 @@
       </c>
       <c r="H252" s="11"/>
       <c r="I252" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J252" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K252" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L252" s="26"/>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B253" s="12">
-        <v>43854</v>
+        <v>43865</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D253" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E253" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F253" s="10"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="11">
+        <v>1</v>
+      </c>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="J253" s="10" t="s">
         <v>21</v>
@@ -10376,31 +10484,29 @@
       </c>
       <c r="L253" s="26"/>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D254" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E254" s="7" t="s">
+      <c r="B254" s="12">
+        <v>43858</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E254" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F254" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G254" s="8">
-        <v>1</v>
-      </c>
-      <c r="H254" s="8"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="11">
+        <v>1</v>
+      </c>
+      <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="J254" s="10" t="s">
         <v>21</v>
@@ -10410,27 +10516,29 @@
       </c>
       <c r="L254" s="26"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B255" s="12">
-        <v>43853</v>
+        <v>43858</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F255" s="10"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="11">
+        <v>1</v>
+      </c>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J255" s="10" t="s">
         <v>21</v>
@@ -10440,165 +10548,181 @@
       </c>
       <c r="L255" s="26"/>
     </row>
-    <row r="256" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B256" s="12">
-        <v>43853</v>
+        <v>43855</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F256" s="10"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="11">
+        <v>1</v>
+      </c>
       <c r="H256" s="11"/>
-      <c r="I256" s="10" t="s">
-        <v>51</v>
+      <c r="I256" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="J256" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K256" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L256" s="26"/>
     </row>
-    <row r="257" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B257" s="12">
-        <v>43851</v>
+        <v>43856</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F257" s="10"/>
-      <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
-      <c r="I257" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="G257" s="11">
+        <v>1</v>
+      </c>
+      <c r="H257" s="29"/>
+      <c r="I257" s="16"/>
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
       <c r="L257" s="26"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B258" s="12">
-        <v>43849</v>
+        <v>43855</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F258" s="10"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="11">
+        <v>1</v>
+      </c>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J258" s="10"/>
-      <c r="K258" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="J258" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K258" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L258" s="26"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B259" s="12">
-        <v>43848</v>
+        <v>43854</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F259" s="10"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="11">
+        <v>1</v>
+      </c>
       <c r="H259" s="11"/>
       <c r="I259" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="J259" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K259" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L259" s="26"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="10" t="s">
+    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B260" s="12">
-        <v>43848</v>
+        <v>43854</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
       <c r="I260" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J260" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K260" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L260" s="26"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B261" s="12">
-        <v>43847</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F261" s="10"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
+    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G261" s="8">
+        <v>1</v>
+      </c>
+      <c r="H261" s="8"/>
       <c r="I261" s="10" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="J261" s="10" t="s">
         <v>21</v>
@@ -10608,27 +10732,27 @@
       </c>
       <c r="L261" s="26"/>
     </row>
-    <row r="262" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B262" s="12">
-        <v>43846</v>
+        <v>43853</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F262" s="10"/>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
       <c r="I262" s="10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J262" s="10" t="s">
         <v>21</v>
@@ -10638,122 +10762,112 @@
       </c>
       <c r="L262" s="26"/>
     </row>
-    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="10" t="s">
+    <row r="263" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B263" s="12">
-        <v>43835</v>
+        <v>43853</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F263" s="10"/>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
       <c r="I263" s="10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J263" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K263" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L263" s="26"/>
     </row>
-    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
+    <row r="264" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B264" s="12">
-        <v>43835</v>
+        <v>43851</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F264" s="10"/>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J264" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K264" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
       <c r="L264" s="26"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
+      <c r="A265" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B265" s="12">
-        <v>43842</v>
+        <v>43849</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F265" s="10"/>
       <c r="G265" s="11"/>
-      <c r="H265" s="29"/>
-      <c r="I265" s="16" t="s">
-        <v>17</v>
+      <c r="H265" s="11"/>
+      <c r="I265" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
       <c r="L265" s="26"/>
     </row>
-    <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B266" s="12">
-        <v>43857</v>
+        <v>43848</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F266" s="10"/>
-      <c r="G266" s="11">
-        <v>1</v>
-      </c>
+      <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J266" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K266" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
       <c r="L266" s="26"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -10761,25 +10875,29 @@
         <v>11</v>
       </c>
       <c r="B267" s="12">
-        <v>43841</v>
+        <v>43848</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F267" s="10"/>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="J267" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K267" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L267" s="26"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -10787,47 +10905,251 @@
         <v>11</v>
       </c>
       <c r="B268" s="12">
-        <v>43751</v>
+        <v>43847</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F268" s="10"/>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J268" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K268" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L268" s="26"/>
+    </row>
+    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" s="12">
+        <v>43846</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F269" s="10"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J269" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K269" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L269" s="26"/>
+    </row>
+    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" s="12">
+        <v>43835</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270" s="10"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J270" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K270" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L270" s="26"/>
+    </row>
+    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="12">
+        <v>43835</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" s="10"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J271" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K271" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L271" s="26"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" s="12">
+        <v>43842</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="10"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="26"/>
+    </row>
+    <row r="273" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" s="12">
+        <v>43857</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="10"/>
+      <c r="G273" s="11">
+        <v>1</v>
+      </c>
+      <c r="H273" s="11"/>
+      <c r="I273" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J273" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K273" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L273" s="26"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="12">
+        <v>43841</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" s="10"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="26"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" s="12">
+        <v>43751</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="10"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
-      <c r="L268" s="26"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="17"/>
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="17"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="17"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="26"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="17"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="18"/>
+      <c r="H276" s="18"/>
+      <c r="I276" s="17"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L269"/>
+  <autoFilter ref="A1:L276"/>
   <sortState ref="A97:K98">
     <sortCondition descending="1" ref="C97:C98"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A47 A116:A268 A94:A113 A49:A92">
+  <conditionalFormatting sqref="A2:A47 A123:A275 A49:A93 A95:A120">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -10838,12 +11160,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B47 B116:B268 B94:B114 B49:B92">
+  <conditionalFormatting sqref="B2:B47 B123:B275 B49:B93 B95:B121">
     <cfRule type="expression" dxfId="39" priority="48">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E47 E94:E268 E49:E92">
+  <conditionalFormatting sqref="E2:E47 E49:E93 E95:E275">
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -10860,7 +11182,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F47 F94:F268 F49:F92">
+  <conditionalFormatting sqref="F2:F47 F49:F93 F95:F275">
     <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -10921,78 +11243,78 @@
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="A121">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A114))=0</formula>
+      <formula>LEN(TRIM(A121))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
+  <conditionalFormatting sqref="B122">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND($A115 = "Done", ISBLANK($B115))</formula>
+      <formula>AND($A122 = "Done", ISBLANK($B122))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A122">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>LEN(TRIM(A115))=0</formula>
+      <formula>LEN(TRIM(A122))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A94">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A93))=0</formula>
+      <formula>LEN(TRIM(A94))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B94">
     <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($A93 = "Done", ISBLANK($B93))</formula>
+      <formula>AND($A94 = "Done", ISBLANK($B94))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E94">
     <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$E93="Improv"</formula>
+      <formula>$E94="Improv"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>$E93="Feat"</formula>
+      <formula>$E94="Feat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>$E93="Design"</formula>
+      <formula>$E94="Design"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>$E93="Bug"</formula>
+      <formula>$E94="Bug"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="F94">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$F93="High"</formula>
+      <formula>$F94="High"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$F93="Medium"</formula>
+      <formula>$F94="Medium"</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(F93))=0</formula>
+      <formula>LEN(TRIM(F94))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -1,46 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RJ\Personal Files\Projects\Dribbly\Dribbly.WebClient\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RJ\Documents\Projects\Personal\Dribbly\Dribbly.WebClient\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD63436-5658-4B9F-83BC-48D865782F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="8025"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$281</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>RJ Pablo</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="686">
   <si>
     <t>Task ID</t>
   </si>
@@ -2317,11 +2310,50 @@
   <si>
     <t>As a game creator, I should be able to modify the status of a finished game</t>
   </si>
+  <si>
+    <t>Facebook login is not working</t>
+  </si>
+  <si>
+    <t>WEB-0189</t>
+  </si>
+  <si>
+    <t>WEB-0190</t>
+  </si>
+  <si>
+    <t>Upgrade Web Client to AspNetCore 3.1</t>
+  </si>
+  <si>
+    <t>setup: WEB0189 - Upgrade Web Client to AspNetCore 3.1</t>
+  </si>
+  <si>
+    <t>fix: WEB0190 - fix Facebook login functionality</t>
+  </si>
+  <si>
+    <t>When an error occurs in the server, do not return sensitive data about the error to the client (i.e. log error in the server and then return a friendly data to the client. Also include data that can be used to trace the error log created in the server)</t>
+  </si>
+  <si>
+    <t>Google map functionalities are not working</t>
+  </si>
+  <si>
+    <t>fix: WEB-0190 - update google Map API key</t>
+  </si>
+  <si>
+    <t>WEB-0191</t>
+  </si>
+  <si>
+    <t>WEB-0192</t>
+  </si>
+  <si>
+    <t>Add dbo._DevHelpers_SP_DeleteUserByUserName</t>
+  </si>
+  <si>
+    <t>setup: WEB-0192 - dbo._DevHelpers_SP_DeleteUserByUserName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -3260,31 +3292,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="1"/>
     <col min="7" max="8" width="10" style="19" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="38.7109375" style="27" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="58.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="38.6640625" style="27" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3354,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
@@ -3336,7 +3368,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
@@ -3356,7 +3388,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
@@ -3378,7 +3410,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -3400,7 +3432,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
@@ -3422,7 +3454,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
@@ -3446,7 +3478,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -3470,7 +3502,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
@@ -3494,7 +3526,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -3516,7 +3548,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="7" t="s">
@@ -3540,7 +3572,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -3562,7 +3594,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -3584,7 +3616,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -3606,7 +3638,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -3628,7 +3660,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
@@ -3652,7 +3684,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -3674,7 +3706,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
@@ -3696,7 +3728,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -3718,7 +3750,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -3740,7 +3772,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -3762,7 +3794,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -3784,7 +3816,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -3806,7 +3838,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -3828,7 +3860,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -3850,7 +3882,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -3872,7 +3904,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
@@ -3896,7 +3928,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="7" t="s">
@@ -3920,7 +3952,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
@@ -3944,7 +3976,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -3966,7 +3998,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -3988,7 +4020,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
@@ -4010,7 +4042,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -4032,7 +4064,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
@@ -4054,7 +4086,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
@@ -4076,7 +4108,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
@@ -4098,7 +4130,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
@@ -4120,7 +4152,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
@@ -4142,7 +4174,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
@@ -4164,7 +4196,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="2"/>
@@ -4186,7 +4218,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
@@ -4208,7 +4240,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
@@ -4230,7 +4262,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -4252,7 +4284,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
@@ -4274,7 +4306,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -4296,7 +4328,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
@@ -4318,7 +4350,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
@@ -4340,7 +4372,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -4362,7 +4394,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
@@ -4384,7 +4416,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
@@ -4406,7 +4438,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
@@ -4428,7 +4460,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
@@ -4450,7 +4482,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
@@ -4472,7 +4504,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="2"/>
@@ -4494,7 +4526,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="2"/>
@@ -4516,7 +4548,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -4538,12 +4570,12 @@
       <c r="K56" s="2"/>
       <c r="L56" s="25"/>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -4560,32 +4592,34 @@
       <c r="K57" s="2"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>37</v>
@@ -4593,24 +4627,22 @@
       <c r="F59" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>405</v>
@@ -4624,12 +4656,12 @@
       <c r="K60" s="2"/>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -4646,15 +4678,15 @@
       <c r="K61" s="2"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>405</v>
@@ -4668,15 +4700,15 @@
       <c r="K62" s="2"/>
       <c r="L62" s="25"/>
     </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>405</v>
@@ -4690,15 +4722,15 @@
       <c r="K63" s="2"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>405</v>
@@ -4712,12 +4744,12 @@
       <c r="K64" s="2"/>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4734,12 +4766,12 @@
       <c r="K65" s="2"/>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4756,14 +4788,12 @@
       <c r="K66" s="2"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4780,14 +4810,14 @@
       <c r="K67" s="2"/>
       <c r="L67" s="25"/>
     </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4804,14 +4834,14 @@
       <c r="K68" s="2"/>
       <c r="L68" s="25"/>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4828,61 +4858,63 @@
       <c r="K69" s="2"/>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="7" t="s">
+    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G70" s="8">
-        <v>1</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="26"/>
-    </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="25"/>
-    </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="26"/>
+    </row>
+    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>405</v>
@@ -4896,12 +4928,12 @@
       <c r="K72" s="2"/>
       <c r="L72" s="25"/>
     </row>
-    <row r="73" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4918,12 +4950,12 @@
       <c r="K73" s="2"/>
       <c r="L73" s="25"/>
     </row>
-    <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4940,12 +4972,12 @@
       <c r="K74" s="2"/>
       <c r="L74" s="25"/>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4962,12 +4994,12 @@
       <c r="K75" s="2"/>
       <c r="L75" s="25"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4984,12 +5016,12 @@
       <c r="K76" s="2"/>
       <c r="L76" s="25"/>
     </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5006,17 +5038,15 @@
       <c r="K77" s="2"/>
       <c r="L77" s="25"/>
     </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>280</v>
+        <v>483</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>405</v>
@@ -5030,15 +5060,17 @@
       <c r="K78" s="2"/>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>405</v>
@@ -5046,23 +5078,21 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="H79" s="3"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="25"/>
     </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>405</v>
@@ -5070,24 +5100,26 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="25"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5098,18 +5130,18 @@
       <c r="K81" s="2"/>
       <c r="L81" s="25"/>
     </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5120,18 +5152,18 @@
       <c r="K82" s="2"/>
       <c r="L82" s="25"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -5142,20 +5174,18 @@
       <c r="K83" s="2"/>
       <c r="L83" s="25"/>
     </row>
-    <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>284</v>
+        <v>572</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -5166,12 +5196,14 @@
       <c r="K84" s="2"/>
       <c r="L84" s="25"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>433</v>
+        <v>284</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5188,18 +5220,18 @@
       <c r="K85" s="2"/>
       <c r="L85" s="25"/>
     </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5210,12 +5242,12 @@
       <c r="K86" s="2"/>
       <c r="L86" s="25"/>
     </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>37</v>
@@ -5232,18 +5264,18 @@
       <c r="K87" s="2"/>
       <c r="L87" s="25"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -5254,15 +5286,15 @@
       <c r="K88" s="2"/>
       <c r="L88" s="25"/>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>405</v>
@@ -5276,15 +5308,15 @@
       <c r="K89" s="2"/>
       <c r="L89" s="25"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>405</v>
@@ -5298,15 +5330,15 @@
       <c r="K90" s="2"/>
       <c r="L90" s="25"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>405</v>
@@ -5320,12 +5352,12 @@
       <c r="K91" s="2"/>
       <c r="L91" s="25"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>37</v>
@@ -5342,15 +5374,15 @@
       <c r="K92" s="2"/>
       <c r="L92" s="25"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>405</v>
@@ -5364,12 +5396,12 @@
       <c r="K93" s="2"/>
       <c r="L93" s="25"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5386,12 +5418,12 @@
       <c r="K94" s="2"/>
       <c r="L94" s="25"/>
     </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5408,18 +5440,18 @@
       <c r="K95" s="2"/>
       <c r="L95" s="25"/>
     </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -5430,18 +5462,18 @@
       <c r="K96" s="2"/>
       <c r="L96" s="25"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5452,12 +5484,12 @@
       <c r="K97" s="2"/>
       <c r="L97" s="25"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>37</v>
@@ -5474,15 +5506,15 @@
       <c r="K98" s="2"/>
       <c r="L98" s="25"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>405</v>
@@ -5496,12 +5528,12 @@
       <c r="K99" s="2"/>
       <c r="L99" s="25"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -5518,18 +5550,12 @@
       <c r="K100" s="2"/>
       <c r="L100" s="25"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="4">
-        <v>44269.109027777777</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>670</v>
-      </c>
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -5541,108 +5567,104 @@
         <v>1</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="25"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>44245.701388888891</v>
+        <v>44527</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="2" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L102" s="25"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>44234.186805555553</v>
+        <v>44527</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G103" s="3"/>
+        <v>521</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="2" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L103" s="25"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>44227.988194444442</v>
+        <v>44527</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>21</v>
@@ -5652,21 +5674,21 @@
       </c>
       <c r="L104" s="25"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>44225.163888888892</v>
+        <v>44527</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>405</v>
@@ -5676,41 +5698,41 @@
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L105" s="25"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>44213.628472222219</v>
+        <v>44269.109027777777</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>655</v>
+        <v>405</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>21</v>
@@ -5720,18 +5742,18 @@
       </c>
       <c r="L106" s="25"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>44207.481944444444</v>
+        <v>44245.701388888891</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5744,7 +5766,7 @@
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="2" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>21</v>
@@ -5754,51 +5776,53 @@
       </c>
       <c r="L107" s="25"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>44186.161111111112</v>
+        <v>44234.186805555553</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G108" s="3">
-        <v>1</v>
-      </c>
+      <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L108" s="25"/>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>44181.324999999997</v>
+        <v>44227.988194444442</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>405</v>
@@ -5808,24 +5832,28 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L109" s="25"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>44180.320833333331</v>
+        <v>44225.163888888892</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -5837,55 +5865,63 @@
         <v>1</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="I110" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="I110" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L110" s="25"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>44170.414583333331</v>
+        <v>44213.628472222219</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L111" s="25"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>44170.393055555556</v>
+        <v>44207.481944444444</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -5896,31 +5932,33 @@
       <c r="G112" s="3">
         <v>1</v>
       </c>
-      <c r="H112" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L112" s="25"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44166.195833333331</v>
+        <v>44186.161111111112</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>405</v>
@@ -5930,27 +5968,27 @@
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="25"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>44165.1875</v>
+        <v>44181.324999999997</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>405</v>
@@ -5960,24 +5998,24 @@
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="25"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>44164.619444444441</v>
+        <v>44180.320833333331</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -5989,28 +6027,28 @@
         <v>1</v>
       </c>
       <c r="H115" s="3"/>
-      <c r="I115" s="2" t="s">
-        <v>625</v>
+      <c r="I115" s="6" t="s">
+        <v>643</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="25"/>
     </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>44164.021527777775</v>
+        <v>44170.414583333331</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>405</v>
@@ -6020,24 +6058,24 @@
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="25"/>
     </row>
-    <row r="117" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>44163.98333333333</v>
+        <v>44170.393055555556</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6048,26 +6086,28 @@
       <c r="G117" s="3">
         <v>1</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="2" t="s">
-        <v>615</v>
+      <c r="H117" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="25"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>44159.308333333334</v>
+        <v>44166.195833333331</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6079,32 +6119,28 @@
         <v>1</v>
       </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I118" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="25"/>
     </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>44158.065972222219</v>
+        <v>44165.1875</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>405</v>
@@ -6114,31 +6150,27 @@
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="25"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>44152.765277777777</v>
+        <v>44164.619444444441</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>405</v>
@@ -6148,62 +6180,54 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="25"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>44151.671527777777</v>
+        <v>44164.021527777775</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
       <c r="L121" s="25"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>44151.671527777777</v>
+        <v>44163.98333333333</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -6216,37 +6240,37 @@
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="25"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>44151.518750000003</v>
+        <v>44159.308333333334</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="3"/>
-      <c r="I123" s="2" t="s">
-        <v>592</v>
+      <c r="I123" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>21</v>
@@ -6256,21 +6280,21 @@
       </c>
       <c r="L123" s="25"/>
     </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>44151.500694444447</v>
+        <v>44158.065972222219</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>405</v>
@@ -6280,7 +6304,7 @@
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="2" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>21</v>
@@ -6290,21 +6314,21 @@
       </c>
       <c r="L124" s="25"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>44150.777083333334</v>
+        <v>44152.765277777777</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>405</v>
@@ -6314,7 +6338,7 @@
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>21</v>
@@ -6324,55 +6348,55 @@
       </c>
       <c r="L125" s="25"/>
     </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>44150.509027777778</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>576</v>
+        <v>444</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L126" s="25"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>44148.320833333331</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>405</v>
@@ -6382,99 +6406,95 @@
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="25"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>44148.290972222225</v>
+        <v>44151.518750000003</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L128" s="25"/>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>44147.695833333331</v>
+        <v>44151.500694444447</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>558</v>
+        <v>405</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="J129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L129" s="25"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>44147.672222222223</v>
+        <v>44150.777083333334</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>405</v>
@@ -6484,41 +6504,41 @@
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="J130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L130" s="25"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>44147.669444444444</v>
+        <v>44150.509027777778</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="6" t="s">
-        <v>556</v>
+      <c r="I131" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>21</v>
@@ -6528,21 +6548,21 @@
       </c>
       <c r="L131" s="25"/>
     </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>44146.38958333333</v>
+        <v>44148.320833333331</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>408</v>
+        <v>569</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>405</v>
@@ -6551,29 +6571,29 @@
         <v>1</v>
       </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="6" t="s">
-        <v>550</v>
+      <c r="I132" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="J132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K132" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L132" s="25"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>44143.157638888886</v>
+        <v>44148.290972222225</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>15</v>
@@ -6586,65 +6606,65 @@
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L133" s="25"/>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>44143.156944444447</v>
+        <v>44147.695833333331</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>405</v>
+        <v>558</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L134" s="25"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>44143.154166666667</v>
+        <v>44147.672222222223</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>405</v>
@@ -6654,31 +6674,31 @@
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L135" s="25"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>44142.606249999997</v>
+        <v>44147.669444444444</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>521</v>
@@ -6687,8 +6707,8 @@
         <v>1</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="2" t="s">
-        <v>525</v>
+      <c r="I136" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>21</v>
@@ -6698,18 +6718,18 @@
       </c>
       <c r="L136" s="25"/>
     </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>44138.168055555558</v>
+        <v>44146.38958333333</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>519</v>
+        <v>408</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -6721,32 +6741,32 @@
         <v>1</v>
       </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="2" t="s">
-        <v>520</v>
+      <c r="I137" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L137" s="25"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>44137.03125</v>
+        <v>44143.157638888886</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>405</v>
@@ -6756,7 +6776,7 @@
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>21</v>
@@ -6766,55 +6786,55 @@
       </c>
       <c r="L138" s="25"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>44136.991666666669</v>
+        <v>44143.156944444447</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L139" s="25"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>44136.385416666664</v>
+        <v>44143.154166666667</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>405</v>
@@ -6824,93 +6844,99 @@
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L140" s="25"/>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>44136.383333333331</v>
+        <v>44142.606249999997</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L141" s="25"/>
     </row>
-    <row r="142" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>44136.277777777781</v>
+        <v>44138.168055555558</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L142" s="25"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>44136.277777777781</v>
+        <v>44137.03125</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>405</v>
@@ -6919,8 +6945,8 @@
         <v>1</v>
       </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="6" t="s">
-        <v>494</v>
+      <c r="I143" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>21</v>
@@ -6930,21 +6956,21 @@
       </c>
       <c r="L143" s="25"/>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>44122.40902777778</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>488</v>
+        <v>44136.991666666669</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>403</v>
@@ -6954,7 +6980,7 @@
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>21</v>
@@ -6964,21 +6990,21 @@
       </c>
       <c r="L144" s="25"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>44122.407638888886</v>
+        <v>44136.385416666664</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>405</v>
@@ -6988,28 +7014,26 @@
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K145" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="K145" s="2"/>
       <c r="L145" s="25"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4">
-        <v>44122.23333333333</v>
+        <v>44136.383333333331</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -7022,31 +7046,31 @@
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L146" s="25"/>
     </row>
-    <row r="147" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B147" s="4">
-        <v>44115</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>403</v>
@@ -7056,75 +7080,71 @@
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
       <c r="L147" s="25"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B148" s="4">
-        <v>44102</v>
+        <v>44136.277777777781</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G148" s="3">
         <v>1</v>
       </c>
       <c r="H148" s="3"/>
-      <c r="I148" s="2" t="s">
-        <v>470</v>
+      <c r="I148" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L148" s="25"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B149" s="4">
-        <v>44102</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>464</v>
+        <v>44122.40902777778</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>21</v>
@@ -7134,31 +7154,31 @@
       </c>
       <c r="L149" s="25"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="4">
-        <v>44094</v>
+        <v>44122.407638888886</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G150" s="3">
         <v>1</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>21</v>
@@ -7168,99 +7188,99 @@
       </c>
       <c r="L150" s="25"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="4">
-        <v>44094</v>
+        <v>44122.23333333333</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G151" s="3">
         <v>1</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L151" s="25"/>
     </row>
-    <row r="152" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="4">
-        <v>44094</v>
+        <v>44115</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L152" s="25"/>
     </row>
-    <row r="153" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>21</v>
@@ -7270,31 +7290,31 @@
       </c>
       <c r="L153" s="25"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G154" s="3">
         <v>1</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>21</v>
@@ -7304,21 +7324,21 @@
       </c>
       <c r="L154" s="25"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="4">
-        <v>44077.746527777781</v>
+        <v>44094</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>403</v>
@@ -7327,42 +7347,42 @@
         <v>1</v>
       </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="6" t="s">
-        <v>451</v>
+      <c r="I155" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L155" s="25"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B156" s="4">
-        <v>44071.106249999997</v>
+        <v>44094</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>21</v>
@@ -7372,61 +7392,65 @@
       </c>
       <c r="L156" s="25"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="4">
-        <v>44069.31527777778</v>
+        <v>44094</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L157" s="25"/>
+    </row>
+    <row r="158" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="4">
+        <v>44094</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G157" s="3">
-        <v>1</v>
-      </c>
-      <c r="H157" s="3"/>
-      <c r="I157" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="25"/>
-    </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="4">
-        <v>44067.693749999999</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>21</v>
@@ -7436,21 +7460,21 @@
       </c>
       <c r="L158" s="25"/>
     </row>
-    <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B159" s="4">
-        <v>44067.618750000001</v>
+        <v>44094</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>403</v>
@@ -7460,7 +7484,7 @@
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>21</v>
@@ -7470,55 +7494,55 @@
       </c>
       <c r="L159" s="25"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="4">
-        <v>44066.393750000003</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3"/>
+      <c r="I160" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L160" s="25"/>
+    </row>
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="4">
+        <v>44071.106249999997</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G160" s="3">
-        <v>1</v>
-      </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L160" s="25"/>
-    </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="4">
-        <v>44060.109722222223</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>403</v>
@@ -7528,27 +7552,31 @@
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L161" s="25"/>
     </row>
-    <row r="162" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B162" s="4">
-        <v>44060.006249999999</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>403</v>
@@ -7557,32 +7585,28 @@
         <v>1</v>
       </c>
       <c r="H162" s="3"/>
-      <c r="I162" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I162" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
       <c r="L162" s="25"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="4">
-        <v>44051.845833333333</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>403</v>
@@ -7592,27 +7616,31 @@
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L163" s="25"/>
     </row>
-    <row r="164" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B164" s="4">
-        <v>44051.779166666667</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>403</v>
@@ -7622,188 +7650,190 @@
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L164" s="25"/>
     </row>
-    <row r="165" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="4">
-        <v>44045.950694444444</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="G165" s="3">
         <v>1</v>
       </c>
       <c r="H165" s="3"/>
-      <c r="I165" s="6" t="s">
-        <v>398</v>
+      <c r="I165" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L165" s="25"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B166" s="4">
-        <v>44044.503472222219</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F166" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G166" s="3">
         <v>1</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="25"/>
     </row>
-    <row r="167" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B167" s="4">
-        <v>44040.64166666667</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F167" s="2"/>
+      <c r="F167" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G167" s="3">
         <v>1</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L167" s="25"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="4">
-        <v>44040.486805555556</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G168" s="3">
         <v>1</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
       <c r="L168" s="25"/>
     </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="4">
-        <v>44038.615972222222</v>
+        <v>44051.779166666667</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G169" s="3">
         <v>1</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L169" s="25"/>
     </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="4">
-        <v>44038.490277777775</v>
+        <v>44045.950694444444</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -7813,8 +7843,8 @@
         <v>1</v>
       </c>
       <c r="H170" s="3"/>
-      <c r="I170" s="2" t="s">
-        <v>383</v>
+      <c r="I170" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>21</v>
@@ -7824,21 +7854,21 @@
       </c>
       <c r="L170" s="25"/>
     </row>
-    <row r="171" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B171" s="4">
-        <v>44037.549305555556</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="3">
@@ -7846,28 +7876,28 @@
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="2" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L171" s="25"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="4">
-        <v>44037.54791666667</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -7878,7 +7908,7 @@
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="2" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>21</v>
@@ -7888,18 +7918,18 @@
       </c>
       <c r="L172" s="25"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="4">
-        <v>44037.48541666667</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -7910,7 +7940,7 @@
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>21</v>
@@ -7920,21 +7950,21 @@
       </c>
       <c r="L173" s="25"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="4">
-        <v>44036.708333333336</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="3">
@@ -7942,31 +7972,31 @@
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="2" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L174" s="25"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="4">
-        <v>44030.311805555553</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="3">
@@ -7974,33 +8004,31 @@
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L175" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L175" s="25"/>
+    </row>
+    <row r="176" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="4">
-        <v>44030.288194444445</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="3">
@@ -8008,31 +8036,31 @@
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="L176" s="25"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="4">
-        <v>44030.259027777778</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="3">
@@ -8040,7 +8068,7 @@
       </c>
       <c r="H177" s="3"/>
       <c r="I177" s="2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>21</v>
@@ -8050,18 +8078,18 @@
       </c>
       <c r="L177" s="25"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="4">
-        <v>44028.379861111112</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -8072,7 +8100,7 @@
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>21</v>
@@ -8082,18 +8110,18 @@
       </c>
       <c r="L178" s="25"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B179" s="4">
-        <v>44028.377083333333</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>15</v>
@@ -8104,7 +8132,7 @@
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="2" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>21</v>
@@ -8114,21 +8142,21 @@
       </c>
       <c r="L179" s="25"/>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B180" s="4">
-        <v>44027.884027777778</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="3">
@@ -8136,31 +8164,33 @@
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L180" s="25"/>
-    </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="L180" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="4">
-        <v>44026.883333333331</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="3">
@@ -8168,7 +8198,7 @@
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="2" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>21</v>
@@ -8178,21 +8208,21 @@
       </c>
       <c r="L181" s="25"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="4">
-        <v>44025.490972222222</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="3">
@@ -8200,7 +8230,7 @@
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="2" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>21</v>
@@ -8210,18 +8240,18 @@
       </c>
       <c r="L182" s="25"/>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="4">
-        <v>44025.15347222222</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -8232,7 +8262,7 @@
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="2" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>21</v>
@@ -8242,21 +8272,21 @@
       </c>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="4">
-        <v>44019.426388888889</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="3">
@@ -8264,7 +8294,7 @@
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="2" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>21</v>
@@ -8274,18 +8304,18 @@
       </c>
       <c r="L184" s="25"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="4">
-        <v>44019.088194444441</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -8296,7 +8326,7 @@
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>21</v>
@@ -8306,21 +8336,21 @@
       </c>
       <c r="L185" s="25"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="4">
-        <v>44018.056250000001</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="3">
@@ -8328,28 +8358,28 @@
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="2" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L186" s="25"/>
     </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B187" s="4">
-        <v>44017.363888888889</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -8360,28 +8390,28 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="2" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L187" s="25"/>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="4">
-        <v>44017.333333333336</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -8392,31 +8422,31 @@
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="2" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L188" s="25"/>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B189" s="4">
-        <v>44016.859722222223</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="3">
@@ -8424,28 +8454,28 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L189" s="25"/>
     </row>
-    <row r="190" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B190" s="4">
-        <v>44012.827777777777</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -8456,31 +8486,31 @@
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L190" s="25"/>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B191" s="4">
-        <v>44008</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="3">
@@ -8488,28 +8518,28 @@
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L191" s="25"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="4">
-        <v>43995.52847222222</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -8520,28 +8550,28 @@
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="2" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L192" s="25"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="4">
-        <v>43990.650694444441</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -8552,31 +8582,31 @@
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="2" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L193" s="25"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="4">
-        <v>44012.328472222223</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="3">
@@ -8584,65 +8614,63 @@
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L194" s="25"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="4">
-        <v>44058.987500000003</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="F195" s="2"/>
       <c r="G195" s="3">
         <v>1</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="2" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L195" s="25"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="4">
-        <v>43990.670138888891</v>
+        <v>44008</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="3">
@@ -8650,31 +8678,31 @@
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K196" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L196" s="25"/>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B197" s="4">
-        <v>43983.301388888889</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="3">
@@ -8682,7 +8710,7 @@
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="2" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>21</v>
@@ -8692,21 +8720,21 @@
       </c>
       <c r="L197" s="25"/>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B198" s="4">
-        <v>43982.572222222225</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="3">
@@ -8714,31 +8742,31 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="2" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L198" s="25"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B199" s="4">
-        <v>43982.536805555559</v>
+        <v>44012.328472222223</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="3">
@@ -8746,63 +8774,65 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="2" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L199" s="25"/>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B200" s="4">
-        <v>43982.416666666664</v>
+        <v>44058.987500000003</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="G200" s="3">
         <v>1</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="2" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L200" s="25"/>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B201" s="4">
-        <v>43982.368055555555</v>
+        <v>43990.670138888891</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="3">
@@ -8810,31 +8840,31 @@
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L201" s="25"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="4">
-        <v>43976.984027777777</v>
+        <v>43983.301388888889</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="3">
@@ -8842,31 +8872,31 @@
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="J202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K202" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L202" s="25"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B203" s="4">
-        <v>43976.3</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="3">
@@ -8874,7 +8904,7 @@
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>21</v>
@@ -8884,21 +8914,21 @@
       </c>
       <c r="L203" s="25"/>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B204" s="4">
-        <v>43976.279861111114</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="3">
@@ -8906,7 +8936,7 @@
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>21</v>
@@ -8916,21 +8946,21 @@
       </c>
       <c r="L204" s="25"/>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="4">
-        <v>43976.130555555559</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="3">
@@ -8938,7 +8968,7 @@
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="2" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>21</v>
@@ -8948,21 +8978,21 @@
       </c>
       <c r="L205" s="25"/>
     </row>
-    <row r="206" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B206" s="4">
-        <v>43962.618055555555</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="3">
@@ -8970,31 +9000,31 @@
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="2" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K206" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K206" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L206" s="25"/>
     </row>
-    <row r="207" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B207" s="4">
-        <v>43962.611111111109</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="3">
@@ -9002,29 +9032,31 @@
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L207" s="25"/>
+    </row>
+    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B208" s="4">
-        <v>43969.09375</v>
+        <v>43976.3</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="3">
@@ -9032,31 +9064,31 @@
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L208" s="25"/>
     </row>
-    <row r="209" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B209" s="4">
-        <v>43954</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="3">
@@ -9064,7 +9096,7 @@
       </c>
       <c r="H209" s="3"/>
       <c r="I209" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>21</v>
@@ -9074,31 +9106,29 @@
       </c>
       <c r="L209" s="25"/>
     </row>
-    <row r="210" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B210" s="4">
-        <v>44064.506249999999</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>403</v>
-      </c>
+      <c r="F210" s="2"/>
       <c r="G210" s="3">
         <v>1</v>
       </c>
       <c r="H210" s="3"/>
       <c r="I210" s="2" t="s">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>21</v>
@@ -9108,50 +9138,50 @@
       </c>
       <c r="L210" s="25"/>
     </row>
-    <row r="211" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B211" s="4">
-        <v>43959</v>
+        <v>43962.618055555555</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="3">
         <v>1</v>
       </c>
       <c r="H211" s="3"/>
-      <c r="I211" s="6" t="s">
-        <v>228</v>
+      <c r="I211" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L211" s="25"/>
     </row>
-    <row r="212" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B212" s="4">
-        <v>43948</v>
+        <v>43962.611111111109</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -9162,193 +9192,193 @@
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="4">
+        <v>43969.09375</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3"/>
+      <c r="I213" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" s="25"/>
+    </row>
+    <row r="214" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" s="4">
+        <v>43954</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H214" s="3"/>
+      <c r="I214" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L214" s="25"/>
+    </row>
+    <row r="215" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="4">
+        <v>44064.506249999999</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="3"/>
+      <c r="I215" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L215" s="25"/>
+    </row>
+    <row r="216" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" s="4">
+        <v>43959</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" s="3">
+        <v>1</v>
+      </c>
+      <c r="H216" s="3"/>
+      <c r="I216" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L216" s="25"/>
+    </row>
+    <row r="217" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H217" s="3"/>
+      <c r="I217" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L212" s="25" t="s">
+      <c r="J217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L217" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="9">
+    <row r="218" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" s="9">
         <v>43933</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C218" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D218" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E218" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F213" s="7"/>
-      <c r="G213" s="8">
-        <v>1</v>
-      </c>
-      <c r="H213" s="8"/>
-      <c r="I213" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J213" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K213" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L213" s="26"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F214" s="7"/>
-      <c r="G214" s="8">
-        <v>1</v>
-      </c>
-      <c r="H214" s="8"/>
-      <c r="I214" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J214" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K214" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L214" s="26"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" s="12">
-        <v>43963.240277777775</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" s="10"/>
-      <c r="G215" s="11">
-        <v>1</v>
-      </c>
-      <c r="H215" s="11"/>
-      <c r="I215" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J215" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L215" s="26"/>
-    </row>
-    <row r="216" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A216" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B216" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F216" s="7"/>
-      <c r="G216" s="8">
-        <v>1</v>
-      </c>
-      <c r="H216" s="8"/>
-      <c r="I216" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J216" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K216" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L216" s="26"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="9">
-        <v>43893</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" s="7"/>
-      <c r="G217" s="8">
-        <v>1</v>
-      </c>
-      <c r="H217" s="8"/>
-      <c r="I217" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J217" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K217" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L217" s="26"/>
-    </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" s="9">
-        <v>43920</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="8">
@@ -9356,28 +9386,28 @@
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L218" s="26"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B219" s="9">
-        <v>43911</v>
+        <v>43932</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>15</v>
@@ -9388,63 +9418,63 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L219" s="26"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" s="9">
-        <v>43903</v>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" s="12">
+        <v>43963.240277777775</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F220" s="7"/>
-      <c r="G220" s="8">
-        <v>1</v>
-      </c>
-      <c r="H220" s="8"/>
-      <c r="I220" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J220" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K220" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="11">
+        <v>1</v>
+      </c>
+      <c r="H220" s="11"/>
+      <c r="I220" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K220" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="L220" s="26"/>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B221" s="9">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="8">
@@ -9452,28 +9482,28 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L221" s="26"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B222" s="9">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>8</v>
@@ -9484,31 +9514,31 @@
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L222" s="26"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B223" s="9">
-        <v>43901</v>
+        <v>43920</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="8">
@@ -9516,28 +9546,28 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L223" s="26"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B224" s="9">
-        <v>43901</v>
+        <v>43911</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>15</v>
@@ -9548,7 +9578,7 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>21</v>
@@ -9558,21 +9588,21 @@
       </c>
       <c r="L224" s="26"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B225" s="9">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="8">
@@ -9580,31 +9610,31 @@
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L225" s="26"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B226" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="8">
@@ -9612,7 +9642,7 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>21</v>
@@ -9622,21 +9652,21 @@
       </c>
       <c r="L226" s="26"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B227" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="8">
@@ -9644,7 +9674,7 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>21</v>
@@ -9654,18 +9684,18 @@
       </c>
       <c r="L227" s="26"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B228" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>37</v>
@@ -9676,7 +9706,7 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>21</v>
@@ -9686,21 +9716,21 @@
       </c>
       <c r="L228" s="26"/>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B229" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="8">
@@ -9708,7 +9738,7 @@
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>21</v>
@@ -9718,18 +9748,18 @@
       </c>
       <c r="L229" s="26"/>
     </row>
-    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B230" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>8</v>
@@ -9740,17 +9770,17 @@
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L230" s="26"/>
     </row>
-    <row r="231" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>11</v>
       </c>
@@ -9758,13 +9788,13 @@
         <v>43898</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="8">
@@ -9772,7 +9802,7 @@
       </c>
       <c r="H231" s="8"/>
       <c r="I231" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>21</v>
@@ -9782,21 +9812,21 @@
       </c>
       <c r="L231" s="26"/>
     </row>
-    <row r="232" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B232" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="8">
@@ -9804,28 +9834,28 @@
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L232" s="26"/>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B233" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>37</v>
@@ -9836,7 +9866,7 @@
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>21</v>
@@ -9846,18 +9876,18 @@
       </c>
       <c r="L233" s="26"/>
     </row>
-    <row r="234" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B234" s="9">
-        <v>43887</v>
+        <v>43898</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E234" s="7" t="s">
         <v>8</v>
@@ -9868,61 +9898,63 @@
       </c>
       <c r="H234" s="8"/>
       <c r="I234" s="7" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L234" s="26"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="9">
-        <v>43885</v>
+        <v>43898</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F235" s="7"/>
-      <c r="G235" s="11"/>
-      <c r="H235" s="11"/>
+      <c r="G235" s="8">
+        <v>1</v>
+      </c>
+      <c r="H235" s="8"/>
       <c r="I235" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="L235" s="26"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B236" s="9">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="8">
@@ -9930,7 +9962,7 @@
       </c>
       <c r="H236" s="8"/>
       <c r="I236" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>21</v>
@@ -9940,213 +9972,211 @@
       </c>
       <c r="L236" s="26"/>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B237" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="7"/>
+      <c r="G237" s="8">
+        <v>1</v>
+      </c>
+      <c r="H237" s="8"/>
+      <c r="I237" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J237" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K237" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L237" s="26"/>
+    </row>
+    <row r="238" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F238" s="7"/>
+      <c r="G238" s="8">
+        <v>1</v>
+      </c>
+      <c r="H238" s="8"/>
+      <c r="I238" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J238" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K238" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L238" s="26"/>
+    </row>
+    <row r="239" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="7"/>
+      <c r="G239" s="8">
+        <v>1</v>
+      </c>
+      <c r="H239" s="8"/>
+      <c r="I239" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L239" s="26"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="7"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L240" s="26"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="9">
         <v>43883</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="C241" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241" s="7"/>
+      <c r="G241" s="8">
+        <v>1</v>
+      </c>
+      <c r="H241" s="8"/>
+      <c r="I241" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L241" s="26"/>
+    </row>
+    <row r="242" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C242" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D242" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E237" s="10" t="s">
+      <c r="E242" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="F237" s="10"/>
-      <c r="G237" s="11">
-        <v>1</v>
-      </c>
-      <c r="H237" s="11"/>
-      <c r="I237" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K237" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L237" s="26"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D238" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E238" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F238" s="10"/>
-      <c r="G238" s="11">
-        <v>1</v>
-      </c>
-      <c r="H238" s="11"/>
-      <c r="I238" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J238" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K238" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L238" s="26"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B239" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E239" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F239" s="10"/>
-      <c r="G239" s="11">
-        <v>1</v>
-      </c>
-      <c r="H239" s="11"/>
-      <c r="I239" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J239" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K239" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L239" s="26"/>
-    </row>
-    <row r="240" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" s="12">
-        <v>43881</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E240" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F240" s="10"/>
-      <c r="G240" s="11">
-        <v>1</v>
-      </c>
-      <c r="H240" s="11"/>
-      <c r="I240" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K240" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L240" s="26"/>
-    </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F241" s="10"/>
-      <c r="G241" s="11">
-        <v>1</v>
-      </c>
-      <c r="H241" s="11"/>
-      <c r="I241" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J241" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K241" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L241" s="26"/>
-    </row>
-    <row r="242" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A242" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B242" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E242" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="F242" s="10"/>
       <c r="G242" s="11">
         <v>1</v>
       </c>
       <c r="H242" s="11"/>
-      <c r="I242" s="13" t="s">
-        <v>206</v>
+      <c r="I242" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="J242" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K242" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L242" s="26"/>
     </row>
-    <row r="243" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="12">
-        <v>43877</v>
+      <c r="B243" s="9">
+        <v>43883</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11">
@@ -10154,7 +10184,7 @@
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="10" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="J243" s="10" t="s">
         <v>21</v>
@@ -10164,29 +10194,29 @@
       </c>
       <c r="L243" s="26"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B244" s="12">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="11">
         <v>1</v>
       </c>
       <c r="H244" s="11"/>
-      <c r="I244" s="14" t="s">
-        <v>203</v>
+      <c r="I244" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="J244" s="10" t="s">
         <v>21</v>
@@ -10196,50 +10226,50 @@
       </c>
       <c r="L244" s="26"/>
     </row>
-    <row r="245" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B245" s="12">
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="F245" s="10"/>
       <c r="G245" s="11">
         <v>1</v>
       </c>
       <c r="H245" s="11"/>
-      <c r="I245" s="13" t="s">
-        <v>202</v>
+      <c r="I245" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K245" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L245" s="26"/>
     </row>
-    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B246" s="12">
-        <v>43872</v>
+        <v>43878</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E246" s="10" t="s">
         <v>8</v>
@@ -10250,7 +10280,7 @@
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J246" s="10" t="s">
         <v>21</v>
@@ -10260,53 +10290,53 @@
       </c>
       <c r="L246" s="26"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E247" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F247" s="7"/>
-      <c r="G247" s="8">
-        <v>1</v>
-      </c>
-      <c r="H247" s="8"/>
-      <c r="I247" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J247" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K247" s="7" t="s">
+      <c r="B247" s="12">
+        <v>43878</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="10"/>
+      <c r="G247" s="11">
+        <v>1</v>
+      </c>
+      <c r="H247" s="11"/>
+      <c r="I247" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L247" s="26"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B248" s="12">
-        <v>43869</v>
+        <v>43877</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="11">
@@ -10314,60 +10344,60 @@
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="10" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="J248" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K248" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K248" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="L248" s="26"/>
     </row>
-    <row r="249" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B249" s="12">
-        <v>43870</v>
+        <v>43877</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="11">
         <v>1</v>
       </c>
       <c r="H249" s="11"/>
-      <c r="I249" s="10" t="s">
-        <v>199</v>
+      <c r="I249" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="J249" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K249" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L249" s="26"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B250" s="12">
-        <v>43869</v>
+        <v>43874</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="E250" s="10" t="s">
         <v>23</v>
@@ -10377,29 +10407,29 @@
         <v>1</v>
       </c>
       <c r="H250" s="11"/>
-      <c r="I250" s="10" t="s">
-        <v>90</v>
+      <c r="I250" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K250" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L250" s="26"/>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B251" s="12">
-        <v>43869</v>
+        <v>43872</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E251" s="10" t="s">
         <v>8</v>
@@ -10410,7 +10440,7 @@
       </c>
       <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="J251" s="10" t="s">
         <v>21</v>
@@ -10420,53 +10450,53 @@
       </c>
       <c r="L251" s="26"/>
     </row>
-    <row r="252" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="12">
+      <c r="B252" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" s="7"/>
+      <c r="G252" s="8">
+        <v>1</v>
+      </c>
+      <c r="H252" s="8"/>
+      <c r="I252" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L252" s="26"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="12">
         <v>43869</v>
       </c>
-      <c r="C252" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F252" s="10"/>
-      <c r="G252" s="11">
-        <v>1</v>
-      </c>
-      <c r="H252" s="11"/>
-      <c r="I252" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J252" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K252" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L252" s="26"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253" s="12">
-        <v>43865</v>
-      </c>
       <c r="C253" s="10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="11">
@@ -10474,28 +10504,28 @@
       </c>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J253" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K253" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L253" s="26"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B254" s="12">
-        <v>43858</v>
+        <v>43870</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="E254" s="10" t="s">
         <v>15</v>
@@ -10506,31 +10536,31 @@
       </c>
       <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="J254" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K254" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L254" s="26"/>
     </row>
-    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B255" s="12">
-        <v>43858</v>
+        <v>43869</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="11">
@@ -10538,60 +10568,60 @@
       </c>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K255" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L255" s="26"/>
     </row>
-    <row r="256" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B256" s="12">
-        <v>43855</v>
+        <v>43869</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="11">
         <v>1</v>
       </c>
       <c r="H256" s="11"/>
-      <c r="I256" s="15" t="s">
-        <v>196</v>
+      <c r="I256" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="J256" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K256" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L256" s="26"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B257" s="12">
-        <v>43856</v>
+        <v>43869</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>8</v>
@@ -10600,27 +10630,33 @@
       <c r="G257" s="11">
         <v>1</v>
       </c>
-      <c r="H257" s="29"/>
-      <c r="I257" s="16"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="10"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J257" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K257" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="L257" s="26"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B258" s="12">
-        <v>43855</v>
+        <v>43865</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="11">
@@ -10628,7 +10664,7 @@
       </c>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J258" s="10" t="s">
         <v>21</v>
@@ -10638,18 +10674,18 @@
       </c>
       <c r="L258" s="26"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B259" s="12">
-        <v>43854</v>
+        <v>43858</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E259" s="10" t="s">
         <v>15</v>
@@ -10660,7 +10696,7 @@
       </c>
       <c r="H259" s="11"/>
       <c r="I259" s="10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J259" s="10" t="s">
         <v>21</v>
@@ -10670,25 +10706,29 @@
       </c>
       <c r="L259" s="26"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B260" s="12">
-        <v>43854</v>
+        <v>43858</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D260" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E260" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="F260" s="10"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="11">
+        <v>1</v>
+      </c>
       <c r="H260" s="11"/>
       <c r="I260" s="10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J260" s="10" t="s">
         <v>21</v>
@@ -10698,31 +10738,29 @@
       </c>
       <c r="L260" s="26"/>
     </row>
-    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B261" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D261" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E261" s="7" t="s">
+      <c r="B261" s="12">
+        <v>43855</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E261" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F261" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G261" s="8">
-        <v>1</v>
-      </c>
-      <c r="H261" s="8"/>
-      <c r="I261" s="10" t="s">
-        <v>467</v>
+      <c r="F261" s="10"/>
+      <c r="G261" s="11">
+        <v>1</v>
+      </c>
+      <c r="H261" s="11"/>
+      <c r="I261" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="J261" s="10" t="s">
         <v>21</v>
@@ -10732,276 +10770,282 @@
       </c>
       <c r="L261" s="26"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B262" s="12">
-        <v>43853</v>
+        <v>43856</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F262" s="10"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J262" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K262" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G262" s="11">
+        <v>1</v>
+      </c>
+      <c r="H262" s="29"/>
+      <c r="I262" s="16"/>
+      <c r="J262" s="10"/>
+      <c r="K262" s="10"/>
       <c r="L262" s="26"/>
     </row>
-    <row r="263" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B263" s="12">
-        <v>43853</v>
+        <v>43855</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F263" s="10"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="11">
+        <v>1</v>
+      </c>
       <c r="H263" s="11"/>
       <c r="I263" s="10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="J263" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K263" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L263" s="26"/>
     </row>
-    <row r="264" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B264" s="12">
-        <v>43851</v>
+        <v>43854</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F264" s="10"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="11">
+        <v>1</v>
+      </c>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="J264" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K264" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L264" s="26"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B265" s="12">
-        <v>43849</v>
+        <v>43854</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J265" s="10"/>
-      <c r="K265" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="J265" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K265" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L265" s="26"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="12">
-        <v>43848</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D266" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E266" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F266" s="10"/>
-      <c r="G266" s="11"/>
-      <c r="H266" s="11"/>
+      <c r="B266" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G266" s="8">
+        <v>1</v>
+      </c>
+      <c r="H266" s="8"/>
       <c r="I266" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K266" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L266" s="26"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B267" s="12">
-        <v>43848</v>
+        <v>43853</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F267" s="10"/>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J267" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K267" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L267" s="26"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" s="10" t="s">
+    <row r="268" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B268" s="12">
-        <v>43847</v>
+        <v>43853</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F268" s="10"/>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="J268" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K268" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L268" s="26"/>
     </row>
-    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="10" t="s">
+    <row r="269" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A269" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B269" s="12">
-        <v>43846</v>
+        <v>43851</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F269" s="10"/>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
       <c r="I269" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J269" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K269" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
       <c r="L269" s="26"/>
     </row>
-    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="10" t="s">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A270" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B270" s="12">
-        <v>43835</v>
+        <v>43849</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
       <c r="I270" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J270" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K270" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
       <c r="L270" s="26"/>
     </row>
-    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="10" t="s">
+    <row r="271" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B271" s="12">
-        <v>43835</v>
+        <v>43848</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E271" s="10" t="s">
         <v>8</v>
@@ -11010,65 +11054,63 @@
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
       <c r="I271" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J271" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K271" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
       <c r="L271" s="26"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B272" s="12">
-        <v>43842</v>
+        <v>43848</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F272" s="10"/>
       <c r="G272" s="11"/>
-      <c r="H272" s="29"/>
-      <c r="I272" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J272" s="10"/>
-      <c r="K272" s="10"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J272" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K272" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L272" s="26"/>
     </row>
-    <row r="273" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B273" s="12">
-        <v>43857</v>
+        <v>43847</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F273" s="10"/>
-      <c r="G273" s="11">
-        <v>1</v>
-      </c>
+      <c r="G273" s="11"/>
       <c r="H273" s="11"/>
       <c r="I273" s="10" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="J273" s="10" t="s">
         <v>21</v>
@@ -11078,78 +11120,226 @@
       </c>
       <c r="L273" s="26"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B274" s="12">
-        <v>43841</v>
+        <v>43846</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F274" s="10"/>
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
       <c r="I274" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J274" s="10"/>
-      <c r="K274" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="J274" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K274" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L274" s="26"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B275" s="12">
-        <v>43751</v>
+        <v>43835</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F275" s="10"/>
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
       <c r="I275" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J275" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K275" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L275" s="26"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" s="12">
+        <v>43835</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="10"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J276" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K276" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L276" s="26"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="12">
+        <v>43842</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="10"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="29"/>
+      <c r="I277" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="26"/>
+    </row>
+    <row r="278" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A278" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="12">
+        <v>43857</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="10"/>
+      <c r="G278" s="11">
+        <v>1</v>
+      </c>
+      <c r="H278" s="11"/>
+      <c r="I278" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J278" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K278" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L278" s="26"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="12">
+        <v>43841</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" s="10"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J279" s="10"/>
+      <c r="K279" s="10"/>
+      <c r="L279" s="26"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="12">
+        <v>43751</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="10"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
-      <c r="L275" s="26"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="17"/>
-      <c r="B276" s="17"/>
-      <c r="C276" s="17"/>
-      <c r="D276" s="17"/>
-      <c r="E276" s="17"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="18"/>
-      <c r="H276" s="18"/>
-      <c r="I276" s="17"/>
-      <c r="J276" s="17"/>
-      <c r="K276" s="17"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="26"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A281" s="17"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L276"/>
-  <sortState ref="A97:K98">
-    <sortCondition descending="1" ref="C97:C98"/>
+  <autoFilter ref="A1:L281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:K99">
+    <sortCondition descending="1" ref="C98:C99"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A47 A123:A275 A49:A93 A95:A120">
+  <conditionalFormatting sqref="A2:A47 A128:A280 A49:A94 A96:A125">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -11160,12 +11350,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B47 B123:B275 B49:B93 B95:B121">
+  <conditionalFormatting sqref="B2:B47 B128:B280 B49:B94 B96:B126">
     <cfRule type="expression" dxfId="39" priority="48">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E47 E49:E93 E95:E275">
+  <conditionalFormatting sqref="E2:E47 E49:E94 E96:E280">
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -11182,7 +11372,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F47 F49:F93 F95:F275">
+  <conditionalFormatting sqref="F2:F47 F49:F94 F96:F280">
     <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -11243,78 +11433,78 @@
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A126">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A121))=0</formula>
+      <formula>LEN(TRIM(A126))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
+  <conditionalFormatting sqref="B127">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND($A122 = "Done", ISBLANK($B122))</formula>
+      <formula>AND($A127 = "Done", ISBLANK($B127))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
+  <conditionalFormatting sqref="A127">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>LEN(TRIM(A122))=0</formula>
+      <formula>LEN(TRIM(A127))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A95">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A94))=0</formula>
+      <formula>LEN(TRIM(A95))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B95">
     <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($A94 = "Done", ISBLANK($B94))</formula>
+      <formula>AND($A95 = "Done", ISBLANK($B95))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E95">
     <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$E94="Improv"</formula>
+      <formula>$E95="Improv"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>$E94="Feat"</formula>
+      <formula>$E95="Feat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>$E94="Design"</formula>
+      <formula>$E95="Design"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>$E94="Bug"</formula>
+      <formula>$E95="Bug"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$F94="High"</formula>
+      <formula>$F95="High"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$F94="Medium"</formula>
+      <formula>$F95="Medium"</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(F94))=0</formula>
+      <formula>LEN(TRIM(F95))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Task List.xlsx
+++ b/Documentation/Task List.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RJ\Documents\Projects\Personal\Dribbly\Dribbly.WebClient\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD63436-5658-4B9F-83BC-48D865782F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84273F05-6CFA-4A7A-8BBE-429832FA2624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$282</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -121,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="694">
   <si>
     <t>Task ID</t>
   </si>
@@ -1104,13 +1114,7 @@
     <t>Add option to Remove an account</t>
   </si>
   <si>
-    <t>Allow users to upload photos to their Profile</t>
-  </si>
-  <si>
     <t>For Phase</t>
-  </si>
-  <si>
-    <t>WEB-0092</t>
   </si>
   <si>
     <t>WEB-0093</t>
@@ -1692,9 +1696,6 @@
     <t>Game Reviews - Getting error when removing pricecomponent</t>
   </si>
   <si>
-    <t>Notifications checker generates many errors when user is not authenticated</t>
-  </si>
-  <si>
     <t>Add Court Reviews view and ability to post a review</t>
   </si>
   <si>
@@ -1839,12 +1840,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>Account Details - Upload Profile Photo - Add cropping feature</t>
-  </si>
-  <si>
-    <t>MEdium</t>
-  </si>
-  <si>
     <t>WEB-0155</t>
   </si>
   <si>
@@ -1855,9 +1850,6 @@
   </si>
   <si>
     <t>Account Settings - As an account owner I should have the option to restrict who can post on my home page</t>
-  </si>
-  <si>
-    <t>Account Home - As an account owner I should be able to update my profile</t>
   </si>
   <si>
     <t>Account Home - Posts - As an account owner I should be able to hide any posts from my home page</t>
@@ -2066,9 +2058,6 @@
     <t>User Stub  - clicking the icon takes user to Account Details instead of Account Home</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>When a new game is set, create a post on court's home and on the home of the player who set the game</t>
   </si>
   <si>
@@ -2148,9 +2137,6 @@
     <t>fix: WEB-0175 - Add EntityStatus property to GameModel and rename Status property to EntityStatus of other entity models</t>
   </si>
   <si>
-    <t>Decide which model's ID to use as foreignKey, AccountModel or AspNetUser</t>
-  </si>
-  <si>
     <t>Add functionality to transfer ownership of a court</t>
   </si>
   <si>
@@ -2348,6 +2334,54 @@
   </si>
   <si>
     <t>setup: WEB-0192 - dbo._DevHelpers_SP_DeleteUserByUserName</t>
+  </si>
+  <si>
+    <t>WEB-0193</t>
+  </si>
+  <si>
+    <t>New courts are not being added to IndexedEntities table</t>
+  </si>
+  <si>
+    <t>fix: WEB-0193 - fix issue: new courts are not being added to IndexedEntities table</t>
+  </si>
+  <si>
+    <t>Add functionality to reactivate courts</t>
+  </si>
+  <si>
+    <t>Exception occurs when joining a team</t>
+  </si>
+  <si>
+    <t>WEB-0194</t>
+  </si>
+  <si>
+    <t>fix: WEB-0194 - fix issue: exception occurs when joining a team</t>
+  </si>
+  <si>
+    <t>Account Home - Nothing happens when change primary photo is clicked</t>
+  </si>
+  <si>
+    <t>fix: WEB-0195 - fix change account primary photo functionality</t>
+  </si>
+  <si>
+    <t>WEB-0195</t>
+  </si>
+  <si>
+    <t>WEB-0196</t>
+  </si>
+  <si>
+    <t>Getting "$.resolve is not a function" error in the console</t>
+  </si>
+  <si>
+    <t>fix: WEB-0196 - fix "$.resolve is not a function error" and added some comments in notificationsService for documentation</t>
+  </si>
+  <si>
+    <t>Temporarily disable posting on other players' home page</t>
+  </si>
+  <si>
+    <t>WEB-0197</t>
+  </si>
+  <si>
+    <t>fix: WEB-0197 - ISSUE: Notifications are not generated when adding a new game</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,6 +2629,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3293,18 +3330,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L281"/>
+  <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.5546875" style="1" customWidth="1"/>
@@ -3333,13 +3370,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>3</v>
@@ -3373,11 +3410,11 @@
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3393,13 +3430,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -3415,13 +3452,13 @@
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -3443,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -3467,7 +3504,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -3491,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -3506,16 +3543,16 @@
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -3531,13 +3568,13 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -3561,7 +3598,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -3583,7 +3620,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -3605,7 +3642,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -3621,13 +3658,13 @@
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -3643,13 +3680,13 @@
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -3664,16 +3701,16 @@
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -3689,13 +3726,13 @@
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -3711,13 +3748,13 @@
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>594</v>
+        <v>402</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -3733,13 +3770,13 @@
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -3755,13 +3792,13 @@
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -3777,13 +3814,13 @@
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -3799,13 +3836,13 @@
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -3821,13 +3858,13 @@
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -3843,13 +3880,13 @@
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -3865,13 +3902,13 @@
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -3887,13 +3924,13 @@
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -3917,7 +3954,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -3941,7 +3978,7 @@
         <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G28" s="8">
         <v>1</v>
@@ -3965,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -3987,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -4009,7 +4046,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -4031,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -4047,13 +4084,13 @@
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -4069,13 +4106,13 @@
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -4091,13 +4128,13 @@
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -4113,13 +4150,13 @@
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -4135,13 +4172,13 @@
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -4157,13 +4194,13 @@
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -4179,13 +4216,13 @@
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -4201,13 +4238,13 @@
       <c r="B40" s="4"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -4223,13 +4260,13 @@
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -4245,13 +4282,13 @@
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -4267,13 +4304,13 @@
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -4289,13 +4326,13 @@
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -4311,7 +4348,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -4333,13 +4370,13 @@
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>523</v>
+        <v>401</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -4350,18 +4387,18 @@
       <c r="K46" s="2"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -4372,18 +4409,18 @@
       <c r="K47" s="2"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -4394,18 +4431,18 @@
       <c r="K48" s="2"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4416,18 +4453,18 @@
       <c r="K49" s="2"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -4443,13 +4480,13 @@
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -4465,13 +4502,13 @@
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -4487,13 +4524,13 @@
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -4509,13 +4546,13 @@
       <c r="B54" s="4"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4526,18 +4563,18 @@
       <c r="K54" s="2"/>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4553,10 +4590,10 @@
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>403</v>
@@ -4575,13 +4612,13 @@
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4597,13 +4634,13 @@
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4619,13 +4656,13 @@
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -4639,13 +4676,13 @@
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -4661,13 +4698,13 @@
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4683,13 +4720,13 @@
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4705,13 +4742,13 @@
       <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
@@ -4727,13 +4764,13 @@
       <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4749,13 +4786,13 @@
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4771,13 +4808,13 @@
       <c r="B66" s="4"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -4788,18 +4825,18 @@
       <c r="K66" s="2"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>527</v>
+        <v>691</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -4814,16 +4851,16 @@
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -4838,16 +4875,16 @@
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -4858,66 +4895,64 @@
       <c r="K69" s="2"/>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="7" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G71" s="8">
-        <v>1</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="26"/>
-    </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F70" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="25"/>
+    </row>
+    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -4933,13 +4968,13 @@
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4955,13 +4990,13 @@
       <c r="B74" s="4"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -4977,13 +5012,13 @@
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -4999,13 +5034,13 @@
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
@@ -5021,13 +5056,13 @@
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5041,15 +5076,17 @@
     <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -5063,17 +5100,15 @@
     <row r="79" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>280</v>
+        <v>681</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -5089,19 +5124,19 @@
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -5113,13 +5148,13 @@
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5135,13 +5170,13 @@
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5157,13 +5192,13 @@
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -5179,13 +5214,13 @@
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
@@ -5209,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5225,13 +5260,13 @@
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5247,13 +5282,13 @@
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>476</v>
+        <v>565</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -5264,12 +5299,12 @@
       <c r="K87" s="2"/>
       <c r="L87" s="25"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>37</v>
@@ -5291,13 +5326,13 @@
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -5308,18 +5343,18 @@
       <c r="K89" s="2"/>
       <c r="L89" s="25"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -5330,18 +5365,18 @@
       <c r="K90" s="2"/>
       <c r="L90" s="25"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -5352,18 +5387,18 @@
       <c r="K91" s="2"/>
       <c r="L91" s="25"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -5374,18 +5409,18 @@
       <c r="K92" s="2"/>
       <c r="L92" s="25"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5396,18 +5431,18 @@
       <c r="K93" s="2"/>
       <c r="L93" s="25"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -5418,18 +5453,18 @@
       <c r="K94" s="2"/>
       <c r="L94" s="25"/>
     </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -5445,13 +5480,13 @@
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -5462,18 +5497,18 @@
       <c r="K96" s="2"/>
       <c r="L96" s="25"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -5485,94 +5520,142 @@
       <c r="L97" s="25"/>
     </row>
     <row r="98" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="4">
+        <v>44537</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="D98" s="2" t="s">
-        <v>627</v>
+        <v>551</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
       </c>
       <c r="H98" s="3"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="I98" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L98" s="25"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="2"/>
+    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="4">
+        <v>44527</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
       </c>
       <c r="H99" s="3"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="I99" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L99" s="25"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="2"/>
+    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="4">
+        <v>44527</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="I100" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L100" s="25"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44527</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="I101" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L101" s="25"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -5580,23 +5663,23 @@
         <v>44527</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>403</v>
+        <v>518</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>26</v>
@@ -5614,29 +5697,29 @@
         <v>44527</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L103" s="25"/>
     </row>
@@ -5648,29 +5731,29 @@
         <v>44527</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L104" s="25"/>
     </row>
@@ -5682,91 +5765,91 @@
         <v>44527</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L105" s="25"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>44269.109027777777</v>
+        <v>44527</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L106" s="25"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="4">
-        <v>44245.701388888891</v>
+        <v>44269.109027777777</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>21</v>
@@ -5781,24 +5864,26 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>44234.186805555553</v>
+        <v>44245.701388888891</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G108" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>21</v>
@@ -5813,26 +5898,24 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>44227.988194444442</v>
+        <v>44234.186805555553</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>21</v>
@@ -5847,26 +5930,26 @@
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>44225.163888888892</v>
+        <v>44227.988194444442</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>21</v>
@@ -5881,26 +5964,26 @@
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>44213.628472222219</v>
+        <v>44225.163888888892</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>654</v>
+        <v>567</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>655</v>
+        <v>403</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>21</v>
@@ -5915,26 +5998,26 @@
         <v>11</v>
       </c>
       <c r="B112" s="4">
-        <v>44207.481944444444</v>
+        <v>44213.628472222219</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>405</v>
+        <v>647</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>21</v>
@@ -5949,29 +6032,33 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>44186.161111111112</v>
+        <v>44207.481944444444</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L113" s="25"/>
     </row>
     <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5979,86 +6066,86 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>44181.324999999997</v>
+        <v>44186.161111111112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="25"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>44180.320833333331</v>
+        <v>44181.324999999997</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="3"/>
-      <c r="I115" s="6" t="s">
-        <v>643</v>
+      <c r="I115" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="25"/>
     </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>44170.414583333331</v>
+        <v>44180.320833333331</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -6069,58 +6156,58 @@
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>44170.393055555556</v>
+        <v>44170.414583333331</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="3"/>
+      <c r="I117" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="25"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>44166.195833333331</v>
+        <v>44170.393055555556</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="2" t="s">
-        <v>629</v>
+      <c r="I118" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -6131,26 +6218,26 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>44165.1875</v>
+        <v>44166.195833333331</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -6161,26 +6248,26 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>44164.619444444441</v>
+        <v>44165.1875</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -6191,26 +6278,26 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>44164.021527777775</v>
+        <v>44164.619444444441</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -6221,96 +6308,92 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>44163.98333333333</v>
+        <v>44164.021527777775</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="25"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4">
+        <v>44163.98333333333</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="25"/>
+    </row>
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="4">
         <v>44159.308333333334</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L123" s="25"/>
-    </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="4">
-        <v>44158.065972222219</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="3"/>
-      <c r="I124" s="2" t="s">
-        <v>607</v>
+      <c r="I124" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L124" s="25"/>
     </row>
@@ -6319,26 +6402,26 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>44152.765277777777</v>
+        <v>44158.065972222219</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>21</v>
@@ -6353,26 +6436,26 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>44151.671527777777</v>
+        <v>44152.765277777777</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>444</v>
+        <v>595</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>21</v>
@@ -6390,43 +6473,47 @@
         <v>44151.671527777777</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>598</v>
+        <v>442</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L127" s="25"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>44151.518750000003</v>
+        <v>44151.671527777777</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>403</v>
@@ -6436,14 +6523,10 @@
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="25"/>
     </row>
     <row r="129" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6451,53 +6534,53 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>44151.500694444447</v>
+        <v>44151.518750000003</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L129" s="25"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>44150.777083333334</v>
+        <v>44151.500694444447</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -6514,15 +6597,15 @@
       </c>
       <c r="L130" s="25"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>44150.509027777778</v>
+        <v>44150.777083333334</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>576</v>
@@ -6531,20 +6614,20 @@
         <v>8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L131" s="25"/>
     </row>
@@ -6553,60 +6636,60 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>44148.320833333331</v>
+        <v>44150.509027777778</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L132" s="25"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>44148.290972222225</v>
+        <v>44148.320833333331</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>21</v>
@@ -6616,65 +6699,65 @@
       </c>
       <c r="L133" s="25"/>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>44147.695833333331</v>
+        <v>44148.290972222225</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>558</v>
+        <v>403</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L134" s="25"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>44147.672222222223</v>
+        <v>44147.695833333331</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>405</v>
+        <v>552</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>26</v>
@@ -6684,58 +6767,58 @@
       </c>
       <c r="L135" s="25"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="4">
+        <v>44147.672222222223</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L136" s="25"/>
+    </row>
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="4">
         <v>44147.669444444444</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L136" s="25"/>
-    </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="4">
-        <v>44146.38958333333</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G137" s="3">
         <v>1</v>
@@ -6745,72 +6828,72 @@
         <v>550</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L137" s="25"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>44143.157638888886</v>
+        <v>44146.38958333333</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>538</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G138" s="3">
         <v>1</v>
       </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="2" t="s">
-        <v>539</v>
+      <c r="I138" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L138" s="25"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>44143.156944444447</v>
+        <v>44143.157638888886</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>21</v>
@@ -6820,92 +6903,92 @@
       </c>
       <c r="L139" s="25"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>44143.154166666667</v>
+        <v>44143.156944444447</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L140" s="25"/>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>44142.606249999997</v>
+        <v>44143.154166666667</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L141" s="25"/>
     </row>
-    <row r="142" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>44138.168055555558</v>
+        <v>44142.606249999997</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
@@ -6922,31 +7005,31 @@
       </c>
       <c r="L142" s="25"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>44137.03125</v>
+        <v>44138.168055555558</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>21</v>
@@ -6956,18 +7039,18 @@
       </c>
       <c r="L143" s="25"/>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>44136.991666666669</v>
+        <v>44137.03125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>37</v>
@@ -6980,25 +7063,25 @@
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L144" s="25"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>44136.385416666664</v>
+        <v>44136.991666666669</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>503</v>
@@ -7007,36 +7090,38 @@
         <v>37</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K145" s="2"/>
+      <c r="K145" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L145" s="25"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4">
-        <v>44136.383333333331</v>
+        <v>44136.385416666664</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>403</v>
@@ -7046,14 +7131,12 @@
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K146" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="K146" s="2"/>
       <c r="L146" s="25"/>
     </row>
     <row r="147" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7061,32 +7144,36 @@
         <v>11</v>
       </c>
       <c r="B147" s="4">
-        <v>44136.277777777781</v>
+        <v>44136.383333333331</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L147" s="25"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>11</v>
       </c>
@@ -7094,47 +7181,43 @@
         <v>44136.277777777781</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="25"/>
+    </row>
+    <row r="149" spans="1:12" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="4">
+        <v>44136.277777777781</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="D149" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G148" s="3">
-        <v>1</v>
-      </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L148" s="25"/>
-    </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" s="4">
-        <v>44122.40902777778</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>403</v>
@@ -7143,42 +7226,42 @@
         <v>1</v>
       </c>
       <c r="H149" s="3"/>
-      <c r="I149" s="2" t="s">
-        <v>489</v>
+      <c r="I149" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L149" s="25"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="4">
-        <v>44122.407638888886</v>
-      </c>
-      <c r="C150" s="2" t="s">
+        <v>44122.40902777778</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G150" s="3">
         <v>1</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>21</v>
@@ -7188,18 +7271,18 @@
       </c>
       <c r="L150" s="25"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="4">
-        <v>44122.23333333333</v>
+        <v>44122.407638888886</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -7212,13 +7295,13 @@
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L151" s="25"/>
     </row>
@@ -7227,26 +7310,26 @@
         <v>11</v>
       </c>
       <c r="B152" s="4">
-        <v>44115</v>
+        <v>44122.23333333333</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>472</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>21</v>
@@ -7261,32 +7344,32 @@
         <v>11</v>
       </c>
       <c r="B153" s="4">
-        <v>44102</v>
+        <v>44115</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L153" s="25"/>
     </row>
@@ -7298,23 +7381,23 @@
         <v>44102</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G154" s="3">
         <v>1</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>21</v>
@@ -7324,31 +7407,31 @@
       </c>
       <c r="L154" s="25"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="4">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G155" s="3">
         <v>1</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>21</v>
@@ -7358,7 +7441,7 @@
       </c>
       <c r="L155" s="25"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>11</v>
       </c>
@@ -7369,20 +7452,20 @@
         <v>459</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>21</v>
@@ -7400,7 +7483,7 @@
         <v>44094</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>455</v>
@@ -7409,7 +7492,7 @@
         <v>37</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -7437,20 +7520,20 @@
         <v>452</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>21</v>
@@ -7468,10 +7551,10 @@
         <v>44094</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>15</v>
@@ -7484,7 +7567,7 @@
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>21</v>
@@ -7494,71 +7577,71 @@
       </c>
       <c r="L159" s="25"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="4">
-        <v>44077.746527777781</v>
+        <v>44094</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>446</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
       </c>
       <c r="H160" s="3"/>
-      <c r="I160" s="6" t="s">
-        <v>451</v>
+      <c r="I160" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L160" s="25"/>
     </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="4">
-        <v>44071.106249999997</v>
+        <v>44077.746527777781</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
       </c>
       <c r="H161" s="3"/>
-      <c r="I161" s="2" t="s">
-        <v>443</v>
+      <c r="I161" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L161" s="25"/>
     </row>
@@ -7567,63 +7650,63 @@
         <v>11</v>
       </c>
       <c r="B162" s="4">
-        <v>44069.31527777778</v>
+        <v>44071.106249999997</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G162" s="3">
         <v>1</v>
       </c>
       <c r="H162" s="3"/>
-      <c r="I162" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
+      <c r="I162" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L162" s="25"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B163" s="4">
-        <v>44067.693749999999</v>
+        <v>44069.31527777778</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
       </c>
       <c r="H163" s="3"/>
-      <c r="I163" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I163" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="25"/>
     </row>
     <row r="164" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7631,26 +7714,26 @@
         <v>11</v>
       </c>
       <c r="B164" s="4">
-        <v>44067.618750000001</v>
+        <v>44067.693749999999</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>21</v>
@@ -7665,26 +7748,26 @@
         <v>11</v>
       </c>
       <c r="B165" s="4">
-        <v>44066.393750000003</v>
+        <v>44067.618750000001</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G165" s="3">
         <v>1</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>21</v>
@@ -7694,68 +7777,68 @@
       </c>
       <c r="L165" s="25"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B166" s="4">
-        <v>44060.109722222223</v>
+        <v>44066.393750000003</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G166" s="3">
         <v>1</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L166" s="25"/>
     </row>
-    <row r="167" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B167" s="4">
-        <v>44060.006249999999</v>
+        <v>44060.109722222223</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
       <c r="L167" s="25"/>
     </row>
     <row r="168" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7763,29 +7846,33 @@
         <v>11</v>
       </c>
       <c r="B168" s="4">
-        <v>44051.845833333333</v>
+        <v>44060.006249999999</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L168" s="25"/>
     </row>
     <row r="169" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7793,114 +7880,112 @@
         <v>11</v>
       </c>
       <c r="B169" s="4">
-        <v>44051.779166666667</v>
+        <v>44051.845833333333</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="25"/>
+    </row>
+    <row r="170" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="4">
+        <v>44051.779166666667</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L169" s="25"/>
-    </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B170" s="4">
+      <c r="G170" s="3">
+        <v>1</v>
+      </c>
+      <c r="H170" s="3"/>
+      <c r="I170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L170" s="25"/>
+    </row>
+    <row r="171" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="4">
         <v>44045.950694444444</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="3">
-        <v>1</v>
-      </c>
-      <c r="H170" s="3"/>
-      <c r="I170" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L170" s="25"/>
-    </row>
-    <row r="171" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="4">
-        <v>44044.503472222219</v>
-      </c>
       <c r="C171" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="3">
         <v>1</v>
       </c>
       <c r="H171" s="3"/>
-      <c r="I171" s="2" t="s">
-        <v>395</v>
+      <c r="I171" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L171" s="25"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="4">
-        <v>44040.64166666667</v>
+        <v>44044.503472222219</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="3">
@@ -7908,28 +7993,28 @@
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L172" s="25"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="4">
-        <v>44040.486805555556</v>
+        <v>44040.64166666667</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -7940,13 +8025,13 @@
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L173" s="25"/>
     </row>
@@ -7955,13 +8040,13 @@
         <v>11</v>
       </c>
       <c r="B174" s="4">
-        <v>44038.615972222222</v>
+        <v>44040.486805555556</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -7972,13 +8057,13 @@
       </c>
       <c r="H174" s="3"/>
       <c r="I174" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L174" s="25"/>
     </row>
@@ -7987,13 +8072,13 @@
         <v>11</v>
       </c>
       <c r="B175" s="4">
-        <v>44038.490277777775</v>
+        <v>44038.615972222222</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -8010,7 +8095,7 @@
         <v>21</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L175" s="25"/>
     </row>
@@ -8019,10 +8104,10 @@
         <v>11</v>
       </c>
       <c r="B176" s="4">
-        <v>44037.549305555556</v>
+        <v>44038.490277777775</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>379</v>
@@ -8036,28 +8121,28 @@
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L176" s="25"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="4">
-        <v>44037.54791666667</v>
+        <v>44037.549305555556</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -8068,28 +8153,28 @@
       </c>
       <c r="H177" s="3"/>
       <c r="I177" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="L177" s="25"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="4">
-        <v>44037.48541666667</v>
+        <v>44037.54791666667</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -8100,31 +8185,31 @@
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L178" s="25"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B179" s="4">
-        <v>44036.708333333336</v>
+        <v>44037.48541666667</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="3">
@@ -8132,7 +8217,7 @@
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>21</v>
@@ -8147,16 +8232,16 @@
         <v>11</v>
       </c>
       <c r="B180" s="4">
-        <v>44030.311805555553</v>
+        <v>44036.708333333336</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="3">
@@ -8164,33 +8249,31 @@
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L180" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="L180" s="25"/>
+    </row>
+    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="4">
-        <v>44030.288194444445</v>
+        <v>44030.311805555553</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="3">
@@ -8198,7 +8281,7 @@
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>21</v>
@@ -8206,23 +8289,25 @@
       <c r="K181" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L181" s="25"/>
-    </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L181" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="4">
-        <v>44030.259027777778</v>
+        <v>44030.288194444445</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>358</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="3">
@@ -8230,7 +8315,7 @@
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>21</v>
@@ -8240,21 +8325,21 @@
       </c>
       <c r="L182" s="25"/>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="4">
-        <v>44028.379861111112</v>
+        <v>44030.259027777778</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="3">
@@ -8262,31 +8347,31 @@
       </c>
       <c r="H183" s="3"/>
       <c r="I183" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="4">
-        <v>44028.377083333333</v>
+        <v>44028.379861111112</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="3">
@@ -8294,7 +8379,7 @@
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>21</v>
@@ -8304,21 +8389,21 @@
       </c>
       <c r="L184" s="25"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="4">
-        <v>44027.884027777778</v>
+        <v>44028.377083333333</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="3">
@@ -8326,7 +8411,7 @@
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>21</v>
@@ -8336,21 +8421,21 @@
       </c>
       <c r="L185" s="25"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="4">
-        <v>44026.883333333331</v>
+        <v>44027.884027777778</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="3">
@@ -8358,13 +8443,13 @@
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L186" s="25"/>
     </row>
@@ -8373,16 +8458,16 @@
         <v>11</v>
       </c>
       <c r="B187" s="4">
-        <v>44025.490972222222</v>
+        <v>44026.883333333331</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="3">
@@ -8390,7 +8475,7 @@
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>21</v>
@@ -8405,10 +8490,10 @@
         <v>11</v>
       </c>
       <c r="B188" s="4">
-        <v>44025.15347222222</v>
+        <v>44025.490972222222</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>336</v>
@@ -8422,28 +8507,28 @@
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L188" s="25"/>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B189" s="4">
-        <v>44019.426388888889</v>
+        <v>44025.15347222222</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -8454,7 +8539,7 @@
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>21</v>
@@ -8469,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="B190" s="4">
-        <v>44019.088194444441</v>
+        <v>44019.426388888889</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -8486,7 +8571,7 @@
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>21</v>
@@ -8501,13 +8586,13 @@
         <v>11</v>
       </c>
       <c r="B191" s="4">
-        <v>44018.056250000001</v>
+        <v>44019.088194444441</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -8518,7 +8603,7 @@
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>21</v>
@@ -8528,18 +8613,18 @@
       </c>
       <c r="L191" s="25"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="4">
-        <v>44017.363888888889</v>
+        <v>44018.056250000001</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -8550,7 +8635,7 @@
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>21</v>
@@ -8565,13 +8650,13 @@
         <v>11</v>
       </c>
       <c r="B193" s="4">
-        <v>44017.333333333336</v>
+        <v>44017.363888888889</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -8588,25 +8673,25 @@
         <v>21</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L193" s="25"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="4">
-        <v>44016.859722222223</v>
+        <v>44017.333333333336</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="3">
@@ -8614,7 +8699,7 @@
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>21</v>
@@ -8624,21 +8709,21 @@
       </c>
       <c r="L194" s="25"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="4">
-        <v>44012.827777777777</v>
+        <v>44016.859722222223</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="3">
@@ -8646,7 +8731,7 @@
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>21</v>
@@ -8656,21 +8741,21 @@
       </c>
       <c r="L195" s="25"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="4">
-        <v>44008</v>
+        <v>44012.827777777777</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="3">
@@ -8678,31 +8763,31 @@
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K196" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K196" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L196" s="25"/>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B197" s="4">
-        <v>43995.52847222222</v>
+        <v>44008</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="3">
@@ -8710,13 +8795,13 @@
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L197" s="25"/>
     </row>
@@ -8725,13 +8810,13 @@
         <v>11</v>
       </c>
       <c r="B198" s="4">
-        <v>43990.650694444441</v>
+        <v>43995.52847222222</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -8742,13 +8827,13 @@
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L198" s="25"/>
     </row>
@@ -8757,13 +8842,13 @@
         <v>11</v>
       </c>
       <c r="B199" s="4">
-        <v>44012.328472222223</v>
+        <v>43990.650694444441</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -8774,7 +8859,7 @@
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>21</v>
@@ -8789,26 +8874,24 @@
         <v>11</v>
       </c>
       <c r="B200" s="4">
-        <v>44058.987500000003</v>
+        <v>44012.328472222223</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="F200" s="2"/>
       <c r="G200" s="3">
         <v>1</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="2" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>21</v>
@@ -8818,29 +8901,31 @@
       </c>
       <c r="L200" s="25"/>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B201" s="4">
-        <v>43990.670138888891</v>
+        <v>44058.987500000003</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F201" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="G201" s="3">
         <v>1</v>
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="2" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>21</v>
@@ -8850,21 +8935,21 @@
       </c>
       <c r="L201" s="25"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="4">
-        <v>43983.301388888889</v>
+        <v>43990.670138888891</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="3">
@@ -8872,31 +8957,31 @@
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L202" s="25"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B203" s="4">
-        <v>43982.572222222225</v>
+        <v>43983.301388888889</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="3">
@@ -8904,7 +8989,7 @@
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>21</v>
@@ -8919,16 +9004,16 @@
         <v>11</v>
       </c>
       <c r="B204" s="4">
-        <v>43982.536805555559</v>
+        <v>43982.572222222225</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="3">
@@ -8936,7 +9021,7 @@
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>21</v>
@@ -8951,16 +9036,16 @@
         <v>11</v>
       </c>
       <c r="B205" s="4">
-        <v>43982.416666666664</v>
+        <v>43982.536805555559</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="3">
@@ -8968,7 +9053,7 @@
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>21</v>
@@ -8983,16 +9068,16 @@
         <v>11</v>
       </c>
       <c r="B206" s="4">
-        <v>43982.368055555555</v>
+        <v>43982.416666666664</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="3">
@@ -9000,7 +9085,7 @@
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>21</v>
@@ -9015,16 +9100,16 @@
         <v>11</v>
       </c>
       <c r="B207" s="4">
-        <v>43976.984027777777</v>
+        <v>43982.368055555555</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="3">
@@ -9032,13 +9117,13 @@
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K207" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L207" s="25"/>
     </row>
@@ -9047,16 +9132,16 @@
         <v>11</v>
       </c>
       <c r="B208" s="4">
-        <v>43976.3</v>
+        <v>43976.984027777777</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="3">
@@ -9064,31 +9149,31 @@
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L208" s="25"/>
     </row>
-    <row r="209" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B209" s="4">
-        <v>43976.279861111114</v>
+        <v>43976.3</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="3">
@@ -9096,7 +9181,7 @@
       </c>
       <c r="H209" s="3"/>
       <c r="I209" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>21</v>
@@ -9106,18 +9191,18 @@
       </c>
       <c r="L209" s="25"/>
     </row>
-    <row r="210" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B210" s="4">
-        <v>43976.130555555559</v>
+        <v>43976.279861111114</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -9128,7 +9213,7 @@
       </c>
       <c r="H210" s="3"/>
       <c r="I210" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>21</v>
@@ -9138,21 +9223,21 @@
       </c>
       <c r="L210" s="25"/>
     </row>
-    <row r="211" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B211" s="4">
-        <v>43962.618055555555</v>
+        <v>43976.130555555559</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="3">
@@ -9160,31 +9245,31 @@
       </c>
       <c r="H211" s="3"/>
       <c r="I211" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K211" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K211" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L211" s="25"/>
     </row>
-    <row r="212" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B212" s="4">
-        <v>43962.611111111109</v>
+        <v>43962.618055555555</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="3">
@@ -9192,26 +9277,28 @@
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="25" t="s">
-        <v>236</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L212" s="25"/>
     </row>
     <row r="213" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B213" s="4">
-        <v>43969.09375</v>
+        <v>43962.611111111109</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -9222,31 +9309,29 @@
       </c>
       <c r="H213" s="3"/>
       <c r="I213" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L213" s="25"/>
-    </row>
-    <row r="214" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B214" s="4">
-        <v>43954</v>
+        <v>43969.09375</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="3">
@@ -9254,41 +9339,39 @@
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L214" s="25"/>
     </row>
-    <row r="215" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B215" s="4">
-        <v>44064.506249999999</v>
+        <v>43954</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F215" s="2"/>
       <c r="G215" s="3">
         <v>1</v>
       </c>
       <c r="H215" s="3"/>
       <c r="I215" s="2" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>21</v>
@@ -9298,29 +9381,31 @@
       </c>
       <c r="L215" s="25"/>
     </row>
-    <row r="216" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B216" s="4">
-        <v>43959</v>
+        <v>44064.506249999999</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="G216" s="3">
         <v>1</v>
       </c>
       <c r="H216" s="3"/>
-      <c r="I216" s="6" t="s">
-        <v>228</v>
+      <c r="I216" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>21</v>
@@ -9330,87 +9415,87 @@
       </c>
       <c r="L216" s="25"/>
     </row>
-    <row r="217" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B217" s="4">
-        <v>43948</v>
+        <v>43959</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="3">
         <v>1</v>
       </c>
       <c r="H217" s="3"/>
-      <c r="I217" s="2" t="s">
+      <c r="I217" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L217" s="25"/>
+    </row>
+    <row r="218" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" s="3">
+        <v>1</v>
+      </c>
+      <c r="H218" s="3"/>
+      <c r="I218" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L217" s="25" t="s">
+      <c r="J218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L218" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" s="9">
+    <row r="219" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" s="9">
         <v>43933</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D219" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E219" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F218" s="7"/>
-      <c r="G218" s="8">
-        <v>1</v>
-      </c>
-      <c r="H218" s="8"/>
-      <c r="I218" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J218" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K218" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L218" s="26"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B219" s="9">
-        <v>43932</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="8">
@@ -9418,92 +9503,92 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J219" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L219" s="26"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" s="9">
+        <v>43932</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="7"/>
+      <c r="G220" s="8">
+        <v>1</v>
+      </c>
+      <c r="H220" s="8"/>
+      <c r="I220" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J219" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K219" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L219" s="26"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" s="12">
+      <c r="J220" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L220" s="26"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="12">
         <v>43963.240277777775</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E220" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F220" s="10"/>
-      <c r="G220" s="11">
-        <v>1</v>
-      </c>
-      <c r="H220" s="11"/>
-      <c r="I220" s="10" t="s">
+      <c r="E221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="11">
+        <v>1</v>
+      </c>
+      <c r="H221" s="11"/>
+      <c r="I221" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J220" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K220" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L220" s="26"/>
-    </row>
-    <row r="221" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A221" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" s="9">
+      <c r="J221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L221" s="26"/>
+    </row>
+    <row r="222" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A222" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="9">
         <v>43932</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F221" s="7"/>
-      <c r="G221" s="8">
-        <v>1</v>
-      </c>
-      <c r="H221" s="8"/>
-      <c r="I221" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J221" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K221" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L221" s="26"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="9">
-        <v>43893</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>8</v>
@@ -9514,31 +9599,31 @@
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K222" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L222" s="26"/>
     </row>
-    <row r="223" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B223" s="9">
-        <v>43920</v>
+        <v>43893</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="8">
@@ -9546,10 +9631,10 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K223" s="7" t="s">
         <v>21</v>
@@ -9561,13 +9646,13 @@
         <v>11</v>
       </c>
       <c r="B224" s="9">
-        <v>43911</v>
+        <v>43920</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>15</v>
@@ -9578,31 +9663,31 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L224" s="26"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B225" s="9">
-        <v>43903</v>
+        <v>43911</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="8">
@@ -9610,7 +9695,7 @@
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>21</v>
@@ -9620,21 +9705,21 @@
       </c>
       <c r="L225" s="26"/>
     </row>
-    <row r="226" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B226" s="9">
-        <v>43901</v>
+        <v>43903</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="8">
@@ -9642,7 +9727,7 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>21</v>
@@ -9652,7 +9737,7 @@
       </c>
       <c r="L226" s="26"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>11</v>
       </c>
@@ -9660,13 +9745,13 @@
         <v>43901</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="8">
@@ -9674,7 +9759,7 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>21</v>
@@ -9692,13 +9777,13 @@
         <v>43901</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="8">
@@ -9706,7 +9791,7 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>21</v>
@@ -9724,13 +9809,13 @@
         <v>43901</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="8">
@@ -9738,7 +9823,7 @@
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>21</v>
@@ -9756,13 +9841,13 @@
         <v>43901</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F230" s="7"/>
       <c r="G230" s="8">
@@ -9770,13 +9855,13 @@
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L230" s="26"/>
     </row>
@@ -9785,13 +9870,13 @@
         <v>11</v>
       </c>
       <c r="B231" s="9">
-        <v>43898</v>
+        <v>43901</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>8</v>
@@ -9802,17 +9887,17 @@
       </c>
       <c r="H231" s="8"/>
       <c r="I231" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L231" s="26"/>
     </row>
-    <row r="232" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>11</v>
       </c>
@@ -9820,13 +9905,13 @@
         <v>43898</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="8">
@@ -9834,7 +9919,7 @@
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>21</v>
@@ -9852,13 +9937,13 @@
         <v>43898</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="8">
@@ -9866,7 +9951,7 @@
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>21</v>
@@ -9884,13 +9969,13 @@
         <v>43898</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F234" s="7"/>
       <c r="G234" s="8">
@@ -9898,7 +9983,7 @@
       </c>
       <c r="H234" s="8"/>
       <c r="I234" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>21</v>
@@ -9916,10 +10001,10 @@
         <v>43898</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>8</v>
@@ -9930,7 +10015,7 @@
       </c>
       <c r="H235" s="8"/>
       <c r="I235" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>21</v>
@@ -9948,13 +10033,13 @@
         <v>43898</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="8">
@@ -9962,7 +10047,7 @@
       </c>
       <c r="H236" s="8"/>
       <c r="I236" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>21</v>
@@ -9972,21 +10057,21 @@
       </c>
       <c r="L236" s="26"/>
     </row>
-    <row r="237" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B237" s="9">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F237" s="7"/>
       <c r="G237" s="8">
@@ -9994,17 +10079,17 @@
       </c>
       <c r="H237" s="8"/>
       <c r="I237" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J237" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L237" s="26"/>
     </row>
-    <row r="238" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>11</v>
       </c>
@@ -10012,13 +10097,13 @@
         <v>43897</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F238" s="7"/>
       <c r="G238" s="8">
@@ -10032,25 +10117,25 @@
         <v>21</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L238" s="26"/>
     </row>
-    <row r="239" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="9">
-        <v>43887</v>
+        <v>43897</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F239" s="7"/>
       <c r="G239" s="8">
@@ -10058,43 +10143,45 @@
       </c>
       <c r="H239" s="8"/>
       <c r="I239" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L239" s="26"/>
+    </row>
+    <row r="240" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="7"/>
+      <c r="G240" s="8">
+        <v>1</v>
+      </c>
+      <c r="H240" s="8"/>
+      <c r="I240" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J239" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K239" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L239" s="26"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" s="9">
-        <v>43885</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F240" s="7"/>
-      <c r="G240" s="11"/>
-      <c r="H240" s="11"/>
-      <c r="I240" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="J240" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="L240" s="26"/>
     </row>
@@ -10103,66 +10190,64 @@
         <v>11</v>
       </c>
       <c r="B241" s="9">
-        <v>43883</v>
+        <v>43885</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F241" s="7"/>
-      <c r="G241" s="8">
-        <v>1</v>
-      </c>
-      <c r="H241" s="8"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
       <c r="I241" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J241" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="L241" s="26"/>
     </row>
-    <row r="242" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B242" s="9">
         <v>43883</v>
       </c>
-      <c r="C242" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E242" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F242" s="10"/>
-      <c r="G242" s="11">
-        <v>1</v>
-      </c>
-      <c r="H242" s="11"/>
-      <c r="I242" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J242" s="10" t="s">
+      <c r="C242" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="7"/>
+      <c r="G242" s="8">
+        <v>1</v>
+      </c>
+      <c r="H242" s="8"/>
+      <c r="I242" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J242" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K242" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K242" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="L242" s="26"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>11</v>
       </c>
@@ -10170,13 +10255,13 @@
         <v>43883</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F243" s="10"/>
       <c r="G243" s="11">
@@ -10184,13 +10269,13 @@
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J243" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K243" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L243" s="26"/>
     </row>
@@ -10198,17 +10283,17 @@
       <c r="A244" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B244" s="12">
-        <v>43881</v>
+      <c r="B244" s="9">
+        <v>43883</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F244" s="10"/>
       <c r="G244" s="11">
@@ -10216,7 +10301,7 @@
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J244" s="10" t="s">
         <v>21</v>
@@ -10226,7 +10311,7 @@
       </c>
       <c r="L244" s="26"/>
     </row>
-    <row r="245" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>11</v>
       </c>
@@ -10234,10 +10319,10 @@
         <v>43881</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>110</v>
@@ -10248,7 +10333,7 @@
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>21</v>
@@ -10258,21 +10343,21 @@
       </c>
       <c r="L245" s="26"/>
     </row>
-    <row r="246" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B246" s="12">
-        <v>43878</v>
+        <v>43881</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="F246" s="10"/>
       <c r="G246" s="11">
@@ -10280,17 +10365,17 @@
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J246" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K246" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L246" s="26"/>
     </row>
-    <row r="247" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>11</v>
       </c>
@@ -10298,10 +10383,10 @@
         <v>43878</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>8</v>
@@ -10311,8 +10396,8 @@
         <v>1</v>
       </c>
       <c r="H247" s="11"/>
-      <c r="I247" s="13" t="s">
-        <v>206</v>
+      <c r="I247" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="J247" s="10" t="s">
         <v>21</v>
@@ -10322,39 +10407,39 @@
       </c>
       <c r="L247" s="26"/>
     </row>
-    <row r="248" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B248" s="12">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="F248" s="10"/>
       <c r="G248" s="11">
         <v>1</v>
       </c>
       <c r="H248" s="11"/>
-      <c r="I248" s="10" t="s">
-        <v>205</v>
+      <c r="I248" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="J248" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K248" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L248" s="26"/>
     </row>
-    <row r="249" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>11</v>
       </c>
@@ -10362,10 +10447,10 @@
         <v>43877</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>101</v>
@@ -10375,8 +10460,8 @@
         <v>1</v>
       </c>
       <c r="H249" s="11"/>
-      <c r="I249" s="14" t="s">
-        <v>203</v>
+      <c r="I249" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="J249" s="10" t="s">
         <v>21</v>
@@ -10386,61 +10471,61 @@
       </c>
       <c r="L249" s="26"/>
     </row>
-    <row r="250" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B250" s="12">
-        <v>43874</v>
+        <v>43877</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F250" s="10"/>
       <c r="G250" s="11">
         <v>1</v>
       </c>
       <c r="H250" s="11"/>
-      <c r="I250" s="13" t="s">
-        <v>202</v>
+      <c r="I250" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="J250" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K250" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L250" s="26"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B251" s="12">
-        <v>43872</v>
+        <v>43874</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F251" s="10"/>
       <c r="G251" s="11">
         <v>1</v>
       </c>
       <c r="H251" s="11"/>
-      <c r="I251" s="10" t="s">
-        <v>98</v>
+      <c r="I251" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="J251" s="10" t="s">
         <v>21</v>
@@ -10454,30 +10539,30 @@
       <c r="A252" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="9">
-        <v>43883</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" s="7"/>
-      <c r="G252" s="8">
-        <v>1</v>
-      </c>
-      <c r="H252" s="8"/>
-      <c r="I252" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J252" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K252" s="7" t="s">
+      <c r="B252" s="12">
+        <v>43872</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="11">
+        <v>1</v>
+      </c>
+      <c r="H252" s="11"/>
+      <c r="I252" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J252" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K252" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L252" s="26"/>
@@ -10486,49 +10571,49 @@
       <c r="A253" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="12">
+      <c r="B253" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="7"/>
+      <c r="G253" s="8">
+        <v>1</v>
+      </c>
+      <c r="H253" s="8"/>
+      <c r="I253" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L253" s="26"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="12">
         <v>43869</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F253" s="10"/>
-      <c r="G253" s="11">
-        <v>1</v>
-      </c>
-      <c r="H253" s="11"/>
-      <c r="I253" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K253" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L253" s="26"/>
-    </row>
-    <row r="254" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A254" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="12">
-        <v>43870</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F254" s="10"/>
       <c r="G254" s="11">
@@ -10536,31 +10621,31 @@
       </c>
       <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K254" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L254" s="26"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B255" s="12">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F255" s="10"/>
       <c r="G255" s="11">
@@ -10568,17 +10653,17 @@
       </c>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K255" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L255" s="26"/>
     </row>
-    <row r="256" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>11</v>
       </c>
@@ -10586,13 +10671,13 @@
         <v>43869</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F256" s="10"/>
       <c r="G256" s="11">
@@ -10600,17 +10685,17 @@
       </c>
       <c r="H256" s="11"/>
       <c r="I256" s="10" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K256" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L256" s="26"/>
     </row>
-    <row r="257" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>11</v>
       </c>
@@ -10618,10 +10703,10 @@
         <v>43869</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>8</v>
@@ -10632,31 +10717,31 @@
       </c>
       <c r="H257" s="11"/>
       <c r="I257" s="10" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="J257" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K257" s="10" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="L257" s="26"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B258" s="12">
-        <v>43865</v>
+        <v>43869</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F258" s="10"/>
       <c r="G258" s="11">
@@ -10664,13 +10749,13 @@
       </c>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J258" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K258" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L258" s="26"/>
     </row>
@@ -10679,13 +10764,13 @@
         <v>11</v>
       </c>
       <c r="B259" s="12">
-        <v>43858</v>
+        <v>43865</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E259" s="10" t="s">
         <v>15</v>
@@ -10696,7 +10781,7 @@
       </c>
       <c r="H259" s="11"/>
       <c r="I259" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J259" s="10" t="s">
         <v>21</v>
@@ -10714,13 +10799,13 @@
         <v>43858</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F260" s="10"/>
       <c r="G260" s="11">
@@ -10728,7 +10813,7 @@
       </c>
       <c r="H260" s="11"/>
       <c r="I260" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J260" s="10" t="s">
         <v>21</v>
@@ -10738,29 +10823,29 @@
       </c>
       <c r="L260" s="26"/>
     </row>
-    <row r="261" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B261" s="12">
-        <v>43855</v>
+        <v>43858</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F261" s="10"/>
       <c r="G261" s="11">
         <v>1</v>
       </c>
       <c r="H261" s="11"/>
-      <c r="I261" s="15" t="s">
-        <v>196</v>
+      <c r="I261" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="J261" s="10" t="s">
         <v>21</v>
@@ -10770,79 +10855,79 @@
       </c>
       <c r="L261" s="26"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B262" s="12">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F262" s="10"/>
       <c r="G262" s="11">
         <v>1</v>
       </c>
-      <c r="H262" s="29"/>
-      <c r="I262" s="16"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J262" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K262" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L262" s="26"/>
     </row>
-    <row r="263" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B263" s="12">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F263" s="10"/>
       <c r="G263" s="11">
         <v>1</v>
       </c>
-      <c r="H263" s="11"/>
-      <c r="I263" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J263" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K263" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H263" s="29"/>
+      <c r="I263" s="16"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
       <c r="L263" s="26"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B264" s="12">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F264" s="10"/>
       <c r="G264" s="11">
@@ -10850,7 +10935,7 @@
       </c>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J264" s="10" t="s">
         <v>21</v>
@@ -10860,7 +10945,7 @@
       </c>
       <c r="L264" s="26"/>
     </row>
-    <row r="265" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>11</v>
       </c>
@@ -10868,17 +10953,21 @@
         <v>43854</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D265" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E265" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F265" s="10"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="11">
+        <v>1</v>
+      </c>
       <c r="H265" s="11"/>
       <c r="I265" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J265" s="10" t="s">
         <v>21</v>
@@ -10888,31 +10977,25 @@
       </c>
       <c r="L265" s="26"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D266" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E266" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G266" s="8">
-        <v>1</v>
-      </c>
-      <c r="H266" s="8"/>
+      <c r="B266" s="12">
+        <v>43854</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
       <c r="I266" s="10" t="s">
-        <v>467</v>
+        <v>61</v>
       </c>
       <c r="J266" s="10" t="s">
         <v>21</v>
@@ -10926,23 +11009,27 @@
       <c r="A267" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B267" s="12">
-        <v>43853</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F267" s="10"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
+      <c r="B267" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G267" s="8">
+        <v>1</v>
+      </c>
+      <c r="H267" s="8"/>
       <c r="I267" s="10" t="s">
-        <v>55</v>
+        <v>465</v>
       </c>
       <c r="J267" s="10" t="s">
         <v>21</v>
@@ -10952,7 +11039,7 @@
       </c>
       <c r="L267" s="26"/>
     </row>
-    <row r="268" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>11</v>
       </c>
@@ -10960,134 +11047,134 @@
         <v>43853</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F268" s="10"/>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J268" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K268" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L268" s="26"/>
     </row>
-    <row r="269" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B269" s="12">
-        <v>43851</v>
+        <v>43853</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F269" s="10"/>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
       <c r="I269" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="J269" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K269" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L269" s="26"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B270" s="12">
-        <v>43849</v>
+        <v>43851</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
       <c r="I270" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J270" s="10"/>
       <c r="K270" s="10"/>
       <c r="L270" s="26"/>
     </row>
-    <row r="271" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B271" s="12">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F271" s="10"/>
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
       <c r="I271" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
       <c r="L271" s="26"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="10" t="s">
+    <row r="272" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B272" s="12">
         <v>43848</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F272" s="10"/>
       <c r="G272" s="11"/>
       <c r="H272" s="11"/>
       <c r="I272" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J272" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K272" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
       <c r="L272" s="26"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -11095,13 +11182,13 @@
         <v>11</v>
       </c>
       <c r="B273" s="12">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E273" s="10" t="s">
         <v>31</v>
@@ -11110,37 +11197,37 @@
       <c r="G273" s="11"/>
       <c r="H273" s="11"/>
       <c r="I273" s="10" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="J273" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K273" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L273" s="26"/>
     </row>
-    <row r="274" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B274" s="12">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F274" s="10"/>
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
       <c r="I274" s="10" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="J274" s="10" t="s">
         <v>21</v>
@@ -11150,18 +11237,18 @@
       </c>
       <c r="L274" s="26"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B275" s="12">
-        <v>43835</v>
+        <v>43846</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E275" s="10" t="s">
         <v>23</v>
@@ -11170,7 +11257,7 @@
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
       <c r="I275" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J275" s="10" t="s">
         <v>21</v>
@@ -11188,25 +11275,25 @@
         <v>43835</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="11"/>
       <c r="H276" s="11"/>
       <c r="I276" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J276" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K276" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L276" s="26"/>
     </row>
@@ -11215,83 +11302,87 @@
         <v>11</v>
       </c>
       <c r="B277" s="12">
-        <v>43842</v>
+        <v>43835</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F277" s="10"/>
       <c r="G277" s="11"/>
-      <c r="H277" s="29"/>
-      <c r="I277" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J277" s="10"/>
-      <c r="K277" s="10"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K277" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L277" s="26"/>
     </row>
-    <row r="278" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B278" s="12">
-        <v>43857</v>
+        <v>43842</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E278" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F278" s="10"/>
-      <c r="G278" s="11">
-        <v>1</v>
-      </c>
-      <c r="H278" s="11"/>
-      <c r="I278" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J278" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K278" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G278" s="11"/>
+      <c r="H278" s="29"/>
+      <c r="I278" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
       <c r="L278" s="26"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B279" s="12">
-        <v>43841</v>
+        <v>43857</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F279" s="10"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="11">
+        <v>1</v>
+      </c>
       <c r="H279" s="11"/>
       <c r="I279" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J279" s="10"/>
-      <c r="K279" s="10"/>
+        <v>197</v>
+      </c>
+      <c r="J279" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K279" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="L279" s="26"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -11299,13 +11390,13 @@
         <v>11</v>
       </c>
       <c r="B280" s="12">
-        <v>43751</v>
+        <v>43841</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E280" s="10" t="s">
         <v>8</v>
@@ -11314,32 +11405,58 @@
       <c r="G280" s="11"/>
       <c r="H280" s="11"/>
       <c r="I280" s="10" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="J280" s="10"/>
       <c r="K280" s="10"/>
       <c r="L280" s="26"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A281" s="17"/>
-      <c r="B281" s="17"/>
-      <c r="C281" s="17"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="17"/>
-      <c r="F281" s="17"/>
-      <c r="G281" s="18"/>
-      <c r="H281" s="18"/>
-      <c r="I281" s="17"/>
-      <c r="J281" s="17"/>
-      <c r="K281" s="17"/>
+      <c r="A281" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" s="12">
+        <v>43751</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="10"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J281" s="10"/>
+      <c r="K281" s="10"/>
+      <c r="L281" s="26"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A282" s="17"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="17"/>
+      <c r="D282" s="17"/>
+      <c r="E282" s="17"/>
+      <c r="F282" s="17"/>
+      <c r="G282" s="18"/>
+      <c r="H282" s="18"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:K99">
-    <sortCondition descending="1" ref="C98:C99"/>
+  <autoFilter ref="A1:L282" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:K96">
+    <sortCondition descending="1" ref="C95:C96"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A47 A128:A280 A49:A94 A96:A125">
+  <conditionalFormatting sqref="A129:A281 A2:A46 A48:A92 A94:A126">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
@@ -11350,12 +11467,12 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B47 B128:B280 B49:B94 B96:B126">
+  <conditionalFormatting sqref="B129:B281 B2:B46 B48:B92 B94:B127">
     <cfRule type="expression" dxfId="39" priority="48">
       <formula>AND($A2 = "Done", ISBLANK($B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E47 E49:E94 E96:E280">
+  <conditionalFormatting sqref="E2:E46 E48:E92 E94:E281">
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>$E2="Improv"</formula>
     </cfRule>
@@ -11372,7 +11489,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F47 F49:F94 F96:F280">
+  <conditionalFormatting sqref="F2:F46 F48:F92 F94:F281">
     <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -11386,125 +11503,125 @@
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="29" priority="33" stopIfTrue="1">
-      <formula>LEN(TRIM(A48))=0</formula>
+      <formula>LEN(TRIM(A47))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="27" priority="32">
-      <formula>AND($A48 = "Done", ISBLANK($B48))</formula>
+      <formula>AND($A47 = "Done", ISBLANK($B47))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E47">
     <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$E48="Improv"</formula>
+      <formula>$E47="Improv"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
-      <formula>$E48="Feat"</formula>
+      <formula>$E47="Feat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
-      <formula>$E48="Design"</formula>
+      <formula>$E47="Design"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
-      <formula>$E48="Bug"</formula>
+      <formula>$E47="Bug"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="30">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
-      <formula>$F48="High"</formula>
+      <formula>$F47="High"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
-      <formula>$F48="Medium"</formula>
+      <formula>$F47="Medium"</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="25">
-      <formula>LEN(TRIM(F48))=0</formula>
+      <formula>LEN(TRIM(F47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="A127">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A126))=0</formula>
+      <formula>LEN(TRIM(A127))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
+  <conditionalFormatting sqref="B128">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND($A127 = "Done", ISBLANK($B127))</formula>
+      <formula>AND($A128 = "Done", ISBLANK($B128))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+  <conditionalFormatting sqref="A128">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>LEN(TRIM(A127))=0</formula>
+      <formula>LEN(TRIM(A128))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="A93">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Started"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A95))=0</formula>
+      <formula>LEN(TRIM(A93))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B93">
     <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($A95 = "Done", ISBLANK($B95))</formula>
+      <formula>AND($A93 = "Done", ISBLANK($B93))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E93">
     <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$E95="Improv"</formula>
+      <formula>$E93="Improv"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>$E95="Feat"</formula>
+      <formula>$E93="Feat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>$E95="Design"</formula>
+      <formula>$E93="Design"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>$E95="Bug"</formula>
+      <formula>$E93="Bug"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F93">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$F95="High"</formula>
+      <formula>$F93="High"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$F95="Medium"</formula>
+      <formula>$F93="Medium"</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(F95))=0</formula>
+      <formula>LEN(TRIM(F93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
